--- a/strDataFrame.xlsx
+++ b/strDataFrame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,1514 +434,8250 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Cnpj</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>@odata.context</t>
+          <t>NomeIf</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>Segmento</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NomePosto</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TipoPosto</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Endereco</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Numero</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Complemento</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Bairro</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Cep</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MunicipioIbge</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Municipio</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>UF</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>DDD</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CnpjAssist</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>NomeAssist</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Posicao</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>04894460</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS SERVIDORES DA JUSTIÇA DO ESTADO DE MINAS GERAIS LTDA. - SICOOB CREDJUS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04894460', 'NomeIf': 'COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS SERVIDORES DA JUSTIÇA DO ESTADO DE MINAS GERAIS LTDA. - SICOOB CREDJUS', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA FÓRUM - RAJA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV. RAJA GABÁGLIA', 'Numero': '1753', 'Complemento': 'ANDAR TÉRREO', 'Bairro': 'LUXEMBURGO', 'Cep': '30380-435', 'MunicipioIbge': '3106200', 'Municipio': 'BELO HORIZONTE', 'UF': 'MG', 'DDD': None, 'Telefone': None, 'CnpjAssist': '60.701.190/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SICOOB PA FÓRUM - RAJA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>AV. RAJA GABÁGLIA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1753</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ANDAR TÉRREO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>LUXEMBURGO</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>30380-435</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>3106200</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>BELO HORIZONTE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>60.701.190/0001-04</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>04894460</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS SERVIDORES DA JUSTIÇA DO ESTADO DE MINAS GERAIS LTDA. - SICOOB CREDJUS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04894460', 'NomeIf': 'COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS SERVIDORES DA JUSTIÇA DO ESTADO DE MINAS GERAIS LTDA. - SICOOB CREDJUS', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA FÓRUM CONTAGEM', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV MARIA DA GLÓRIA ROCHA', 'Numero': '425', 'Complemento': '3- ANDAR', 'Bairro': 'BITACULA', 'Cep': '32010-375', 'MunicipioIbge': '3106200', 'Municipio': 'BELO HORIZONTE', 'UF': 'MG', 'DDD': '31', 'Telefone': '32754645', 'CnpjAssist': '90.400.888/2290-50', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SICOOB PA FÓRUM CONTAGEM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>AV MARIA DA GLÓRIA ROCHA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3- ANDAR</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>BITACULA</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>32010-375</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>3106200</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>BELO HORIZONTE</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>32754645</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>90.400.888/2290-50</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>09526594</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'Cnpj': '09526594', 'NomeIf': 'BANCO MASTER DE INVESTIMENTO S.A.', 'Segmento': 'Banco de Investimento', 'NomePosto': 'BANCO MASTER DE INVESTIMENTO S.A.', 'TipoPosto': 'Posto de Atendimento Bancário - PAB', 'Endereco': 'AVENIDA DO BATEL', 'Numero': '1647', 'Complemento': 'SALA 201', 'Bairro': 'BATEL', 'Cep': '80420-090', 'MunicipioIbge': '4106902', 'Municipio': 'CURITIBA', 'UF': 'PR', 'DDD': '80', 'Telefone': '2851200', 'CnpjAssist': '09.526.594/0001-43', 'NomeAssist': 'BANCO MASTER DE INVESTIMENTO S.A.', 'Posicao': '27/07/2025'}</t>
+          <t>Banco de Investimento</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Bancário - PAB</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>AVENIDA DO BATEL</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1647</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SALA 201</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>BATEL</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>80420-090</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>4106902</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CURITIBA</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2851200</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>09.526.594/0001-43</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>09526594</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'Cnpj': '09526594', 'NomeIf': 'BANCO MASTER DE INVESTIMENTO S.A.', 'Segmento': 'Banco de Investimento', 'NomePosto': 'BANCO MASTER DE INVESTIMENTO S.A.', 'TipoPosto': 'Posto de Atendimento Bancário - PAB', 'Endereco': 'AVENIDA CARLOS GOMES', 'Numero': '400', 'Complemento': '4- ANDAR, SALAS 401, 402 E 403', 'Bairro': 'AUXILIADORA', 'Cep': '90480-900', 'MunicipioIbge': '4314902', 'Municipio': 'PORTO ALEGRE', 'UF': 'RS', 'DDD': '80', 'Telefone': '2851200', 'CnpjAssist': '09.526.594/0001-43', 'NomeAssist': 'BANCO MASTER DE INVESTIMENTO S.A.', 'Posicao': '27/07/2025'}</t>
+          <t>Banco de Investimento</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Bancário - PAB</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>AVENIDA CARLOS GOMES</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4- ANDAR, SALAS 401, 402 E 403</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>AUXILIADORA</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>90480-900</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4314902</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>PORTO ALEGRE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2851200</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>09.526.594/0001-43</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>92856905</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>ADVANCED CORRETORA DE CÂMBIO LTDA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'Cnpj': '92856905', 'NomeIf': 'ADVANCED CORRETORA DE CÂMBIO LTDA', 'Segmento': 'Sociedade Corretora de Câmbio', 'NomePosto': 'ADVANCED SALVADOR', 'TipoPosto': 'Posto de Câmbio Permanente - PCP', 'Endereco': 'RUA EWERTON VISCO  290 EDF BOULEVARD SID', 'Numero': '', 'Complemento': 'EMPRESARIAL SALA 2001', 'Bairro': 'CAMINHO DAS ÁRVORES', 'Cep': '41820-022', 'MunicipioIbge': '2927408', 'Municipio': 'SALVADOR', 'UF': 'BA', 'DDD': '71', 'Telefone': '32421469', 'CnpjAssist': '92.856.905/0001-86', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Sociedade Corretora de Câmbio</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ADVANCED SALVADOR</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Posto de Câmbio Permanente - PCP</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>RUA EWERTON VISCO  290 EDF BOULEVARD SID</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>EMPRESARIAL SALA 2001</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CAMINHO DAS ÁRVORES</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>41820-022</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2927408</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>SALVADOR</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>32421469</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>92.856.905/0001-86</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>92856905</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>ADVANCED CORRETORA DE CÂMBIO LTDA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'Cnpj': '92856905', 'NomeIf': 'ADVANCED CORRETORA DE CÂMBIO LTDA', 'Segmento': 'Sociedade Corretora de Câmbio', 'NomePosto': 'ADVANCED SÃO PAULO', 'TipoPosto': 'Posto de Câmbio Permanente - PCP', 'Endereco': 'RUA PADRE JOÃO MANUEL', 'Numero': '450', 'Complemento': '9º ANDAR CONJUNTO 95', 'Bairro': 'CERQUEIRA CESAR', 'Cep': '01411-001', 'MunicipioIbge': '3550308', 'Municipio': 'SAO PAULO', 'UF': 'SP', 'DDD': '11', 'Telefone': '30651017', 'CnpjAssist': '92.856.905/0001-86', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Sociedade Corretora de Câmbio</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ADVANCED SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Posto de Câmbio Permanente - PCP</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>RUA PADRE JOÃO MANUEL</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>9º ANDAR CONJUNTO 95</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CERQUEIRA CESAR</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>01411-001</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>3550308</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SAO PAULO</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>30651017</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>92.856.905/0001-86</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>92856905</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>ADVANCED CORRETORA DE CÂMBIO LTDA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'Cnpj': '92856905', 'NomeIf': 'ADVANCED CORRETORA DE CÂMBIO LTDA', 'Segmento': 'Sociedade Corretora de Câmbio', 'NomePosto': 'ADVANCED SUL', 'TipoPosto': 'Posto de Câmbio Permanente - PCP', 'Endereco': 'RUA CAMBORIU', 'Numero': '26', 'Complemento': '3º ANDAR - CONJ: 301', 'Bairro': 'CENTRO', 'Cep': '88301-450', 'MunicipioIbge': '4208203', 'Municipio': 'ITAJAI', 'UF': 'SC', 'DDD': '47', 'Telefone': '30460048', 'CnpjAssist': '60.701.190/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Sociedade Corretora de Câmbio</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ADVANCED SUL</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Posto de Câmbio Permanente - PCP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>RUA CAMBORIU</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3º ANDAR - CONJ: 301</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>88301-450</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>4208203</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ITAJAI</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>30460048</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>60.701.190/0001-04</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>50579044</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>LEVYCAM - CORRETORA DE CAMBIO E VALORES LTDA.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'Cnpj': '50579044', 'NomeIf': 'LEVYCAM - CORRETORA DE CAMBIO E VALORES LTDA.', 'Segmento': 'Sociedade Corretora de TVM', 'NomePosto': 'LEVYCAM CORRETORA DE CÂMBIO E VALORES LTDA', 'TipoPosto': 'Posto de Câmbio Permanente - PCP', 'Endereco': 'AVENIDA RIO BRANCO', 'Numero': '123', 'Complemento': 'GRUPO 914', 'Bairro': 'CENTRO', 'Cep': '20040-005', 'MunicipioIbge': '3304557', 'Municipio': 'RIO DE JANEIRO', 'UF': 'RJ', 'DDD': '11', 'Telefone': '28139600', 'CnpjAssist': '50.579.044/0001-96', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Sociedade Corretora de TVM</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LEVYCAM CORRETORA DE CÂMBIO E VALORES LTDA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Posto de Câmbio Permanente - PCP</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>AVENIDA RIO BRANCO</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>GRUPO 914</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>20040-005</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>3304557</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>RIO DE JANEIRO</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>28139600</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>50.579.044/0001-96</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15122605</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>LÚMINA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'Cnpj': '15122605', 'NomeIf': 'LÚMINA CORRETORA DE CÂMBIO LTDA.', 'Segmento': 'Sociedade Corretora de Câmbio', 'NomePosto': 'POSTO DE CÂMBIO PERMANENTE - LOJA SHOPPING TOUR', 'TipoPosto': 'Posto de Câmbio Permanente - PCP', 'Endereco': 'AV. CENTENÁRIO', 'Numero': '2992', 'Complemento': 'LOJA 121 - SHOPPING BARRA', 'Bairro': 'CHAME CHAME', 'Cep': '40140-902', 'MunicipioIbge': '2927408', 'Municipio': 'SALVADOR', 'UF': 'BA', 'DDD': '71', 'Telefone': '32643344', 'CnpjAssist': '15.122.605/0001-21', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Sociedade Corretora de Câmbio</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>POSTO DE CÂMBIO PERMANENTE - LOJA SHOPPING TOUR</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Posto de Câmbio Permanente - PCP</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>AV. CENTENÁRIO</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2992</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>LOJA 121 - SHOPPING BARRA</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CHAME CHAME</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>40140-902</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2927408</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SALVADOR</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>32643344</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>15.122.605/0001-21</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>15122605</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>LÚMINA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'Cnpj': '15122605', 'NomeIf': 'LÚMINA CORRETORA DE CÂMBIO LTDA.', 'Segmento': 'Sociedade Corretora de Câmbio', 'NomePosto': 'LÚMINA CORRETORA DE CÂMBIO LTDA.', 'TipoPosto': 'Posto de Câmbio Permanente - PCP', 'Endereco': 'AV. CENTENÁRIO - LOJA 121', 'Numero': '2992', 'Complemento': 'SHOPPING BARRA', 'Bairro': 'CHAME-CHAME', 'Cep': '40140-902', 'MunicipioIbge': '2927408', 'Municipio': 'SALVADOR', 'UF': 'BA', 'DDD': '71', 'Telefone': '30341579', 'CnpjAssist': '00.394.502/0055-37', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Sociedade Corretora de Câmbio</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LÚMINA CORRETORA DE CÂMBIO LTDA.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Posto de Câmbio Permanente - PCP</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>AV. CENTENÁRIO - LOJA 121</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2992</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SHOPPING BARRA</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CHAME-CHAME</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>40140-902</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2927408</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SALVADOR</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>30341579</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>00.394.502/0055-37</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>15122605</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>LÚMINA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{'Cnpj': '15122605', 'NomeIf': 'LÚMINA CORRETORA DE CÂMBIO LTDA.', 'Segmento': 'Sociedade Corretora de Câmbio', 'NomePosto': 'POSTO NO SALVADOR SHOPPING   LOJA 1058', 'TipoPosto': 'Posto de Câmbio Permanente - PCP', 'Endereco': 'AV. TANCREDO NEVES', 'Numero': '3133', 'Complemento': 'SALVADOR SHOPPING - LOJA 1058', 'Bairro': 'CAMINHO DAS ÁRVORES', 'Cep': '41820-021', 'MunicipioIbge': '2927408', 'Municipio': 'SALVADOR', 'UF': 'BA', 'DDD': '71', 'Telefone': '30196300', 'CnpjAssist': '15.122.605/0001-22', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Sociedade Corretora de Câmbio</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>POSTO NO SALVADOR SHOPPING   LOJA 1058</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Posto de Câmbio Permanente - PCP</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>AV. TANCREDO NEVES</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3133</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>SALVADOR SHOPPING - LOJA 1058</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CAMINHO DAS ÁRVORES</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>41820-021</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2927408</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>SALVADOR</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>30196300</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>15.122.605/0001-22</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>04079285</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04079285', 'NomeIf': 'COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA GONÇALVESSICOOB PA GONÇALVES', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA CORONEL JOÃO VIEIRA', 'Numero': '186', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '37680-000', 'MunicipioIbge': '3127404', 'Municipio': 'GONCALVES', 'UF': 'MG', 'DDD': '35', 'Telefone': '40204329', 'CnpjAssist': '90.400.888/3062-25', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SICOOB PA GONÇALVESSICOOB PA GONÇALVES</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>RUA CORONEL JOÃO VIEIRA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>37680-000</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>3127404</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>GONCALVES</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>40204329</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>90.400.888/3062-25</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>04079285</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04079285', 'NomeIf': 'COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA TAUBATÉ', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'PRAÇA MONSENHOR SILVA BARROS', 'Numero': '254', 'Complemento': 'SALA 92 - CONDOMINIO STAR SHOP', 'Bairro': 'CENTRO', 'Cep': '12020-070', 'MunicipioIbge': '3554102', 'Municipio': 'TAUBATE', 'UF': 'SP', 'DDD': '35', 'Telefone': '40204329', 'CnpjAssist': '00.360.305/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SICOOB PA TAUBATÉ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>PRAÇA MONSENHOR SILVA BARROS</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>SALA 92 - CONDOMINIO STAR SHOP</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>12020-070</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>3554102</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>TAUBATE</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>40204329</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>00.360.305/0001-04</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>04079285</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04079285', 'NomeIf': 'COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PA SICOOB SÃO BENTO SAPUCAÍ', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA MAJOR MIGUEL CHIARADIA', 'Numero': '200', 'Complemento': '', 'Bairro': 'JARDIM SANTA TEREZIN', 'Cep': '12490-000', 'MunicipioIbge': '3548609', 'Municipio': 'SAO BENTO DO SAPUCAI', 'UF': 'SP', 'DDD': '35', 'Telefone': '40204329', 'CnpjAssist': '20.346.524/0001-46', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PA SICOOB SÃO BENTO SAPUCAÍ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>RUA MAJOR MIGUEL CHIARADIA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>JARDIM SANTA TEREZIN</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>12490-000</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3548609</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>SAO BENTO DO SAPUCAI</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>40204329</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>20.346.524/0001-46</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>04079285</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04079285', 'NomeIf': 'COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA STO ANTÔNIO PINHAL', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA VIRGÍLIO FARIA DA COSTA', 'Numero': '37', 'Complemento': 'LOJA 02 E 03', 'Bairro': 'CENTRO', 'Cep': '12450-000', 'MunicipioIbge': '3548203', 'Municipio': 'SANTO ANTONIO DO PINHAL', 'UF': 'SP', 'DDD': '35', 'Telefone': '40204329', 'CnpjAssist': '00.360.305/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SICOOB PA STO ANTÔNIO PINHAL</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>RUA VIRGÍLIO FARIA DA COSTA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>LOJA 02 E 03</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>12450-000</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>3548203</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>SANTO ANTONIO DO PINHAL</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>40204329</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>00.360.305/0001-04</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>04079285</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04079285', 'NomeIf': 'COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA PIQUETE', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA DOUTOR OLIVEIRA BRAGA', 'Numero': '41', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '12620-000', 'MunicipioIbge': '3538501', 'Municipio': 'PIQUETE', 'UF': 'SP', 'DDD': '35', 'Telefone': '40204329', 'CnpjAssist': '90.400.888/3062-25', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SICOOB PA PIQUETE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>RUA DOUTOR OLIVEIRA BRAGA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>12620-000</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>3538501</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>PIQUETE</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>40204329</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>90.400.888/3062-25</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>04079285</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04079285', 'NomeIf': 'COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA PINDA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA DOUTOR GREGÓRIO COSTA', 'Numero': '237', 'Complemento': 'SALA 108', 'Bairro': 'CENTRO', 'Cep': '12400-430', 'MunicipioIbge': '3538006', 'Municipio': 'PINDAMONHANGABA', 'UF': 'SP', 'DDD': '35', 'Telefone': '40204329', 'CnpjAssist': '00.360.305/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SICOOB PA PINDA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>RUA DOUTOR GREGÓRIO COSTA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>SALA 108</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>12400-430</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>3538006</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>PINDAMONHANGABA</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>40204329</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>00.360.305/0001-04</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>04079285</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04079285', 'NomeIf': 'COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA CUNHA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA DOM LINO', 'Numero': '27', 'Complemento': 'SALA 14', 'Bairro': 'CENTRO', 'Cep': '12530-000', 'MunicipioIbge': '3513603', 'Municipio': 'CUNHA', 'UF': 'SP', 'DDD': '35', 'Telefone': '40204329', 'CnpjAssist': '00.360.305/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SICOOB PA CUNHA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>RUA DOM LINO</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>SALA 14</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>12530-000</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>3513603</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>CUNHA</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>40204329</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>00.360.305/0001-04</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>04079285</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04079285', 'NomeIf': 'COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA SAPUCAÍ MIRIM', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV PRESIDENTE TANCREDO NEVES', 'Numero': '223', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '37690-000', 'MunicipioIbge': '3165404', 'Municipio': 'SAPUCAI-MIRIM', 'UF': 'MG', 'DDD': '35', 'Telefone': '40204329', 'CnpjAssist': '90.400.888/1137-70', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SICOOB PA SAPUCAÍ MIRIM</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>AV PRESIDENTE TANCREDO NEVES</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>37690-000</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>3165404</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>SAPUCAI-MIRIM</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>40204329</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>90.400.888/1137-70</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>04079285</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04079285', 'NomeIf': 'COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA PIRANGUINHO', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA JUSCELINO KUBITSCHEK DE OLIVEIRA', 'Numero': '135', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '37508-000', 'MunicipioIbge': '3151008', 'Municipio': 'PIRANGUINHO', 'UF': 'MG', 'DDD': '35', 'Telefone': '40204329', 'CnpjAssist': '42.498.733/0001-48', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SICOOB PA PIRANGUINHO</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>AVENIDA JUSCELINO KUBITSCHEK DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>37508-000</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>3151008</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>PIRANGUINHO</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>40204329</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>42.498.733/0001-48</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>04079285</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04079285', 'NomeIf': 'COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA MARIA DA FÉ', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA DOM BOSCO', 'Numero': '174', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '37517-000', 'MunicipioIbge': '3139904', 'Municipio': 'MARIA DA FE', 'UF': 'MG', 'DDD': '35', 'Telefone': '40204329', 'CnpjAssist': '61.360.574/0001-65', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SICOOB PA MARIA DA FÉ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>RUA DOM BOSCO</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>37517-000</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>3139904</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>MARIA DA FE</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>40204329</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>61.360.574/0001-65</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>04079285</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04079285', 'NomeIf': 'COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA SÃO VICENTE', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA PAULO CHIARADIA', 'Numero': '208', 'Complemento': '', 'Bairro': 'SÃO VICENTE', 'Cep': '37502-028', 'MunicipioIbge': '3132404', 'Municipio': 'ITAJUBA', 'UF': 'MG', 'DDD': '35', 'Telefone': '40204329', 'CnpjAssist': '60.701.190/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SICOOB PA SÃO VICENTE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>AVENIDA PAULO CHIARADIA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>SÃO VICENTE</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>37502-028</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3132404</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>ITAJUBA</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>40204329</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>60.701.190/0001-04</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>04079285</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04079285', 'NomeIf': 'COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA PRODUTOS', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA DOUTOR AMÉRICO DE OLIVEIRA', 'Numero': '476', 'Complemento': 'LOJA CENTRO', 'Bairro': '', 'Cep': '37500-061', 'MunicipioIbge': '3132404', 'Municipio': 'ITAJUBA', 'UF': 'MG', 'DDD': '35', 'Telefone': '40204329', 'CnpjAssist': '20.346.524/0001-46', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SICOOB PA PRODUTOS</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>RUA DOUTOR AMÉRICO DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>LOJA CENTRO</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>37500-061</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>3132404</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>ITAJUBA</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>40204329</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>20.346.524/0001-46</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04079285</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04079285', 'NomeIf': 'COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PLATAFORMA PJ', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA CESÁRIO ALVIM', 'Numero': '145', 'Complemento': '', 'Bairro': 'VARGINHA', 'Cep': '37501-059', 'MunicipioIbge': '3132404', 'Municipio': 'ITAJUBA', 'UF': 'MG', 'DDD': '35', 'Telefone': '40204329', 'CnpjAssist': '90.400.888/2827-09', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SICOOB PLATAFORMA PJ</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>AVENIDA CESÁRIO ALVIM</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>VARGINHA</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>37501-059</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>3132404</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ITAJUBA</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>40204329</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>90.400.888/2827-09</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04079285</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04079285', 'NomeIf': 'COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA VARGINHA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV DOUTOR VICENTE SANCHES', 'Numero': '155', 'Complemento': '', 'Bairro': 'VARGINHA', 'Cep': '37501-082', 'MunicipioIbge': '3132404', 'Municipio': 'ITAJUBA', 'UF': 'MG', 'DDD': '35', 'Telefone': '40204329', 'CnpjAssist': '00.000.000/0049-36', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SICOOB PA VARGINHA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>AV DOUTOR VICENTE SANCHES</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>VARGINHA</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>37501-082</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>3132404</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ITAJUBA</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>40204329</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>00.000.000/0049-36</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '19 - PAC ADAMANTINA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA OSVALDO CRUZ', 'Numero': '151', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '17800-045', 'MunicipioIbge': '3500105', 'Municipio': 'ADAMANTINA', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '06.315.338/0151-40', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19 - PAC ADAMANTINA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>RUA OSVALDO CRUZ</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>17800-045</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>3500105</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>ADAMANTINA</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>06.315.338/0151-40</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '09 - PAC DE TUPÃ', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA TABAJARAS', 'Numero': '1234', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '17600-360', 'MunicipioIbge': '3555000', 'Municipio': 'TUPA', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '75.666.131/0001-01', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>09 - PAC DE TUPÃ</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>AVENIDA TABAJARAS</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>17600-360</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3555000</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>TUPA</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>75.666.131/0001-01</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '23 - PAC RANCHARIA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA DOM PEDRO II', 'Numero': '584', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '19600-029', 'MunicipioIbge': '3542206', 'Municipio': 'RANCHARIA', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '00.360.305/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>23 - PAC RANCHARIA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>AVENIDA DOM PEDRO II</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>19600-029</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>3542206</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>RANCHARIA</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>00.360.305/0001-04</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '04 - PAC DE POMPEIA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA CYRO VENTURA BARBOSA', 'Numero': '235', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '17580-000', 'MunicipioIbge': '3540002', 'Municipio': 'POMPEIA', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '60.746.948/1288-52', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>04 - PAC DE POMPEIA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>RUA CYRO VENTURA BARBOSA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>17580-000</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>3540002</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>POMPEIA</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>60.746.948/1288-52</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '14 - PAC PEDERNEIRAS', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA CORONEL COIMBRA', 'Numero': '129', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '17280-037', 'MunicipioIbge': '3536703', 'Municipio': 'PEDERNEIRAS', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '16.701.716/0001-56', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14 - PAC PEDERNEIRAS</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>RUA CORONEL COIMBRA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>17280-037</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>3536703</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>PEDERNEIRAS</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>16.701.716/0001-56</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '03 - PAC NELSON SPIELMANN', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV NELSON SPIELMANN', 'Numero': '629', 'Complemento': '', 'Bairro': 'PALMITAL', 'Cep': '17509-001', 'MunicipioIbge': '3529005', 'Municipio': 'MARILIA', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '60.746.948/1288-52', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>03 - PAC NELSON SPIELMANN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>AV NELSON SPIELMANN</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>PALMITAL</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>17509-001</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>3529005</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>MARILIA</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>60.746.948/1288-52</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '24 - PAC SANTA ANTONIETA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA JOÃO MARTINS COELHO', 'Numero': '1934', 'Complemento': '', 'Bairro': 'JD SANTA ANTONIETA', 'Cep': '17512-310', 'MunicipioIbge': '3529005', 'Municipio': 'MARILIA', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '60.746.948/7442-27', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>24 - PAC SANTA ANTONIETA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>RUA JOÃO MARTINS COELHO</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>JD SANTA ANTONIETA</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>17512-310</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>3529005</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>MARILIA</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>60.746.948/7442-27</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '02 - PAC DA RIO BRANCO', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV RIO BRANCO, 1153', 'Numero': '', 'Complemento': '', 'Bairro': 'ALTO CAFEZAL', 'Cep': '17502-000', 'MunicipioIbge': '3529005', 'Municipio': 'MARILIA', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '60.701.190/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>02 - PAC DA RIO BRANCO</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>AV RIO BRANCO, 1153</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ALTO CAFEZAL</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>17502-000</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>3529005</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>MARILIA</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>60.701.190/0001-04</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '96 - PAC ESCRITORIO DE INVESTIMENTO MARILIA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA RIO BRANCO', 'Numero': '1132', 'Complemento': 'SALA 42 - 4° ANDAR - EDIFíCIO RIO NEGRO CENTER', 'Bairro': 'ALTO CAFEZAL', 'Cep': '17502-000', 'MunicipioIbge': '3529005', 'Municipio': 'MARILIA', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '00.360.305/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>96 - PAC ESCRITORIO DE INVESTIMENTO MARILIA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>AVENIDA RIO BRANCO</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1132</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>SALA 42 - 4° ANDAR - EDIFíCIO RIO NEGRO CENTER</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ALTO CAFEZAL</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>17502-000</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>3529005</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>MARILIA</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>00.360.305/0001-04</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '27 - PAC DE LINS', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA DOM PEDRO II', 'Numero': '205', 'Complemento': 'TERREO: INST FIN COOPERATIVA', 'Bairro': 'CENTRO', 'Cep': '16400-047', 'MunicipioIbge': '3527108', 'Municipio': 'LINS', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '60.872.504/0001-23', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>27 - PAC DE LINS</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>RUA DOM PEDRO II</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TERREO: INST FIN COOPERATIVA</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>16400-047</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>3527108</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>LINS</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>60.872.504/0001-23</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '12 - PAC JAU', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA AMARAL GURGEL', 'Numero': '817', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '17201-010', 'MunicipioIbge': '3525300', 'Municipio': 'JAU', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '16.701.716/0001-56', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12 - PAC JAU</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>RUA AMARAL GURGEL</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>17201-010</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>3525300</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>JAU</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>16.701.716/0001-56</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '21 - PAC HOSPITAL UNIMED JAU', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA ANTONIO DE ALMEIDA PACHECO', 'Numero': '1991', 'Complemento': '', 'Bairro': '2 ZONA INDUSTRIAL', 'Cep': '17213-700', 'MunicipioIbge': '3525300', 'Municipio': 'JAU', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '90.400.888/2386-37', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21 - PAC HOSPITAL UNIMED JAU</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>AVENIDA ANTONIO DE ALMEIDA PACHECO</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2 ZONA INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>17213-700</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>3525300</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>JAU</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>90.400.888/2386-37</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '18 - PAC INUBIA PAULISTA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV. LEAO MIGUEL BANNWART', 'Numero': '200', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '17760-000', 'MunicipioIbge': '3520806', 'Municipio': 'INUBIA PAULISTA', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '60.701.190/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>18 - PAC INUBIA PAULISTA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>AV. LEAO MIGUEL BANNWART</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>17760-000</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>3520806</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>INUBIA PAULISTA</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>60.701.190/0001-04</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '22 - PAC HERCULANDIA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA EUCLIDES DA CUNHA', 'Numero': '451', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '17650-059', 'MunicipioIbge': '3519006', 'Municipio': 'HERCULANDIA', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '27.080.571/0001-30', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>22 - PAC HERCULANDIA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>RUA EUCLIDES DA CUNHA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>17650-059</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>3519006</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>HERCULANDIA</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>27.080.571/0001-30</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '10 - PAC GARÇA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA DEPUTADO MANOEL JOAQUIM FERNANDES', 'Numero': '22', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '17400-000', 'MunicipioIbge': '3516705', 'Municipio': 'GARCA', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '60.701.190/0126-17', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10 - PAC GARÇA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>RUA DEPUTADO MANOEL JOAQUIM FERNANDES</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>17400-000</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>3516705</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>GARCA</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>60.701.190/0126-17</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '16 - PAC DE DRACENA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA MARACAJU', 'Numero': '1130', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '17900-203', 'MunicipioIbge': '3514403', 'Municipio': 'DRACENA', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '16.701.716/0001-56', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>16 - PAC DE DRACENA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>RUA MARACAJU</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>17900-203</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>3514403</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>DRACENA</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>16.701.716/0001-56</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '20 - PAC BROTAS', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA ELYSEU LOURENÇÃO', 'Numero': '262', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '17380-029', 'MunicipioIbge': '3507902', 'Municipio': 'BROTAS', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '92.815.000/0001-68', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20 - PAC BROTAS</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>AVENIDA ELYSEU LOURENÇÃO</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>17380-029</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>3507902</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>BROTAS</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>92.815.000/0001-68</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '13 - PAC HOSPITAL UNIMED BAURU', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'DR. ARNALDO CURVELLO', 'Numero': '10-110', 'Complemento': '', 'Bairro': 'PARQUE SANTA TEREZIN', 'Cep': '17035-500', 'MunicipioIbge': '3506003', 'Municipio': 'BAURU', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '16.701.716/0001-56', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13 - PAC HOSPITAL UNIMED BAURU</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>DR. ARNALDO CURVELLO</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>10-110</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>PARQUE SANTA TEREZIN</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>17035-500</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>3506003</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>BAURU</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>16.701.716/0001-56</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '97 - PAC ESCRITORIO DE INVESTIMENTO BAURU', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA GUSTAVO MACIEL', 'Numero': '22 40', 'Complemento': 'SALAS 58 E 59 -5° ANDAR - EDIF ALTOS EMPRESARIAL', 'Bairro': 'ALTOS DA CIDADE', 'Cep': '17012-110', 'MunicipioIbge': '3506003', 'Municipio': 'BAURU', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '00.360.305/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>97 - PAC ESCRITORIO DE INVESTIMENTO BAURU</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>RUA GUSTAVO MACIEL</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>22 40</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>SALAS 58 E 59 -5° ANDAR - EDIF ALTOS EMPRESARIAL</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>ALTOS DA CIDADE</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>17012-110</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>3506003</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>BAURU</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>00.360.305/0001-04</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '25 - PAC CRUZEIRO DO SUL', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA RAFAEL PEREIRA MARTINI', 'Numero': '5087', 'Complemento': '', 'Bairro': 'JARDIM REDENTOR', 'Cep': '17032-010', 'MunicipioIbge': '3506003', 'Municipio': 'BAURU', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '60.746.948/4035-86', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>25 - PAC CRUZEIRO DO SUL</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>RUA RAFAEL PEREIRA MARTINI</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>5087</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>JARDIM REDENTOR</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>17032-010</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>3506003</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>BAURU</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>60.746.948/4035-86</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '11 - PAC BAURU', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'R. AGENOR MEIRA', 'Numero': '12-81', 'Complemento': 'QD. 6-28', 'Bairro': 'CENTRO', 'Cep': '17015-301', 'MunicipioIbge': '3506003', 'Municipio': 'BAURU', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '16.701.716/0001-56', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11 - PAC BAURU</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>R. AGENOR MEIRA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>12-81</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>QD. 6-28</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>17015-301</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>3506003</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>BAURU</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>16.701.716/0001-56</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '17 - PAC GUSTAVO MACIEL', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA ANTÔNIO GARCIA', 'Numero': '02 21', 'Complemento': '', 'Bairro': 'VILA SANTA TEREZA', 'Cep': '17012-050', 'MunicipioIbge': '3506003', 'Municipio': 'BAURU', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '08.761.124/0001-00', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>17 - PAC GUSTAVO MACIEL</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>RUA ANTÔNIO GARCIA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>02 21</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>VILA SANTA TEREZA</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>17012-050</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>3506003</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>BAURU</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>08.761.124/0001-00</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '98 - PAC PROJETO DE EXPANSÃO CENTRO OESTE PAULISTA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA GETULIO VARGAS', 'Numero': '20 59', 'Complemento': '', 'Bairro': 'PQ JARDIM EUROPA', 'Cep': '17017-383', 'MunicipioIbge': '3506003', 'Municipio': 'BAURU', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '90.400.888/0001-42', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>98 - PAC PROJETO DE EXPANSÃO CENTRO OESTE PAULISTA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>AVENIDA GETULIO VARGAS</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>20 59</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>PQ JARDIM EUROPA</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>17017-383</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>3506003</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>BAURU</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>90.400.888/0001-42</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '28 - PAC BARRA BONITA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA ROSA ZANELA PETRI', 'Numero': '271', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '17340-003', 'MunicipioIbge': '3505302', 'Municipio': 'BARRA BONITA', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '00.360.305/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>28 - PAC BARRA BONITA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>AVENIDA ROSA ZANELA PETRI</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>17340-003</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>3505302</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>BARRA BONITA</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>00.360.305/0001-04</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>04463602</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04463602', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '26 - PAC DE AGUDOS', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA SETE DE SETEMBRO', 'Numero': '451', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '17120-011', 'MunicipioIbge': '3500709', 'Municipio': 'AGUDOS', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '60.701.190/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>26 - PAC DE AGUDOS</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>RUA SETE DE SETEMBRO</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>17120-011</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>3500709</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>AGUDOS</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>60.701.190/0001-04</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>04853988</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04853988', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '06 - PAC PIRASSUNUNGA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV PADRE ANTONIO VAN ESS', 'Numero': '0', 'Complemento': '', 'Bairro': 'ROSáRIO', 'Cep': '13634-000', 'MunicipioIbge': '3539301', 'Municipio': 'PIRASSUNUNGA', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '90.400.888/0001-42', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>06 - PAC PIRASSUNUNGA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>AV PADRE ANTONIO VAN ESS</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>ROSáRIO</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>13634-000</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>3539301</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>PIRASSUNUNGA</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>90.400.888/0001-42</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>04853988</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04853988', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '09 - PAC DE SÃO PEDRO', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA VALENTIN AMARAL', 'Numero': '949', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '13520-033', 'MunicipioIbge': '3550407', 'Municipio': 'SAO PEDRO', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '60.701.190/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>09 - PAC DE SÃO PEDRO</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>RUA VALENTIN AMARAL</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>13520-033</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>3550407</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>SAO PEDRO</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>60.701.190/0001-04</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>04853988</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04853988', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '02 - PAC DE SÃO CARLOS', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA SÃO SEBASTIÃO', 'Numero': '1633', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '13560-230', 'MunicipioIbge': '3548906', 'Municipio': 'SAO CARLOS', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '60.701.190/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>02 - PAC DE SÃO CARLOS</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>RUA SÃO SEBASTIÃO</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1633</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>13560-230</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>3548906</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>SAO CARLOS</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>60.701.190/0001-04</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>04853988</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04853988', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '08 - PAC DE RIBEIRÃO BONITO', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA MARANHÃO', 'Numero': '22', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '13580-013', 'MunicipioIbge': '3542909', 'Municipio': 'RIBEIRAO BONITO', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '13.728.156/0001-35', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>08 - PAC DE RIBEIRÃO BONITO</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>RUA MARANHÃO</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>13580-013</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>3542909</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>RIBEIRAO BONITO</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>13.728.156/0001-35</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>04853988</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04853988', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '04 - PAC PORTO FERREIRA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA JOAO PROCOPIO SOBRINHO', 'Numero': '202', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '13660-033', 'MunicipioIbge': '3540705', 'Municipio': 'PORTO FERREIRA', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '01.738.780/0001-34', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>04 - PAC PORTO FERREIRA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>RUA JOAO PROCOPIO SOBRINHO</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>13660-033</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>3540705</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>PORTO FERREIRA</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>01.738.780/0001-34</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>04853988</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04853988', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '03 - PAC IBATÉ', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA DR. TEIXEIRA DE BARROS', 'Numero': '280', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '14815-047', 'MunicipioIbge': '3519303', 'Municipio': 'IBATE', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '12.094.570/0001-77', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>03 - PAC IBATÉ</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>RUA DR. TEIXEIRA DE BARROS</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>14815-047</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>3519303</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>IBATE</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>12.094.570/0001-77</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>04853988</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04853988', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '07 - PAC DESCALVADO', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA CORONEL ARTHUR WHITACKER', 'Numero': '966', 'Complemento': '', 'Bairro': 'JARDIM BELEM', 'Cep': '13690-000', 'MunicipioIbge': '3513702', 'Municipio': 'DESCALVADO', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '21.154.554/0001-13', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>07 - PAC DESCALVADO</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>RUA CORONEL ARTHUR WHITACKER</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>JARDIM BELEM</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>13690-000</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>3513702</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>DESCALVADO</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>21.154.554/0001-13</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>04853988</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04853988', 'NomeIf': 'COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': '05 - PAC BOA ESPERANÇA DO SUL', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA EXPEDICIONáRIO MáRIO FERNANDES', 'Numero': '394', 'Complemento': '', 'Bairro': 'JARDIM PAULISTA', 'Cep': '14930-000', 'MunicipioIbge': '3506706', 'Municipio': 'BOA ESPERANCA DO SUL', 'UF': 'SP', 'DDD': None, 'Telefone': None, 'CnpjAssist': '00.000.000/0708-07', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>05 - PAC BOA ESPERANÇA DO SUL</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>RUA EXPEDICIONáRIO MáRIO FERNANDES</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>JARDIM PAULISTA</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>14930-000</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>3506706</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>BOA ESPERANCA DO SUL</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>00.000.000/0708-07</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC URUPÁ', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA CABO BARBOSA', 'Numero': '1590', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '76929-000', 'MunicipioIbge': '1101708', 'Municipio': 'URUPA', 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '47.680.798/0001-23', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PAC URUPÁ</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>AVENIDA CABO BARBOSA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>76929-000</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1101708</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>URUPA</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>47.680.798/0001-23</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC ANORI', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA AUGUSTO GRIJO', 'Numero': '790', 'Complemento': 'LOTE 505', 'Bairro': 'CENTRO', 'Cep': '69440-000', 'MunicipioIbge': '1300102', 'Municipio': 'ANORI', 'UF': 'AM', 'DDD': None, 'Telefone': None, 'CnpjAssist': '04.913.129/0001-41', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>PAC ANORI</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>RUA AUGUSTO GRIJO</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>LOTE 505</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>69440-000</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1300102</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ANORI</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>04.913.129/0001-41</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC SÃO MIGUEL DO GUAPORÉ', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV SAO PAULO', 'Numero': '486', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '76932-000', 'MunicipioIbge': '1100320', 'Municipio': 'SAO MIGUEL DO GUAPORE', 'UF': 'RO', 'DDD': '69', 'Telefone': '34212332', 'CnpjAssist': '60.701.190/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PAC SÃO MIGUEL DO GUAPORÉ</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>AV SAO PAULO</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>76932-000</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1100320</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>SAO MIGUEL DO GUAPORE</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>34212332</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>60.701.190/0001-04</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC ROLIM DE MOURA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA FORTALEZA', 'Numero': '5049', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '76940-000', 'MunicipioIbge': '1100288', 'Municipio': 'ROLIM DE MOURA', 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '17.184.037/0001-10', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>PAC ROLIM DE MOURA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>AVENIDA FORTALEZA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>5049</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>76940-000</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>1100288</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ROLIM DE MOURA</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>17.184.037/0001-10</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC PRESIDENTE MEDICI D. ESTRELA DE RO', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA TRANQUEDO NEVES', 'Numero': '852', 'Complemento': 'QUADRA 01 LOTE 04', 'Bairro': 'ESTRELA DE RONDÔNIA', 'Cep': '76916-000', 'MunicipioIbge': '1100254', 'Municipio': 'PRESIDENTE MEDICI', 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '04.902.979/0009-00', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PAC PRESIDENTE MEDICI D. ESTRELA DE RO</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>AVENIDA TRANQUEDO NEVES</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>852</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>QUADRA 01 LOTE 04</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>ESTRELA DE RONDÔNIA</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>76916-000</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1100254</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>PRESIDENTE MEDICI</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>04.902.979/0009-00</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC PRESIDENTE MEDICI RO', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV 30 DE JUNHO', 'Numero': '1525', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '76916-000', 'MunicipioIbge': '1100254', 'Municipio': 'PRESIDENTE MEDICI', 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '60.701.190/1289-17', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>PAC PRESIDENTE MEDICI RO</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>AV 30 DE JUNHO</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1525</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>76916-000</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1100254</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>PRESIDENTE MEDICI</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>60.701.190/1289-17</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC OURO PRETO DO OESTE', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV XV DE NOVEMBRO', 'Numero': '79', 'Complemento': 'SALA B', 'Bairro': 'CENTRO', 'Cep': '76920-000', 'MunicipioIbge': '1100155', 'Municipio': 'OURO PRETO DO OESTE', 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '90.400.888/0765-56', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>PAC OURO PRETO DO OESTE</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>AV XV DE NOVEMBRO</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>SALA B</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>76920-000</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1100155</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>OURO PRETO DO OESTE</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>90.400.888/0765-56</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC NOVA BRASILANDIA D OESTE', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'R. JOSE CARLOS BUENO', 'Numero': '3321', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '76958-000', 'MunicipioIbge': '1100148', 'Municipio': "NOVA BRASILANDIA D'OESTE", 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '90.400.888/0133-92', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PAC NOVA BRASILANDIA D OESTE</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>R. JOSE CARLOS BUENO</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>3321</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>76958-000</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>1100148</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>NOVA BRASILANDIA D'OESTE</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>90.400.888/0133-92</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC MINISTRO ANDREAZZA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA TANCREDO NEVES', 'Numero': '3146', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '76919-000', 'MunicipioIbge': '1101203', 'Municipio': 'MINISTRO ANDREAZZA', 'UF': 'RO', 'DDD': '69', 'Telefone': '34482538', 'CnpjAssist': '17.184.037/0001-10', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>PAC MINISTRO ANDREAZZA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>RUA TANCREDO NEVES</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>3146</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>76919-000</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1101203</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>MINISTRO ANDREAZZA</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>34482538</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>17.184.037/0001-10</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'CONECTA AMAZÔNIA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV MARECHAL RONDON', 'Numero': '1780', 'Complemento': 'SALA A', 'Bairro': 'CENTRO', 'Cep': '76900-136', 'MunicipioIbge': '1100122', 'Municipio': 'JI-PARANA', 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '10.186.138/0001-80', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>CONECTA AMAZÔNIA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>AV MARECHAL RONDON</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1780</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>SALA A</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>76900-136</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1100122</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>JI-PARANA</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>10.186.138/0001-80</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC JI-PARANA II', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV MARECHAL RONDON', 'Numero': '1780', 'Complemento': 'SALA A', 'Bairro': 'CENTRO', 'Cep': '76900-136', 'MunicipioIbge': '1100122', 'Municipio': 'JI-PARANA', 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '59.588.111/0110-67', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PAC JI-PARANA II</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>AV MARECHAL RONDON</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1780</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>SALA A</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>76900-136</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1100122</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>JI-PARANA</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>59.588.111/0110-67</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC JI-PARANÁ', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV MANOEL FRANCO', 'Numero': '480', 'Complemento': 'SALA 01', 'Bairro': 'NOVA BRASILIA', 'Cep': '76908-410', 'MunicipioIbge': '1100122', 'Municipio': 'JI-PARANA', 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '90.400.888/2279-45', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PAC JI-PARANÁ</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>AV MANOEL FRANCO</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>SALA 01</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>NOVA BRASILIA</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>76908-410</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1100122</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>JI-PARANA</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>90.400.888/2279-45</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC JARU D. TARILANDIA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA FRANCISCO VIEIRA DE SOUZA', 'Numero': '2422', 'Complemento': 'TARILANDIA DISTRISTO DE JARU', 'Bairro': 'TARILÂNDIA', 'Cep': '76897-890', 'MunicipioIbge': '1100114', 'Municipio': 'JARU', 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '50.981.018/0001-90', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>PAC JARU D. TARILANDIA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>AVENIDA FRANCISCO VIEIRA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2422</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>TARILANDIA DISTRISTO DE JARU</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>TARILÂNDIA</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>76897-890</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1100114</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>JARU</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>50.981.018/0001-90</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC JARU', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV PADRE ADOLFO ROHL', 'Numero': '1707', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '76890-000', 'MunicipioIbge': '1100114', 'Municipio': 'JARU', 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '50.981.018/0001-90', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>PAC JARU</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>AV PADRE ADOLFO ROHL</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1707</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>76890-000</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1100114</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>JARU</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>50.981.018/0001-90</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC GOV. JORGE TEIXEIRA D. COLINA VERDE', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA CACAULANDIA', 'Numero': '1390', 'Complemento': '', 'Bairro': 'COLINA VERDE', 'Cep': '76898-000', 'MunicipioIbge': '1101005', 'Municipio': 'GOVERNADOR JORGE TEIXEIRA', 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '00.360.305/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>PAC GOV. JORGE TEIXEIRA D. COLINA VERDE</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>AVENIDA CACAULANDIA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>COLINA VERDE</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>76898-000</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1101005</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>GOVERNADOR JORGE TEIXEIRA</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>00.360.305/0001-04</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC GOV. JORGE TEIXEIRA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA IPÊ', 'Numero': '1292', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '76898-000', 'MunicipioIbge': '1101005', 'Municipio': 'GOVERNADOR JORGE TEIXEIRA', 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '50.981.018/0001-90', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>PAC GOV. JORGE TEIXEIRA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>RUA IPÊ</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1292</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>76898-000</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1101005</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>GOVERNADOR JORGE TEIXEIRA</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>50.981.018/0001-90</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC ESPIGAO D OESTE', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'R SURUI', 'Numero': '2816', 'Complemento': 'ANDAR TERREO', 'Bairro': 'CENTRO', 'Cep': '76974-000', 'MunicipioIbge': '1100098', 'Municipio': "ESPIGAO D'OESTE", 'UF': 'RO', 'DDD': '69', 'Telefone': '34212332', 'CnpjAssist': '90.400.888/1485-65', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>PAC ESPIGAO D OESTE</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>R SURUI</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2816</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>ANDAR TERREO</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>76974-000</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1100098</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>ESPIGAO D'OESTE</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>34212332</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>90.400.888/1485-65</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC CACOAL', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA SETE DE SETEMBRO', 'Numero': '2906', 'Complemento': '', 'Bairro': 'PRINCESA ISABEL', 'Cep': '76964-098', 'MunicipioIbge': '1100049', 'Municipio': 'CACOAL', 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '17.184.037/0001-10', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>PAC CACOAL</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>AVENIDA SETE DE SETEMBRO</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2906</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>PRINCESA ISABEL</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>76964-098</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1100049</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>CACOAL</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>17.184.037/0001-10</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC BURITIS RO', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA AYRTON SENNA', 'Numero': '1421', 'Complemento': '', 'Bairro': 'SETOR 01', 'Cep': '76880-000', 'MunicipioIbge': '1100452', 'Municipio': 'BURITIS', 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '17.184.037/0001-10', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>PAC BURITIS RO</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>AVENIDA AYRTON SENNA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1421</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>SETOR 01</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>76880-000</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1100452</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>BURITIS</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>17.184.037/0001-10</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC ALVORADA D OESTE', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA MARECHAL RONDON', 'Numero': '4812', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '76930-000', 'MunicipioIbge': '1100346', 'Municipio': "ALVORADA D'OESTE", 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '20.985.558/0001-80', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>PAC ALVORADA D OESTE</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>AVENIDA MARECHAL RONDON</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>4812</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>76930-000</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>1100346</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>ALVORADA D'OESTE</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>20.985.558/0001-80</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC ALTA FLORESTA D OESTE', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV AMAZONAS', 'Numero': '3882', 'Complemento': 'QUADRA 1 LOTE 4', 'Bairro': 'CENTRO', 'Cep': '76954-000', 'MunicipioIbge': '1100015', 'Municipio': "ALTA FLORESTA D'OESTE", 'UF': 'RO', 'DDD': None, 'Telefone': None, 'CnpjAssist': '60.701.190/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>PAC ALTA FLORESTA D OESTE</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>AV AMAZONAS</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>3882</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>QUADRA 1 LOTE 4</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>76954-000</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>1100015</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ALTA FLORESTA D'OESTE</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>60.701.190/0001-04</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>10520232</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>{'Cnpj': '10520232', 'NomeIf': 'COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'PAC CODAJÁS', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'R BRITO INGLES', 'Numero': '0', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '69450-000', 'MunicipioIbge': '1301308', 'Municipio': 'CODAJAS', 'UF': 'AM', 'DDD': None, 'Telefone': None, 'CnpjAssist': '36.321.990/0001-07', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>PAC CODAJÁS</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>R BRITO INGLES</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>69450-000</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1301308</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>CODAJAS</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>36.321.990/0001-07</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>03046391</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>UNIPRIME CENTRAL NACIONAL - CENTRAL NACIONAL DE COOPERATIVA DE CREDITO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>{'Cnpj': '03046391', 'NomeIf': 'UNIPRIME CENTRAL NACIONAL - CENTRAL NACIONAL DE COOPERATIVA DE CREDITO', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'UNIPRIME CENTRAL', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV HIGIENOPOLIS, 1044', 'Numero': '', 'Complemento': '', 'Bairro': 'CENTRO', 'Cep': '86020-080', 'MunicipioIbge': '4113700', 'Municipio': 'LONDRINA', 'UF': 'PR', 'DDD': '43', 'Telefone': '33052900', 'CnpjAssist': '04.913.129/0001-41', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>UNIPRIME CENTRAL</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>AV HIGIENOPOLIS, 1044</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>86020-080</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>4113700</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>LONDRINA</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>33052900</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>04.913.129/0001-41</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>03047549</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>{'Cnpj': '03047549', 'NomeIf': 'COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA - GOIATUBA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV AMAZONAS, ESQUINA COM A RUA MINAS GER', 'Numero': '527', 'Complemento': 'QUADRA61 LOTE 04', 'Bairro': 'CENTRO', 'Cep': '75600-000', 'MunicipioIbge': '5209101', 'Municipio': 'GOIATUBA', 'UF': 'GO', 'DDD': '64', 'Telefone': '36235005', 'CnpjAssist': '60.701.190/3036-97', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>SICOOB PA - GOIATUBA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>AV AMAZONAS, ESQUINA COM A RUA MINAS GER</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>QUADRA61 LOTE 04</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>75600-000</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>5209101</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>GOIATUBA</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>36235005</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>60.701.190/3036-97</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>03047549</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>{'Cnpj': '03047549', 'NomeIf': 'COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA ROO FREI SERVÁCIO', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV FREI SERVACIO', 'Numero': '502', 'Complemento': 'SALA D QUADRA 07 LOTE 19/21', 'Bairro': 'JARDIM URUPES', 'Cep': '78715-207', 'MunicipioIbge': '5107602', 'Municipio': 'RONDONOPOLIS', 'UF': 'MT', 'DDD': '66', 'Telefone': '30226650', 'CnpjAssist': '50.489.148/0001-00', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>SICOOB PA ROO FREI SERVÁCIO</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>AV FREI SERVACIO</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>SALA D QUADRA 07 LOTE 19/21</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>JARDIM URUPES</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>78715-207</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>5107602</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>RONDONOPOLIS</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>30226650</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>50.489.148/0001-00</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>03047549</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>{'Cnpj': '03047549', 'NomeIf': 'COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA ROO AV. LIONS', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV LIONS INTERNACIONAL', 'Numero': '878', 'Complemento': 'QUADRA 3 LOTE 5/8', 'Bairro': 'VILA AURORA III', 'Cep': '78740-162', 'MunicipioIbge': '5107602', 'Municipio': 'RONDONOPOLIS', 'UF': 'MT', 'DDD': '66', 'Telefone': '996588247', 'CnpjAssist': '48.708.267/0001-64', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>SICOOB PA ROO AV. LIONS</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>AV LIONS INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>QUADRA 3 LOTE 5/8</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>VILA AURORA III</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>78740-162</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>5107602</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>RONDONOPOLIS</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>996588247</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>48.708.267/0001-64</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>03047549</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{'Cnpj': '03047549', 'NomeIf': 'COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA - PEDRA PRETA', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA FREI SERVACIO', 'Numero': '719', 'Complemento': 'QD. 39, LT. 12 B', 'Bairro': 'CENTRO', 'Cep': '78795-000', 'MunicipioIbge': '5106372', 'Municipio': 'PEDRA PRETA', 'UF': 'MT', 'DDD': '66', 'Telefone': '999316511', 'CnpjAssist': '21.154.554/0001-13', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>SICOOB PA - PEDRA PRETA</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>AVENIDA FREI SERVACIO</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>QD. 39, LT. 12 B</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>78795-000</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>5106372</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>PEDRA PRETA</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>999316511</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>21.154.554/0001-13</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>03047549</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>{'Cnpj': '03047549', 'NomeIf': 'COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA - SANTA HELENA DE GOIAS', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA PEDRO ROMUALDO CABRAL', 'Numero': '838', 'Complemento': 'QUADRA H', 'Bairro': 'CENTRO', 'Cep': '75920-000', 'MunicipioIbge': '5219308', 'Municipio': 'SANTA HELENA DE GOIAS', 'UF': 'GO', 'DDD': '64', 'Telefone': '36412483', 'CnpjAssist': '90.400.888/1355-87', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>SICOOB PA - SANTA HELENA DE GOIAS</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>RUA PEDRO ROMUALDO CABRAL</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>QUADRA H</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>75920-000</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>5219308</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>SANTA HELENA DE GOIAS</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>36412483</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>90.400.888/1355-87</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>03047549</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>{'Cnpj': '03047549', 'NomeIf': 'COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA RV JD. PRESIDENTESICOOB PA RV JD. PRESIDENTE', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV PRESIDENTE VARGAS', 'Numero': '0', 'Complemento': 'QUADRA 0029, LOTE 09', 'Bairro': 'JARDIM PRESIDENTE', 'Cep': '75908-420', 'MunicipioIbge': '5218805', 'Municipio': 'RIO VERDE', 'UF': 'GO', 'DDD': '64', 'Telefone': '21415401', 'CnpjAssist': '00.360.305/0001-04', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>SICOOB PA RV JD. PRESIDENTESICOOB PA RV JD. PRESIDENTE</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>AV PRESIDENTE VARGAS</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>QUADRA 0029, LOTE 09</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>JARDIM PRESIDENTE</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>75908-420</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>5218805</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>RIO VERDE</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>21415401</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>00.360.305/0001-04</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>03047549</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>{'Cnpj': '03047549', 'NomeIf': 'COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA RV PÇ. 5 DE AGOSTO', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA RUI BARBOSA', 'Numero': '854', 'Complemento': 'ESQ C/ NIZO JAIME DE GUSMÃO', 'Bairro': 'CENTRO', 'Cep': '75901-250', 'MunicipioIbge': '5218805', 'Municipio': 'RIO VERDE', 'UF': 'GO', 'DDD': '64', 'Telefone': '36235005', 'CnpjAssist': '00.000.000/3284-05', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>SICOOB PA RV PÇ. 5 DE AGOSTO</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>RUA RUI BARBOSA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>ESQ C/ NIZO JAIME DE GUSMÃO</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>75901-250</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>5218805</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>RIO VERDE</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>36235005</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>00.000.000/3284-05</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>03047549</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>{'Cnpj': '03047549', 'NomeIf': 'COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA RV BURITI SHOPPINGSICOOB PA RV BURITI SHOPPING', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA O', 'Numero': '1044', 'Complemento': 'QUADRA 15 LOTE A LOJA LUC 243 B', 'Bairro': 'RES JARDIM CAMPESTRE', 'Cep': '75907-681', 'MunicipioIbge': '5218805', 'Municipio': 'RIO VERDE', 'UF': 'GO', 'DDD': '64', 'Telefone': '21427702', 'CnpjAssist': '59.588.111/0110-67', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>SICOOB PA RV BURITI SHOPPINGSICOOB PA RV BURITI SHOPPING</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>RUA O</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>1044</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>QUADRA 15 LOTE A LOJA LUC 243 B</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>RES JARDIM CAMPESTRE</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>75907-681</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>5218805</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>RIO VERDE</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>21427702</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>59.588.111/0110-67</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>03047549</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>{'Cnpj': '03047549', 'NomeIf': 'COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA RV AV. JOÃO BELO', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV. JOÃO BELO', 'Numero': '0', 'Complemento': 'QD. 07, LT. 02/03', 'Bairro': 'BAIRRO POPULAR', 'Cep': '75903-495', 'MunicipioIbge': '5218805', 'Municipio': 'RIO VERDE', 'UF': 'GO', 'DDD': '64', 'Telefone': '36234368', 'CnpjAssist': '30.770.184/0001-30', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>SICOOB PA RV AV. JOÃO BELO</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>AV. JOÃO BELO</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>QD. 07, LT. 02/03</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>BAIRRO POPULAR</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>75903-495</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>5218805</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>RIO VERDE</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>36234368</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>30.770.184/0001-30</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>03047549</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>{'Cnpj': '03047549', 'NomeIf': 'COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA - QUIRINOPOLIS', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AVENIDA BRASIL', 'Numero': '319', 'Complemento': 'QD 57 LT 14', 'Bairro': 'CENTRO', 'Cep': '75860-000', 'MunicipioIbge': '5218508', 'Municipio': 'QUIRINOPOLIS', 'UF': 'GO', 'DDD': '64', 'Telefone': '36513929', 'CnpjAssist': '60.701.190/3036-97', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SICOOB PA - QUIRINOPOLIS</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>AVENIDA BRASIL</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>QD 57 LT 14</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>75860-000</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>5218508</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>QUIRINOPOLIS</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>36513929</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>60.701.190/3036-97</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>03047549</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>{'Cnpj': '03047549', 'NomeIf': 'COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA - PALESTINA DE GO', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'PRAÇA JK', 'Numero': '0', 'Complemento': 'QD. 06, LT. 15', 'Bairro': 'CENTRO', 'Cep': '75845-000', 'MunicipioIbge': '5215652', 'Municipio': 'PALESTINA DE GOIAS', 'UF': 'GO', 'DDD': '64', 'Telefone': '993111077', 'CnpjAssist': '90.400.888/2375-84', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>SICOOB PA - PALESTINA DE GO</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>PRAÇA JK</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>QD. 06, LT. 15</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>75845-000</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>5215652</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>PALESTINA DE GOIAS</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>993111077</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>90.400.888/2375-84</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>03047549</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>{'Cnpj': '03047549', 'NomeIf': 'COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA - MINEIROSSICOOB PA - MINEIROS', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV. SEGUNDA AVENIDA', 'Numero': '0', 'Complemento': 'LOTE 11/12/13, QUADRA 01', 'Bairro': 'SETOR MARTINS', 'Cep': '75832-024', 'MunicipioIbge': '5213103', 'Municipio': 'MINEIROS', 'UF': 'GO', 'DDD': '64', 'Telefone': '36616202', 'CnpjAssist': '59.478.198/0001-66', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>SICOOB PA - MINEIROSSICOOB PA - MINEIROS</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>AV. SEGUNDA AVENIDA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>LOTE 11/12/13, QUADRA 01</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>SETOR MARTINS</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>75832-024</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>5213103</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>MINEIROS</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>36616202</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>59.478.198/0001-66</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>03047549</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>{'Cnpj': '03047549', 'NomeIf': 'COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'SICOOB PA - JATAI', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'RUA RIACHUELO', 'Numero': '1733', 'Complemento': 'LOTE 013A, QUADRA 0069', 'Bairro': 'VILA SANTA MARIA', 'Cep': '75800-145', 'MunicipioIbge': '5211909', 'Municipio': 'JATAI', 'UF': 'GO', 'DDD': '64', 'Telefone': '36310731', 'CnpjAssist': '59.478.198/0001-66', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>SICOOB PA - JATAI</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>RUA RIACHUELO</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>1733</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>LOTE 013A, QUADRA 0069</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>VILA SANTA MARIA</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>75800-145</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>5211909</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>JATAI</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>36310731</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>59.478.198/0001-66</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>04866275</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>BANCO INBURSA S.A.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>{'Cnpj': '04866275', 'NomeIf': 'BANCO INBURSA S.A.', 'Segmento': 'Banco Múltiplo', 'NomePosto': 'POSTO DE ATENDIMENTO', 'TipoPosto': 'Posto de Atendimento Bancário - PAB', 'Endereco': 'RUA HENRI DUNANT', 'Numero': '780', 'Complemento': 'TORRE A  1O ANDAR - STO AMARO', 'Bairro': 'SANTO AMARO', 'Cep': '04709-110', 'MunicipioIbge': '3550308', 'Municipio': 'SAO PAULO', 'UF': 'SP', 'DDD': '11', 'Telefone': '3030', 'CnpjAssist': '04.866.275/0001-63', 'NomeAssist': 'BANCO INBURSA DE INVESTIMENTOS S.A.', 'Posicao': '27/07/2025'}</t>
+          <t>Banco Múltiplo</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>POSTO DE ATENDIMENTO</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Bancário - PAB</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>RUA HENRI DUNANT</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>TORRE A  1O ANDAR - STO AMARO</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>SANTO AMARO</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>04709-110</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>3550308</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>SAO PAULO</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>3030</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>04.866.275/0001-63</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>BANCO INBURSA DE INVESTIMENTOS S.A.</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>48795256</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>BANCO ANDBANK (BRASIL) S.A.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>{'Cnpj': '48795256', 'NomeIf': 'BANCO ANDBANK (BRASIL) S.A.', 'Segmento': 'Banco Múltiplo', 'NomePosto': 'RIO DE JANEIRO', 'TipoPosto': 'Posto de Atendimento Bancário - PAB', 'Endereco': 'AV. ATAULFO DE PAIVA', 'Numero': '204', 'Complemento': 'SALAS 901 A 904', 'Bairro': 'LEBLON', 'Cep': '22440-033', 'MunicipioIbge': '3304557', 'Municipio': 'RIO DE JANEIRO', 'UF': 'RJ', 'DDD': '11', 'Telefone': '35390400', 'CnpjAssist': '48.795.256/0003-20', 'NomeAssist': 'BANCO ANDBANK (BRASIL) S.A.', 'Posicao': '27/07/2025'}</t>
+          <t>Banco Múltiplo</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>RIO DE JANEIRO</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Bancário - PAB</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>AV. ATAULFO DE PAIVA</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>SALAS 901 A 904</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>LEBLON</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>22440-033</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>3304557</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>RIO DE JANEIRO</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>35390400</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>48.795.256/0003-20</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>BANCO ANDBANK (BRASIL) S.A.</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>48795256</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>BANCO ANDBANK (BRASIL) S.A.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>{'Cnpj': '48795256', 'NomeIf': 'BANCO ANDBANK (BRASIL) S.A.', 'Segmento': 'Banco Múltiplo', 'NomePosto': 'PORTO ALEGRE', 'TipoPosto': 'Posto de Atendimento Bancário - PAB', 'Endereco': 'RUA TOBIAS DA SILVA', 'Numero': '120', 'Complemento': 'SALA 807 - 7º ANDAR', 'Bairro': 'MOINHOS DE VENTO', 'Cep': '90570-020', 'MunicipioIbge': '4314902', 'Municipio': 'PORTO ALEGRE', 'UF': 'RS', 'DDD': '11', 'Telefone': '35390400', 'CnpjAssist': '48.795.256/0004-01', 'NomeAssist': 'BANCO ANDBANK (BRASIL) S.A.', 'Posicao': '27/07/2025'}</t>
+          <t>Banco Múltiplo</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>PORTO ALEGRE</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Bancário - PAB</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>RUA TOBIAS DA SILVA</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>SALA 807 - 7º ANDAR</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>MOINHOS DE VENTO</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>90570-020</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>4314902</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>PORTO ALEGRE</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>35390400</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>48.795.256/0004-01</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>BANCO ANDBANK (BRASIL) S.A.</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>44401800</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO COGEM</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>{'Cnpj': '44401800', 'NomeIf': 'COOPERATIVA DE CRÉDITO COGEM', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'UNIDADE DE NEGóCIO', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV. ATLâNTICA', 'Numero': '', 'Complemento': '', 'Bairro': 'VILA COPEC', 'Cep': '42816-901', 'MunicipioIbge': '2905701', 'Municipio': 'CAMACARI', 'UF': 'BA', 'DDD': '71', 'Telefone': '35992006', 'CnpjAssist': '51.174.001/0001-93', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>UNIDADE DE NEGóCIO</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>AV. ATLâNTICA</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>VILA COPEC</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>42816-901</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>2905701</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>CAMACARI</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>35992006</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>51.174.001/0001-93</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>44401800</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO COGEM</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>{'Cnpj': '44401800', 'NomeIf': 'COOPERATIVA DE CRÉDITO COGEM', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'UNIDADE DE NEGóCIO', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV. DUQUE DE CAXIAS', 'Numero': '2422', 'Complemento': '', 'Bairro': 'JARDIM SANTA LUCIA', 'Cep': '13223-025', 'MunicipioIbge': '3556503', 'Municipio': 'VARZEA PAULISTA', 'UF': 'SP', 'DDD': '11', 'Telefone': '48630999', 'CnpjAssist': '51.174.001/0001-93', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>UNIDADE DE NEGóCIO</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>AV. DUQUE DE CAXIAS</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2422</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>JARDIM SANTA LUCIA</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>13223-025</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3556503</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>VARZEA PAULISTA</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>48630999</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>51.174.001/0001-93</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>44401800</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://was-p.bcnet.bcb.gov.br/olinda/servico/Informes_PostosDeAtendimento/versao/v1/odata$metadata#PostosAtendimento(Cnpj,NomeIf,Segmento,NomePosto,TipoPosto,Endereco,Numero,Complemento,Bairro,Cep,MunicipioIbge,Municipio,UF,DDD,Telefone,CnpjAssist,NomeAssist,Posicao)</t>
+          <t>COOPERATIVA DE CRÉDITO COGEM</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>{'Cnpj': '44401800', 'NomeIf': 'COOPERATIVA DE CRÉDITO COGEM', 'Segmento': 'Cooperativa de Crédito', 'NomePosto': 'UNIDADE DE NEGÓCIO', 'TipoPosto': 'Posto de Atendimento Cooperativo - PAC', 'Endereco': 'AV. CONDE ZEPPELIN', 'Numero': '1935', 'Complemento': '', 'Bairro': 'EDEN', 'Cep': '18103-905', 'MunicipioIbge': '3552205', 'Municipio': 'SOROCABA', 'UF': 'SP', 'DDD': '15', 'Telefone': '31999310', 'CnpjAssist': '51.174.001/0001-93', 'NomeAssist': '', 'Posicao': '27/07/2025'}</t>
+          <t>Cooperativa de Crédito</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>UNIDADE DE NEGÓCIO</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>AV. CONDE ZEPPELIN</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>EDEN</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>18103-905</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>3552205</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>SOROCABA</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>31999310</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>51.174.001/0001-93</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>27/07/2025</t>
         </is>
       </c>
     </row>

--- a/strDataFrame.xlsx
+++ b/strDataFrame.xlsx
@@ -528,352 +528,356 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04894460</t>
+          <t>09526594</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS SERVIDORES DA JUSTIÇA DO ESTADO DE MINAS GERAIS LTDA. - SICOOB CREDJUS</t>
+          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Banco de Investimento</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SICOOB PA FÓRUM - RAJA</t>
+          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AV. RAJA GABÁGLIA</t>
+          <t>AVENIDA DO BATEL</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1753</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ANDAR TÉRREO</t>
+          <t>SALA 201</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>LUXEMBURGO</t>
+          <t>BATEL</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>30380-435</t>
+          <t>80420-090</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3106200</t>
+          <t>4106902</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>BELO HORIZONTE</t>
+          <t>CURITIBA</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2851200</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+          <t>09.526.594/0001-43</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04894460</t>
+          <t>09526594</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS SERVIDORES DA JUSTIÇA DO ESTADO DE MINAS GERAIS LTDA. - SICOOB CREDJUS</t>
+          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Banco de Investimento</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SICOOB PA FÓRUM CONTAGEM</t>
+          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AV MARIA DA GLÓRIA ROCHA</t>
+          <t>AVENIDA CARLOS GOMES</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>400</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3- ANDAR</t>
+          <t>4- ANDAR, SALAS 401, 402 E 403</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BITACULA</t>
+          <t>AUXILIADORA</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>32010-375</t>
+          <t>90480-900</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3106200</t>
+          <t>4314902</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BELO HORIZONTE</t>
+          <t>PORTO ALEGRE</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>80</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>32754645</t>
+          <t>2851200</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>90.400.888/2290-50</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+          <t>09.526.594/0001-43</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>09526594</t>
+          <t>92856905</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
+          <t>ADVANCED CORRETORA DE CÂMBIO LTDA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Banco de Investimento</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
+          <t>ADVANCED SALVADOR</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Bancário - PAB</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AVENIDA DO BATEL</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1647</t>
-        </is>
-      </c>
+          <t>RUA EWERTON VISCO  290 EDF BOULEVARD SID</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>SALA 201</t>
+          <t>EMPRESARIAL SALA 2001</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>BATEL</t>
+          <t>CAMINHO DAS ÁRVORES</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>80420-090</t>
+          <t>41820-022</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4106902</t>
+          <t>2927408</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>CURITIBA</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>71</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2851200</t>
+          <t>32421469</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>09.526.594/0001-43</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
-        </is>
-      </c>
+          <t>92.856.905/0001-86</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>09526594</t>
+          <t>92856905</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
+          <t>ADVANCED CORRETORA DE CÂMBIO LTDA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Banco de Investimento</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
+          <t>ADVANCED SÃO PAULO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Bancário - PAB</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AVENIDA CARLOS GOMES</t>
+          <t>RUA PADRE JOÃO MANUEL</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>450</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4- ANDAR, SALAS 401, 402 E 403</t>
+          <t>9º ANDAR CONJUNTO 95</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>AUXILIADORA</t>
+          <t>CERQUEIRA CESAR</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>90480-900</t>
+          <t>01411-001</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4314902</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>PORTO ALEGRE</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2851200</t>
+          <t>30651017</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>09.526.594/0001-43</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>BANCO MASTER DE INVESTIMENTO S.A.</t>
-        </is>
-      </c>
+          <t>92.856.905/0001-86</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
@@ -895,7 +899,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ADVANCED SALVADOR</t>
+          <t>ADVANCED SUL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -905,81 +909,85 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RUA EWERTON VISCO  290 EDF BOULEVARD SID</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>RUA CAMBORIU</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>EMPRESARIAL SALA 2001</t>
+          <t>3º ANDAR - CONJ: 301</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>CAMINHO DAS ÁRVORES</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>41820-022</t>
+          <t>88301-450</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2927408</t>
+          <t>4208203</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>ITAJAI</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>47</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>32421469</t>
+          <t>30460048</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>92.856.905/0001-86</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>92856905</t>
+          <t>50579044</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ADVANCED CORRETORA DE CÂMBIO LTDA</t>
+          <t>LEVYCAM - CORRETORA DE CAMBIO E VALORES LTDA.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ADVANCED SÃO PAULO</t>
+          <t>LEVYCAM CORRETORA DE CÂMBIO E VALORES LTDA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -989,42 +997,42 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>RUA PADRE JOÃO MANUEL</t>
+          <t>AVENIDA RIO BRANCO</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>123</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9º ANDAR CONJUNTO 95</t>
+          <t>GRUPO 914</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>CERQUEIRA CESAR</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>01411-001</t>
+          <t>20040-005</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3550308</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>SAO PAULO</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1034,30 +1042,30 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>30651017</t>
+          <t>28139600</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>92.856.905/0001-86</t>
+          <t>50.579.044/0001-96</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>92856905</t>
+          <t>15122605</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ADVANCED CORRETORA DE CÂMBIO LTDA</t>
+          <t>LÚMINA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1067,7 +1075,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ADVANCED SUL</t>
+          <t>POSTO NO SALVADOR SHOPPING   LOJA 1058</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1077,85 +1085,85 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RUA CAMBORIU</t>
+          <t>AV. TANCREDO NEVES</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3º ANDAR - CONJ: 301</t>
+          <t>SALVADOR SHOPPING - LOJA 1058</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CAMINHO DAS ÁRVORES</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>88301-450</t>
+          <t>41820-021</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4208203</t>
+          <t>2927408</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>ITAJAI</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>71</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>30460048</t>
+          <t>30196300</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>15.122.605/0001-22</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>50579044</t>
+          <t>15122605</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LEVYCAM - CORRETORA DE CAMBIO E VALORES LTDA.</t>
+          <t>LÚMINA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de TVM</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LEVYCAM CORRETORA DE CÂMBIO E VALORES LTDA</t>
+          <t>LÚMINA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1165,63 +1173,63 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AVENIDA RIO BRANCO</t>
+          <t>AV. CENTENÁRIO - LOJA 121</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>2992</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>GRUPO 914</t>
+          <t>SHOPPING BARRA</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CHAME-CHAME</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20040-005</t>
+          <t>40140-902</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3304557</t>
+          <t>2927408</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>71</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>28139600</t>
+          <t>30341579</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>50.579.044/0001-96</t>
+          <t>00.394.502/0055-37</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
@@ -1309,195 +1317,203 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>15122605</t>
+          <t>48795256</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LÚMINA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>BANCO ANDBANK (BRASIL) S.A.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Banco Múltiplo</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LÚMINA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AV. CENTENÁRIO - LOJA 121</t>
+          <t>AV. ATAULFO DE PAIVA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2992</t>
+          <t>204</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SHOPPING BARRA</t>
+          <t>SALAS 901 A 904</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>CHAME-CHAME</t>
+          <t>LEBLON</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>40140-902</t>
+          <t>22440-033</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2927408</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>30341579</t>
+          <t>35390400</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>00.394.502/0055-37</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
+          <t>48.795.256/0003-20</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>BANCO ANDBANK (BRASIL) S.A.</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15122605</t>
+          <t>48795256</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LÚMINA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>BANCO ANDBANK (BRASIL) S.A.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Banco Múltiplo</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>POSTO NO SALVADOR SHOPPING   LOJA 1058</t>
+          <t>PORTO ALEGRE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AV. TANCREDO NEVES</t>
+          <t>RUA TOBIAS DA SILVA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SALVADOR SHOPPING - LOJA 1058</t>
+          <t>SALA 807 - 7º ANDAR</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>CAMINHO DAS ÁRVORES</t>
+          <t>MOINHOS DE VENTO</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>41820-021</t>
+          <t>90570-020</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2927408</t>
+          <t>4314902</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>PORTO ALEGRE</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>30196300</t>
+          <t>35390400</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>15.122.605/0001-22</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr"/>
+          <t>48.795.256/0004-01</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>BANCO ANDBANK (BRASIL) S.A.</t>
+        </is>
+      </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04079285</t>
+          <t>44401800</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
+          <t>COOPERATIVA DE CRÉDITO COGEM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1507,7 +1523,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SICOOB PA GONÇALVESSICOOB PA GONÇALVES</t>
+          <t>UNIDADE DE NEGóCIO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1517,71 +1533,67 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>RUA CORONEL JOÃO VIEIRA</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
+          <t>AV. ATLâNTICA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>VILA COPEC</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>37680-000</t>
+          <t>42816-901</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3127404</t>
+          <t>2905701</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>GONCALVES</t>
+          <t>CAMACARI</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>71</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>40204329</t>
+          <t>35992006</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>90.400.888/3062-25</t>
+          <t>51.174.001/0001-93</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04079285</t>
+          <t>44401800</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
+          <t>COOPERATIVA DE CRÉDITO COGEM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1591,7 +1603,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SICOOB PA TAUBATÉ</t>
+          <t>UNIDADE DE NEGóCIO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1601,37 +1613,33 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PRAÇA MONSENHOR SILVA BARROS</t>
+          <t>AV. DUQUE DE CAXIAS</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>SALA 92 - CONDOMINIO STAR SHOP</t>
-        </is>
-      </c>
+          <t>2422</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>JARDIM SANTA LUCIA</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>12020-070</t>
+          <t>13223-025</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3554102</t>
+          <t>3556503</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>TAUBATE</t>
+          <t>VARZEA PAULISTA</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1641,35 +1649,35 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>40204329</t>
+          <t>48630999</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>00.360.305/0001-04</t>
+          <t>51.174.001/0001-93</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04079285</t>
+          <t>44401800</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
+          <t>COOPERATIVA DE CRÉDITO COGEM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1679,7 +1687,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PA SICOOB SÃO BENTO SAPUCAÍ</t>
+          <t>UNIDADE DE NEGÓCIO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1689,33 +1697,33 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>RUA MAJOR MIGUEL CHIARADIA</t>
+          <t>AV. CONDE ZEPPELIN</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>JARDIM SANTA TEREZIN</t>
+          <t>EDEN</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>12490-000</t>
+          <t>18103-905</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3548609</t>
+          <t>3552205</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>SAO BENTO DO SAPUCAI</t>
+          <t>SOROCABA</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1725,35 +1733,35 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>40204329</t>
+          <t>31999310</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>20.346.524/0001-46</t>
+          <t>51.174.001/0001-93</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04079285</t>
+          <t>44401800</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
+          <t>COOPERATIVA DE CRÉDITO COGEM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1763,7 +1771,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SICOOB PA STO ANTÔNIO PINHAL</t>
+          <t>UNIDADE DE NEGóCIO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1773,37 +1781,37 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>RUA VIRGÍLIO FARIA DA COSTA</t>
+          <t>AV. PIRAPORINHA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>LOJA 02 E 03</t>
+          <t>PORTARIA BRASCOLA</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>JORDANóPOLIS</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12450-000</t>
+          <t>09891-901</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3548203</t>
+          <t>3548708</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>SANTO ANTONIO DO PINHAL</t>
+          <t>SAO BERNARDO DO CAMPO</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1813,35 +1821,35 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>40204329</t>
+          <t>30803960</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>00.360.305/0001-04</t>
+          <t>51.174.001/0001-93</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04079285</t>
+          <t>44401800</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
+          <t>COOPERATIVA DE CRÉDITO COGEM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1851,7 +1859,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SICOOB PA PIQUETE</t>
+          <t>UNIDADE DE NEGÓCIO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1861,33 +1869,33 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>RUA DOUTOR OLIVEIRA BRAGA</t>
+          <t>AVENIDA QUEIROS DOS SANTOS</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>1717</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CASA BRANCA</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>12620-000</t>
+          <t>09015-901</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3538501</t>
+          <t>3547809</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>PIQUETE</t>
+          <t>SANTO ANDRE</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1895,37 +1903,29 @@
           <t>SP</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>40204329</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>90.400.888/3062-25</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04079285</t>
+          <t>44401800</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
+          <t>COOPERATIVA DE CRÉDITO COGEM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SICOOB PA PINDA</t>
+          <t>UNIDADE DE NEGóCIO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1945,37 +1945,33 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>RUA DOUTOR GREGÓRIO COSTA</t>
+          <t>AV. DR. HIPóLITO PINTO RIBEIRO</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>237</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>SALA 108</t>
-        </is>
-      </c>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>JARDIM NOVA LIMEIRA</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>12400-430</t>
+          <t>13486-317</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3538006</t>
+          <t>3526902</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>PINDAMONHANGABA</t>
+          <t>LIMEIRA</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1985,35 +1981,35 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>40204329</t>
+          <t>40071954</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>00.360.305/0001-04</t>
+          <t>51.174.001/0001-93</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04079285</t>
+          <t>44401800</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
+          <t>COOPERATIVA DE CRÉDITO COGEM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2023,7 +2019,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SICOOB PA CUNHA</t>
+          <t>UNIDADE DE NEGóCIO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2033,37 +2029,33 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>RUA DOM LINO</t>
+          <t>ESTRADA MUNICIPAL JOSé RUBIM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>SALA 14</t>
-        </is>
-      </c>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>COMPLEXO INDUSTRIAL</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>12530-000</t>
+          <t>13338-010</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3513603</t>
+          <t>3520509</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>CUNHA</t>
+          <t>INDAIATUBA</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2073,35 +2065,35 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>40204329</t>
+          <t>31993631</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>00.360.305/0001-04</t>
+          <t>51.174.001/0001-93</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04079285</t>
+          <t>44401800</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
+          <t>COOPERATIVA DE CRÉDITO COGEM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2111,7 +2103,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SICOOB PA SAPUCAÍ MIRIM</t>
+          <t>UNIDADE DE NEGóCIO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2121,71 +2113,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AV PRESIDENTE TANCREDO NEVES</t>
+          <t>AV. SENADOR ADOLF SCHINDLING</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>131</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>VILA ENDRES</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>37690-000</t>
+          <t>07042-010</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3165404</t>
+          <t>3518800</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>SAPUCAI-MIRIM</t>
+          <t>GUARULHOS</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>40204329</t>
+          <t>30803961</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>90.400.888/1137-70</t>
+          <t>51.174.001/0001-93</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04079285</t>
+          <t>44401800</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
+          <t>COOPERATIVA DE CRÉDITO COGEM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2195,7 +2187,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SICOOB PA PIRANGUINHO</t>
+          <t>UNIDADE DE NEGóCIO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2205,99 +2197,99 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AVENIDA JUSCELINO KUBITSCHEK DE OLIVEIRA</t>
+          <t>AV. CONTINENTAL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>2777</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>DISTRITO INDUSTRIAL</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>37508-000</t>
+          <t>84043-735</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3151008</t>
+          <t>4119905</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>PIRANGUINHO</t>
+          <t>PONTA GROSSA</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>42</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>40204329</t>
+          <t>40200147</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>42.498.733/0001-48</t>
+          <t>51.174.001/0001-93</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04079285</t>
+          <t>32648370</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
+          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SICOOB PA MARIA DA FÉ</t>
+          <t>CURITIBA-PR</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RUA DOM BOSCO</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>RUA MARECHAL DEODORO, 630</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>LOJA 75E-VV-EDIF.C.C.I.</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -2305,419 +2297,427 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>37517-000</t>
+          <t>80010-010</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3139904</t>
+          <t>4106902</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>MARIA DA FE</t>
+          <t>CURITIBA</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>41</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>40204329</t>
+          <t>30769842</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>61.360.574/0001-65</t>
+          <t>32.648.370/0001-26</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04079285</t>
+          <t>32648370</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
+          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SICOOB PA SÃO VICENTE</t>
+          <t>LXR PROVIDENCE AGÊNCIA DE TURISMO LTDA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AVENIDA PAULO CHIARADIA</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>RODOVIA RAPOSO TAVARES, KM 23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>LOJA 206-PISO INF.SHOPPING GRANJA VIANNA</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>SÃO VICENTE</t>
+          <t>LAGEADINHO</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>37502-028</t>
+          <t>06709-015</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>3132404</t>
+          <t>3513009</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>ITAJUBA</t>
+          <t>COTIA</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>40204329</t>
+          <t>46136522</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>32.648.370/0001-26</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04079285</t>
+          <t>32648370</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
+          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SICOOB PA PRODUTOS</t>
+          <t>SÃO JOSÉ-SC (CASOL CENTERLAR CAMPINAS)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>RUA DOUTOR AMÉRICO DE OLIVEIRA</t>
+          <t>AVENIDA PRESIDENTE KENNEDY,</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>LOJA CENTRO</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>SALA 17 - CASSOL CENTERLAR CAMPINAS</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>KOBRASOL</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>37500-061</t>
+          <t>88102-401</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3132404</t>
+          <t>4216602</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>ITAJUBA</t>
+          <t>SAO JOSE</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>48</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>40204329</t>
+          <t>32595989</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>20.346.524/0001-46</t>
+          <t>32.648.370/0001-26</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04079285</t>
+          <t>32648370</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
+          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SICOOB PLATAFORMA PJ</t>
+          <t>FLORIANÓPOLIS-SC</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AVENIDA CESÁRIO ALVIM</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>AV. PREFEITO OSMAR CUNHA, Nº 183</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>LOJA 14-BLOCO B-EDIF. CEISA CENTER</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>VARGINHA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>37501-059</t>
+          <t>88015-100</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>3132404</t>
+          <t>4205407</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>ITAJUBA</t>
+          <t>FLORIANOPOLIS</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>48</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>40204329</t>
+          <t>32220688</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>90.400.888/2827-09</t>
+          <t>32.648.370/0001-26</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04079285</t>
+          <t>32648370</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO DE LIVRE ADMISSÃO DE ITAJUBÁ LTDA - SICOOB SUDESTE MAIS</t>
+          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SICOOB PA VARGINHA</t>
+          <t>CRICIÚMA-SC</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AV DOUTOR VICENTE SANCHES</t>
+          <t>RUA CORONEL PEDRO BENEDET</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>SALA 005</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>VARGINHA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>37501-082</t>
+          <t>88801-250</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>3132404</t>
+          <t>4204608</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>ITAJUBA</t>
+          <t>CRICIUMA</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>48</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>40204329</t>
+          <t>30457228</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>00.000.000/0049-36</t>
+          <t>14.675.270/0004-50</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>32648370</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19 - PAC ADAMANTINA</t>
+          <t>BALNEÁRIO CAMBORIÚ-SC</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>RUA OSVALDO CRUZ</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>AV. BRASIL, Nº 1615</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>S/ 22-ED.ARLENE-ESPAÇO EMP.DELLATORRE</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -2725,75 +2725,87 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>17800-045</t>
+          <t>88330-048</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>3500105</t>
+          <t>4202008</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>ADAMANTINA</t>
+          <t>BALNEARIO CAMBORIU</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>32631707</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>06.315.338/0151-40</t>
+          <t>32.648.370/0001-26</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>06373777</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>BOA VIAGEM SOCIEDADE CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>09 - PAC DE TUPÃ</t>
+          <t>POSTO MARAGOGI</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AVENIDA TABAJARAS</t>
+          <t>AV SENADOR RUI PALMEIRA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -2801,150 +2813,166 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>17600-360</t>
+          <t>57955-000</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>3555000</t>
+          <t>2704500</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>TUPA</t>
+          <t>MARAGOGI</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>33439194</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>75.666.131/0001-01</t>
+          <t>06.373.777/0001-88</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>06373777</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>BOA VIAGEM SOCIEDADE CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23 - PAC RANCHARIA</t>
+          <t>POSTO VIA SUL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AVENIDA DOM PEDRO II</t>
+          <t>AV. WASHINGTON SOARES</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>LOJA 147  VIA SUL SHOPPING</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>SAPIRANGA</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>19600-029</t>
+          <t>60833-005</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>3542206</t>
+          <t>2304400</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>RANCHARIA</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>30327764</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>00.360.305/0001-04</t>
+          <t>06.373.777/0001-88</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>28762249</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>SADOC SOCIEDADE CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>04 - PAC DE POMPEIA</t>
+          <t>SADOC SOCIEDADE CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>RUA CYRO VENTURA BARBOSA</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
+          <t>RUA FRANCISCO QUIRINO</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
@@ -2953,47 +2981,55 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>17580-000</t>
+          <t>62598-000</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>3540002</t>
+          <t>2307254</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>POMPEIA</t>
+          <t>JIJOCA DE JERICOACOARA</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>3297993</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>60.746.948/1288-52</t>
+          <t>28.762.249/0001-53</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>04894460</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS SERVIDORES DA JUSTIÇA DO ESTADO DE MINAS GERAIS LTDA. - SICOOB CREDJUS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3003,7 +3039,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14 - PAC PEDERNEIRAS</t>
+          <t>SICOOB PA FÓRUM CONTAGEM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3013,63 +3049,75 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>RUA CORONEL COIMBRA</t>
+          <t>AV MARIA DA GLÓRIA ROCHA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>3- ANDAR</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>BITACULA</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>17280-037</t>
+          <t>32010-375</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>3536703</t>
+          <t>3106200</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>PEDERNEIRAS</t>
+          <t>BELO HORIZONTE</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>32754645</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>16.701.716/0001-56</t>
+          <t>90.400.888/2290-50</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>04894460</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS SERVIDORES DA JUSTIÇA DO ESTADO DE MINAS GERAIS LTDA. - SICOOB CREDJUS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3079,7 +3127,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>03 - PAC NELSON SPIELMANN</t>
+          <t>SICOOB PA FÓRUM - RAJA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3089,627 +3137,651 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AV NELSON SPIELMANN</t>
+          <t>AV. RAJA GABÁGLIA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>629</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>1753</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>ANDAR TÉRREO</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>PALMITAL</t>
+          <t>LUXEMBURGO</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>17509-001</t>
+          <t>30380-435</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>3529005</t>
+          <t>3106200</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>MARILIA</t>
+          <t>BELO HORIZONTE</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>60.746.948/1288-52</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>33851064</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>DILLON S/A DISTRIBUIDORA DE TITULOS E VALORES MOBILIARIOS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>24 - PAC SANTA ANTONIETA</t>
+          <t>POSTO DE COMPRA DE OURO DO MUNÍCIPIO DO RIO DE JANEIRO - RJ</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>RUA JOÃO MARTINS COELHO</t>
+          <t>RUA DA ASSEMBLEIA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1934</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>13- ANDAR</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>JD SANTA ANTONIETA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>17512-310</t>
+          <t>20011-001</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>3529005</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>MARILIA</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>25178021</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>60.746.948/7442-27</t>
+          <t>33.851.064/0001-55</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>17312083</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>H H PICCHIONI S/A CORRETORA DE CAMBIO E VALORES MOBILIARIOS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>02 - PAC DA RIO BRANCO</t>
+          <t>PICCHIONI CÂMBIO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AV RIO BRANCO, 1153</t>
+          <t>AV. DOS ANDRADAS, 3000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>LOJA 1041 - 1. PISO</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>ALTO CAFEZAL</t>
+          <t>SANTA EFIGÊNIA</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>17502-000</t>
+          <t>30260-070</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>3529005</t>
+          <t>3106200</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>MARILIA</t>
+          <t>BELO HORIZONTE</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>32387441</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>17.312.083/0001-57</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>96 - PAC ESCRITORIO DE INVESTIMENTO MARILIA</t>
+          <t>ALTA FLORESTA - MT</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AVENIDA RIO BRANCO</t>
+          <t>AVENIDA JAIME VERISSIMO DE CAMPOS</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1132</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>SALA 42 - 4° ANDAR - EDIFíCIO RIO NEGRO CENTER</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>ALTO CAFEZAL</t>
-        </is>
-      </c>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>17502-000</t>
+          <t>78580-000</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>3529005</t>
+          <t>5100250</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>MARILIA</t>
+          <t>ALTA FLORESTA</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>00.360.305/0001-04</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>27 - PAC DE LINS</t>
+          <t>PORTO VELHO-RO (RUA JOAQUIM NABUCO)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>RUA DOM PEDRO II</t>
+          <t>RUA JOAQUIM NABUCO,</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TERREO: INST FIN COOPERATIVA</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>CENTRO</t>
-        </is>
-      </c>
+          <t>KM 1</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>16400-047</t>
+          <t>76804-104</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>3527108</t>
+          <t>1100205</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>LINS</t>
+          <t>PORTO VELHO</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>60.872.504/0001-23</t>
+          <t>00.000.000/1160-68</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12 - PAC JAU</t>
+          <t>REDENÇÃO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>RUA AMARAL GURGEL</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>817</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>RODOVIA PA 287</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>KM:287,LOTE:32, 32-A E 32-B</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>COLONIA FREI GIL</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>17201-010</t>
+          <t>68550-000</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>3525300</t>
+          <t>1506138</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>JAU</t>
+          <t>REDENCAO</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>16.701.716/0001-56</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>21 - PAC HOSPITAL UNIMED JAU</t>
+          <t>ITAITUBA - PA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AVENIDA ANTONIO DE ALMEIDA PACHECO</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>FAZENDA MINUANO BACIA DO RIO CREPURIZINH</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>SALA A</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2 ZONA INDUSTRIAL</t>
+          <t>ZONA RURAL</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>17213-700</t>
+          <t>68187-899</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>3525300</t>
+          <t>1503606</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>JAU</t>
+          <t>ITAITUBA</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>90.400.888/2386-37</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>18 - PAC INUBIA PAULISTA</t>
+          <t>PCO VARZEA GRANDE - MT</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AV. LEAO MIGUEL BANNWART</t>
+          <t>AV. JULIO DOMINGOS DE CAMPOS</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>5774</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>SALA 6</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>SANTA ISABEL</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>17760-000</t>
+          <t>78150-236</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>3520806</t>
+          <t>5108402</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>INUBIA PAULISTA</t>
+          <t>VARZEA GRANDE</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>22 - PAC HERCULANDIA</t>
+          <t>TERRA NOVA DO NORTE-MT (C-13 TERRA NOVA DO NORTE)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>RUA EUCLIDES DA CUNHA</t>
+          <t>TRAVESSA LUCAS TOMIAZZO,</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>SALA 25</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -3717,75 +3789,79 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>17650-059</t>
+          <t>78505-000</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>3519006</t>
+          <t>5108055</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>HERCULANDIA</t>
+          <t>TERRA NOVA DO NORTE</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>27.080.571/0001-30</t>
+          <t>60.701.190/0126-17</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>10 - PAC GARÇA</t>
+          <t>PRAÇA C47 - TERRA NOVA DO NORTE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>RUA DEPUTADO MANOEL JOAQUIM FERNANDES</t>
+          <t>AVENIDA NORBERTO SCHWANTES</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>SALA A</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -3793,72 +3869,72 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>17400-000</t>
+          <t>78505-000</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>3516705</t>
+          <t>5108055</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>GARCA</t>
+          <t>TERRA NOVA DO NORTE</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>60.701.190/0126-17</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>16 - PAC DE DRACENA</t>
+          <t>POCONÉ-MT</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>RUA MARACAJU</t>
+          <t>RUA 13 DE JUNHO</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -3869,72 +3945,72 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>17900-203</t>
+          <t>78175-000</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>3514403</t>
+          <t>5106505</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>DRACENA</t>
+          <t>POCONE</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>16.701.716/0001-56</t>
+          <t>00.000.000/1160-68</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>20 - PAC BROTAS</t>
+          <t>POCONÉ - MT</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>AVENIDA ELYSEU LOURENÇÃO</t>
+          <t>RUA PRAÇA BEM RONDON</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -3945,538 +4021,550 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>17380-029</t>
+          <t>78175-000</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>3507902</t>
+          <t>5106505</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>BROTAS</t>
+          <t>POCONE</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>92.815.000/0001-68</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>13 - PAC HOSPITAL UNIMED BAURU</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DR. ARNALDO CURVELLO</t>
+          <t>AVENIDA BRASIL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10-110</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>QUADRA 003 LOTE 0007</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>PARQUE SANTA TEREZIN</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>17035-500</t>
+          <t>78530-000</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>3506003</t>
+          <t>5106422</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>BAURU</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>16.701.716/0001-56</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>97 - PAC ESCRITORIO DE INVESTIMENTO BAURU</t>
+          <t>PEIXOTO DE AZEVEDO-MT (AV. BRASIL, 825)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>RUA GUSTAVO MACIEL</t>
+          <t>AVENIDA BRASIL,</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>22 40</t>
+          <t>825</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>SALAS 58 E 59 -5° ANDAR - EDIF ALTOS EMPRESARIAL</t>
+          <t>SALA 02</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>ALTOS DA CIDADE</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>17012-110</t>
+          <t>78530-000</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>3506003</t>
+          <t>5106422</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>BAURU</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>00.360.305/0001-04</t>
+          <t>60.701.190/0291-88</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>25 - PAC CRUZEIRO DO SUL</t>
+          <t>PCO PEIXTO DE AZEVEDO - MT (AVENIDA BRASIL, N- 10</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>RUA RAFAEL PEREIRA MARTINI</t>
+          <t>AVENIDA BRASIL</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>5087</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>QUADRA 003 LOTE 0007</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>JARDIM REDENTOR</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>17032-010</t>
+          <t>78530-000</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>3506003</t>
+          <t>5106422</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>BAURU</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>60.746.948/4035-86</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11 - PAC BAURU</t>
+          <t>ABERTURA DE UM POSTO DE COMPRA DE OURO (PCO  NA CIDADE DE PE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>R. AGENOR MEIRA</t>
+          <t>AVENIDA BRASIL</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12-81</t>
+          <t>425</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>QD. 6-28</t>
+          <t>QUADRA 003 LOTE 0007</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CENTRO ANTIGO</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>17015-301</t>
+          <t>78530-000</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>3506003</t>
+          <t>5106422</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>BAURU</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>16.701.716/0001-56</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>17 - PAC GUSTAVO MACIEL</t>
+          <t>PEIXOTO DE AZEVEDO-MT (AV. BRASIL, 423)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>RUA ANTÔNIO GARCIA</t>
+          <t>AVENIDA BRASIL,</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>02 21</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>SALA 02</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>VILA SANTA TEREZA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>17012-050</t>
+          <t>78530-000</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>3506003</t>
+          <t>5106422</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>BAURU</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>08.761.124/0001-00</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>98 - PAC PROJETO DE EXPANSÃO CENTRO OESTE PAULISTA</t>
+          <t>PRAÇA C48 - PEIXOTO DE AZEVEDO - MT</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>AVENIDA GETULIO VARGAS</t>
+          <t>AVENIDA BRASIL</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20 59</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>QUADRA 003 LOTE 0007</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>PQ JARDIM EUROPA</t>
+          <t>CENTRO NOVO</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>17017-383</t>
+          <t>78530-000</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>3506003</t>
+          <t>5106422</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>BAURU</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>90.400.888/0001-42</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>28 - PAC BARRA BONITA</t>
+          <t>PARANAÍTA - MT</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>AVENIDA ROSA ZANELA PETRI</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>271</t>
-        </is>
-      </c>
+          <t>RUA ORLANDO PETROFEZA, N- 156</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
@@ -4485,75 +4573,79 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>17340-003</t>
+          <t>78590-000</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>3505302</t>
+          <t>5106299</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>BARRA BONITA</t>
+          <t>PARANAITA</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>00.360.305/0001-04</t>
+          <t>25.107.525/0001-51</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>04463602</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO DA REGIÃO CENTRO OESTE PAULISTA - SICREDI CENTRO OESTE PAULISTA</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>26 - PAC DE AGUDOS</t>
+          <t>PRAÇA C46 - NOVA GUARITA - MT</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>RUA SETE DE SETEMBRO</t>
+          <t>AVENIDA DOS MIGRANTES</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>SALA A</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -4561,151 +4653,159 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>17120-011</t>
+          <t>78508-000</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>3500709</t>
+          <t>5108808</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>AGUDOS</t>
+          <t>NOVA GUARITA</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>04853988</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>06 - PAC PIRASSUNUNGA</t>
+          <t>PCO NOVA CANAA-MT</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>AV PADRE ANTONIO VAN ESS</t>
+          <t>AVENIDA BRASIL</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>SETOR 1, QUADRA 61, LOTE 2</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>ROSáRIO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>13634-000</t>
+          <t>78515-000</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>3539301</t>
+          <t>5106216</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>PIRASSUNUNGA</t>
+          <t>NOVA CANAA DO NORTE</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>90.400.888/0001-42</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>04853988</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>09 - PAC DE SÃO PEDRO</t>
+          <t>NOSSA SENHORA DO LIVRAMENTO - MT</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>RUA VALENTIN AMARAL</t>
+          <t>TRAVESSA WAGNER OLIVEIRA QUELUZ</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>949</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>QUADRA 04, SETOR 01</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -4713,75 +4813,79 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>13520-033</t>
+          <t>78170-000</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>3550407</t>
+          <t>5106109</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>SAO PEDRO</t>
+          <t>NOSSA SENHORA DO LIVRAMENTO</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>04853988</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>02 - PAC DE SÃO CARLOS</t>
+          <t>PRAÇA C45 - MATUPÁ - MT</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>RUA SÃO SEBASTIÃO</t>
+          <t>RUA LUIZ MENA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1633</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>1108</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>SALA B, ZH2-001</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -4789,72 +4893,72 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>13560-230</t>
+          <t>78525-000</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>3548906</t>
+          <t>5105606</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>SAO CARLOS</t>
+          <t>MATUPA</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>04853988</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>08 - PAC DE RIBEIRÃO BONITO</t>
+          <t>MATUPÁ-MT</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>RUA MARANHÃO</t>
+          <t>AVENIDA ALCIDES MORENO CAPELINI</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -4865,74 +4969,70 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>13580-013</t>
+          <t>78520-000</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>3542909</t>
+          <t>5104104</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>RIBEIRAO BONITO</t>
+          <t>GUARANTA DO NORTE</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>13.728.156/0001-35</t>
+          <t>46.352.746/0001-65</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>04853988</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>04 - PAC PORTO FERREIRA</t>
+          <t>GUARANTÃ DO NORTE - MT -  PCO</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>RUA JOAO PROCOPIO SOBRINHO</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
+          <t>RUA DOS CAJUEIROS, 171</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
@@ -4941,75 +5041,79 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>13660-033</t>
+          <t>78520-000</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>3540705</t>
+          <t>5104104</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>PORTO FERREIRA</t>
+          <t>GUARANTA DO NORTE</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>01.738.780/0001-34</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>04853988</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>03 - PAC IBATÉ</t>
+          <t>PCO COLIDER - MT  RESPONSÁVEL M. A. REIS DE SOUZA EIRELI</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>RUA DR. TEIXEIRA DE BARROS</t>
+          <t>AVENIDA TANCREDO NEVES</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>SETOR SUL</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -5017,199 +5121,207 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>14815-047</t>
+          <t>78500-000</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>3519303</t>
+          <t>5103205</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>IBATE</t>
+          <t>COLIDER</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>12.094.570/0001-77</t>
+          <t>00.360.305/0001-04</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>04853988</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>07 - PAC DESCALVADO</t>
+          <t>ARIPUANÃ-MT</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>RUA CORONEL ARTHUR WHITACKER</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>966</t>
-        </is>
-      </c>
+          <t>RUA LIRIO DENARAY, Nº 02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>JARDIM BELEM</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>13690-000</t>
+          <t>78325-000</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>3513702</t>
+          <t>5101407</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>DESCALVADO</t>
+          <t>ARIPUANA</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>21.154.554/0001-13</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>04853988</t>
+          <t>73622748</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO, POUPANÇA E INVESTIMENTO BANDEIRANTES - SICREDI BANDEIRANTES SP</t>
+          <t>BT CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>05 - PAC BOA ESPERANÇA DO SUL</t>
+          <t>SHOP MAG JP</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>RUA EXPEDICIONáRIO MáRIO FERNANDES</t>
+          <t>AV GOVERNADOR FLAVIO RIBEIRO COUTINHO</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>394</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>LOJA 105</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>JARDIM PAULISTA</t>
+          <t>MANAIRA</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>14930-000</t>
+          <t>58037-000</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>3506706</t>
+          <t>2507507</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>BOA ESPERANCA DO SUL</t>
+          <t>JOAO PESSOA</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>30481070</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>00.000.000/0708-07</t>
+          <t>73.622.748/0001-08</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>42445122</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA PONTIFÍCIA UNIVERSIDADE CATÓLICA DO RIO DE JANEIRO E EMPREGADOS EM ESTABELECIMENTOS PRIVADOS DE ENSINO DO MUNICÍPIO DO RIO DE JANEIRO LTDA.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5219,7 +5331,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PAC URUPÁ</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA PO</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5229,15 +5341,19 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>AVENIDA CABO BARBOSA</t>
+          <t>RUA ACRE</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1590</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>SALA 603 E 604</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -5245,47 +5361,55 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>76929-000</t>
+          <t>20081-000</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1101708</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>URUPA</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>25184167</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>47.680.798/0001-23</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -5295,7 +5419,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PAC ANORI</t>
+          <t>SICOOB PA -  CARLOS GOMES</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5305,67 +5429,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>RUA AUGUSTO GRIJO</t>
+          <t>AVENIDA CARLOS GOMES</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>790</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>LOTE 505</t>
-        </is>
-      </c>
+          <t>1717</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>PARQUE SAO PAULO</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>69440-000</t>
+          <t>85803-000</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1300102</t>
+          <t>4104808</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>ANORI</t>
+          <t>CASCAVEL</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>33213200</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>04.913.129/0001-41</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -5375,7 +5503,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PAC SÃO MIGUEL DO GUAPORÉ</t>
+          <t>SICOOB PA - PORTO ALEGRE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5385,71 +5513,67 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>AV SAO PAULO</t>
+          <t>AVENIDA CARLOS GOMES</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>486</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>ANDAR 7, SALA 8</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>AUXILIADORA</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>76932-000</t>
+          <t>90470-282</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>1100320</t>
+          <t>4314902</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>SAO MIGUEL DO GUAPORE</t>
+          <t>PORTO ALEGRE</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>34212332</t>
-        </is>
-      </c>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>90.400.888/0675-65</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -5459,7 +5583,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PAC ROLIM DE MOURA</t>
+          <t>SICOOB PA - TRÊS BARRAS DO PARANÁ</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5469,12 +5593,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>AVENIDA FORTALEZA</t>
+          <t>AV BRASIL</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>5049</t>
+          <t>197</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -5485,47 +5609,47 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>76940-000</t>
+          <t>85485-003</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1100288</t>
+          <t>4127858</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>ROLIM DE MOURA</t>
+          <t>TRES BARRAS DO PARANA</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>17.184.037/0001-10</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -5535,7 +5659,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PAC PRESIDENTE MEDICI D. ESTRELA DE RO</t>
+          <t>SICOOB PA - SANTA TEREZA DO OESTE</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5545,67 +5669,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>AVENIDA TRANQUEDO NEVES</t>
+          <t>RUA DAS ORQUÍDEAS</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>852</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>QUADRA 01 LOTE 04</t>
-        </is>
-      </c>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>ESTRELA DE RONDÔNIA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>76916-000</t>
+          <t>85825-970</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1100254</t>
+          <t>4124020</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>PRESIDENTE MEDICI</t>
+          <t>SANTA TEREZA DO OESTE</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>32311769</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>04.902.979/0009-00</t>
+          <t>04.548.589/0018-66</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -5615,7 +5743,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>PAC PRESIDENTE MEDICI RO</t>
+          <t>SICOOB PA - GUARANIAÇU</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5625,12 +5753,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>AV 30 DE JUNHO</t>
+          <t>RUA EUDOXIO BADOTTI</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -5641,47 +5769,47 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>76916-000</t>
+          <t>85400-000</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1100254</t>
+          <t>4109302</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>PRESIDENTE MEDICI</t>
+          <t>GUARANIACU</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>60.701.190/1289-17</t>
+          <t>60.746.948/0438-65</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -5691,7 +5819,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PAC OURO PRETO DO OESTE</t>
+          <t>SICOOB PA - CORBÉLIA</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -5701,17 +5829,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>AV XV DE NOVEMBRO</t>
+          <t>AV. SANTA CATARINA</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>SALA B</t>
+          <t>SALA</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5721,47 +5849,47 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>76920-000</t>
+          <t>85420-000</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1100155</t>
+          <t>4106308</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>OURO PRETO DO OESTE</t>
+          <t>CORBELIA</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>90.400.888/0765-56</t>
+          <t>75.828.418/0001-90</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -5771,7 +5899,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PAC NOVA BRASILANDIA D OESTE</t>
+          <t>SICOOB PA - CÉU AZUL</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5781,15 +5909,15 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>R. JOSE CARLOS BUENO</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>3321</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+          <t>RUA CURITIBA, 1534</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>SALA 01</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -5797,47 +5925,47 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>76958-000</t>
+          <t>85840-000</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1100148</t>
+          <t>4105300</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>NOVA BRASILANDIA D'OESTE</t>
+          <t>CEU AZUL</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>90.400.888/0133-92</t>
+          <t>02.839.639/0001-90</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -5847,7 +5975,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PAC MINISTRO ANDREAZZA</t>
+          <t>SICOOB  PA - CATANDUVAS</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5857,71 +5985,63 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>RUA TANCREDO NEVES</t>
+          <t>AV. PIONEIROS</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3146</t>
+          <t>517</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>UNIãO</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>76919-000</t>
+          <t>85470-000</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1101203</t>
+          <t>4105003</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>MINISTRO ANDREAZZA</t>
+          <t>CATANDUVAS</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>34482538</t>
-        </is>
-      </c>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>17.184.037/0001-10</t>
+          <t>27.080.571/0001-30</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -5931,7 +6051,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CONECTA AMAZÔNIA</t>
+          <t>SICOOB PA - UOPECCAN</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5941,19 +6061,15 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>AV MARECHAL RONDON</t>
+          <t>AV. TANCREDO NEVES</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1780</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>SALA A</t>
-        </is>
-      </c>
+          <t>1783</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -5961,47 +6077,47 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>76900-136</t>
+          <t>85805-000</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>1100122</t>
+          <t>4104808</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>JI-PARANA</t>
+          <t>CASCAVEL</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>10.186.138/0001-80</t>
+          <t>27.080.571/0001-30</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6011,7 +6127,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PAC JI-PARANA II</t>
+          <t>SICOOB PA -  MIGRANTE</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -6021,17 +6137,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>AV MARECHAL RONDON</t>
+          <t>AV. BRASIL</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1780</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>SALA A</t>
+          <t>SALA 2</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6041,47 +6157,55 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>76900-136</t>
+          <t>85810-001</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>1100122</t>
+          <t>4104808</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>JI-PARANA</t>
+          <t>CASCAVEL</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>33213300</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>59.588.111/0110-67</t>
+          <t>31.452.279/0001-78</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -6091,7 +6215,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PAC JI-PARANÁ</t>
+          <t>SICOOB PA - EMPRESARIAL</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -6101,67 +6225,67 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>AV MANOEL FRANCO</t>
+          <t>AVENIDA BRASIL</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>5606</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>SALA 01</t>
+          <t>SALA 02</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>NOVA BRASILIA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>76908-410</t>
+          <t>85812-001</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>1100122</t>
+          <t>4104808</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>JI-PARANA</t>
+          <t>CASCAVEL</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>90.400.888/2279-45</t>
+          <t>59.610.394/0001-42</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -6171,7 +6295,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PAC JARU D. TARILANDIA</t>
+          <t>SICOOB PA - REGIÃO NORTE</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -6181,67 +6305,63 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>AVENIDA FRANCISCO VIEIRA DE SOUZA</t>
+          <t>AV. PAPAGAIOS</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2422</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>TARILANDIA DISTRISTO DE JARU</t>
-        </is>
-      </c>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TARILÂNDIA</t>
+          <t>FLORESTA</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>76897-890</t>
+          <t>85814-760</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>1100114</t>
+          <t>4104808</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>JARU</t>
+          <t>CASCAVEL</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>50.981.018/0001-90</t>
+          <t>90.400.888/2760-59</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -6251,7 +6371,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PAC JARU</t>
+          <t>SICOOB PA - CENTRO</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -6261,15 +6381,19 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>AV PADRE ADOLFO ROHL</t>
+          <t>AVENIDA BRASIL</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1707</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
+          <t>5606</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>SALA 02</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -6277,47 +6401,55 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>76890-000</t>
+          <t>85812-001</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>1100114</t>
+          <t>4104808</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>JARU</t>
+          <t>CASCAVEL</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>33213200</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>50.981.018/0001-90</t>
+          <t>08.285.374/0001-02</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -6327,7 +6459,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PAC GOV. JORGE TEIXEIRA D. COLINA VERDE</t>
+          <t>SICOOB PA BARÃO</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6337,63 +6469,63 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>AVENIDA CACAULANDIA</t>
+          <t>RUA CUIABÁ</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1390</t>
+          <t>3247</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>COLINA VERDE</t>
+          <t>NEVA</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>76898-000</t>
+          <t>85802-233</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>1101005</t>
+          <t>4104808</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>GOVERNADOR JORGE TEIXEIRA</t>
+          <t>CASCAVEL</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>00.360.305/0001-04</t>
+          <t>90.400.888/1646-84</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -6403,7 +6535,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PAC GOV. JORGE TEIXEIRA</t>
+          <t>SICOOB PA -  ITÁLIA</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6413,63 +6545,75 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>RUA IPÊ</t>
+          <t>AV. BRASIL</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1292</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
+          <t>2186</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>SALA</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>SÃO CRISTÓVÃO</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>76898-000</t>
+          <t>85816-294</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>1101005</t>
+          <t>4104808</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>GOVERNADOR JORGE TEIXEIRA</t>
+          <t>CASCAVEL</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>32227000</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>50.981.018/0001-90</t>
+          <t>03.630.560/0001-18</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -6479,7 +6623,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>PAC ESPIGAO D OESTE</t>
+          <t>SICOOB PA - SÃO JOÃO</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6489,75 +6633,63 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>R SURUI</t>
+          <t>RUA CUIABÁ</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2816</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ANDAR TERREO</t>
-        </is>
-      </c>
+          <t>3247</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>NEVA</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>76974-000</t>
+          <t>85802-233</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>1100098</t>
+          <t>4104808</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>ESPIGAO D'OESTE</t>
+          <t>CASCAVEL</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>34212332</t>
-        </is>
-      </c>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>90.400.888/1485-65</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -6567,7 +6699,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PAC CACOAL</t>
+          <t>SICOOB PA - CAPITAO LEONIDAS MARQUES</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -6577,63 +6709,63 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>AVENIDA SETE DE SETEMBRO</t>
+          <t>AVENIDA IGUAÇU</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2906</t>
+          <t>218</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>PRINCESA ISABEL</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>76964-098</t>
+          <t>85790-000</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>1100049</t>
+          <t>4104600</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>CACOAL</t>
+          <t>CAPITAO LEONIDAS MARQUES</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>17.184.037/0001-10</t>
+          <t>02.482.005/0001-23</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -6643,7 +6775,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>PAC BURITIS RO</t>
+          <t>SICOOB PA - BRAGANEY</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -6653,63 +6785,63 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>AVENIDA AYRTON SENNA</t>
+          <t>AVENIDA BRASILIA</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1421</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>SETOR 01</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>76880-000</t>
+          <t>85430-000</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>1100452</t>
+          <t>4103354</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>BURITIS</t>
+          <t>BRAGANEY</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>17.184.037/0001-10</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -6719,7 +6851,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>PAC ALVORADA D OESTE</t>
+          <t>SICOOB  PA - BOA VISTA DA APARECIDA</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -6729,12 +6861,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>AVENIDA MARECHAL RONDON</t>
+          <t>AVENIDA TANCREDO DE ALMEIDA NEVES</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>4812</t>
+          <t>546</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -6745,47 +6877,47 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>76930-000</t>
+          <t>85780-000</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>1100346</t>
+          <t>4103057</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>ALVORADA D'OESTE</t>
+          <t>BOA VISTA DA APARECIDA</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>20.985.558/0001-80</t>
+          <t>45.122.603/0001-02</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -6795,7 +6927,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>PAC ALTA FLORESTA D OESTE</t>
+          <t>SICOOB PA RIO BONITO</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -6805,19 +6937,15 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>AV AMAZONAS</t>
+          <t>AV 15 DE NOVEMBRO</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>3882</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>QUADRA 1 LOTE 4</t>
-        </is>
-      </c>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -6825,26 +6953,34 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>76954-000</t>
+          <t>85340-000</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>1100015</t>
+          <t>4122156</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>ALTA FLORESTA D'OESTE</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>33213200</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr">
         <is>
           <t>60.701.190/0001-04</t>
@@ -6853,19 +6989,19 @@
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>10520232</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E INVESTIMENTO COM INTERAÇÃO SOLIDÁRIA DA AMAZÔNIA - CRESOL AMAZÔNIA</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -6875,7 +7011,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PAC CODAJÁS</t>
+          <t>SICOOB PA - QUEDAS DO IGUAÇU</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -6885,12 +7021,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>R BRITO INGLES</t>
+          <t>AVENIDA PINHEIRAIS</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>737</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -6901,47 +7037,55 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>69450-000</t>
+          <t>85460-000</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>1301308</t>
+          <t>4120903</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>CODAJAS</t>
+          <t>QUEDAS DO IGUACU</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>35322701</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>36.321.990/0001-07</t>
+          <t>60.701.190/0676-08</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>03046391</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>UNIPRIME CENTRAL NACIONAL - CENTRAL NACIONAL DE COOPERATIVA DE CREDITO</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -6951,7 +7095,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>UNIPRIME CENTRAL</t>
+          <t>SICOOB PA - NOVA LARANJEIRAS</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6961,29 +7105,33 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>AV HIGIENOPOLIS, 1044</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
+          <t>RUA RIO GRANDE DO SUL</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2076</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>VILA NOVA LARANJEIRA</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>86020-080</t>
+          <t>85350-000</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>4113700</t>
+          <t>4117057</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>LONDRINA</t>
+          <t>NOVA LARANJEIRAS</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6991,37 +7139,29 @@
           <t>PR</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>33052900</t>
-        </is>
-      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>04.913.129/0001-41</t>
+          <t>16.692.121/0001-81</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>03047549</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -7031,7 +7171,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SICOOB PA - GOIATUBA</t>
+          <t>SICOOB PA - LINDOESTE</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -7041,19 +7181,15 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>AV AMAZONAS, ESQUINA COM A RUA MINAS GER</t>
+          <t>AV. SOUZA NAVES</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>527</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>QUADRA61 LOTE 04</t>
-        </is>
-      </c>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -7061,55 +7197,47 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>75600-000</t>
+          <t>85826-970</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>5209101</t>
+          <t>4113452</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>GOIATUBA</t>
+          <t>LINDOESTE</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>36235005</t>
-        </is>
-      </c>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>60.701.190/3036-97</t>
+          <t>00.360.305/0001-04</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>03047549</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -7119,7 +7247,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SICOOB PA ROO FREI SERVÁCIO</t>
+          <t>SICOOB PA - LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -7129,75 +7257,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>AV FREI SERVACIO</t>
+          <t>RUA XV DE NOVEMBRO</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>502</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>SALA D QUADRA 07 LOTE 19/21</t>
-        </is>
-      </c>
+          <t>2363</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>JARDIM URUPES</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>78715-207</t>
+          <t>85303-000</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>5107602</t>
+          <t>4113304</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>RONDONOPOLIS</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>45</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>30226650</t>
+          <t>33213232</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>50.489.148/0001-00</t>
+          <t>60.701.190/1481-95</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>03047549</t>
+          <t>04529074</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
+          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -7207,7 +7331,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SICOOB PA ROO AV. LIONS</t>
+          <t>SICOOB PA IBEMA</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -7217,105 +7341,93 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>AV LIONS INTERNACIONAL</t>
+          <t>RUA PARANAVAI</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>878</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>QUADRA 3 LOTE 5/8</t>
-        </is>
-      </c>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>VILA AURORA III</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>78740-162</t>
+          <t>85478-000</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>5107602</t>
+          <t>4109757</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>RONDONOPOLIS</t>
+          <t>IBEMA</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>996588247</t>
-        </is>
-      </c>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>48.708.267/0001-64</t>
+          <t>00.360.305/0001-04</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>03047549</t>
+          <t>15482499</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
+          <t>TURCÂMBIO - CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SICOOB PA - PEDRA PRETA</t>
+          <t>POSTO GAROPABA</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Transitório - PCT</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>AVENIDA FREI SERVACIO</t>
+          <t>RUA PREFEITO JOÃO ORESTES DE ARAUJO</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>550</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>QD. 39, LT. 12 B</t>
+          <t>SALA 02</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7325,319 +7437,331 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>78795-000</t>
+          <t>88495-000</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>5106372</t>
+          <t>4205704</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>PEDRA PRETA</t>
+          <t>GAROPABA</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>48</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>999316511</t>
+          <t>32546200</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>21.154.554/0001-13</t>
+          <t>15.482.499/0001-98</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>03047549</t>
+          <t>33923798</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
+          <t>BANCO MASTER S/A</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Banco Comercial</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SICOOB PA - SANTA HELENA DE GOIAS</t>
+          <t>BANCO MÁXIMA</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>RUA PEDRO ROMUALDO CABRAL</t>
+          <t>AVENIDA COSTA FERREIRA</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>QUADRA H</t>
+          <t>SALA 01</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>SÃO JOSÉ OPERÁRIO</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>75920-000</t>
+          <t>69085-015</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>5219308</t>
+          <t>1302603</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>SANTA HELENA DE GOIAS</t>
+          <t>MANAUS</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>36412483</t>
+          <t>45020100</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>90.400.888/1355-87</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr"/>
+          <t>33.923.798/0001-00</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>BANCO MÁXIMA S.A.</t>
+        </is>
+      </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>03047549</t>
+          <t>33923798</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
+          <t>BANCO MASTER S/A</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Banco Comercial</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SICOOB PA RV JD. PRESIDENTESICOOB PA RV JD. PRESIDENTE</t>
+          <t>BANCO MASTER S.A.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>AV PRESIDENTE VARGAS</t>
+          <t>RUA FELIPE DOS SANTOS</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>901</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>QUADRA 0029, LOTE 09</t>
+          <t>SALA 602</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>JARDIM PRESIDENTE</t>
+          <t>LOURDES</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>75908-420</t>
+          <t>30180-165</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>5218805</t>
+          <t>3106200</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>RIO VERDE</t>
+          <t>BELO HORIZONTE</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>80</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>21415401</t>
+          <t>2851200</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>00.360.305/0001-04</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr"/>
+          <t>33.923.798/0001-00</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>BANCO MASTER S/A</t>
+        </is>
+      </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>03047549</t>
+          <t>33923798</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
+          <t>BANCO MASTER S/A</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Banco Comercial</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SICOOB PA RV PÇ. 5 DE AGOSTO</t>
+          <t>BANCO MASTER</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>RUA RUI BARBOSA</t>
+          <t>AVENIDA ESTADOS UNIDOS</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>161</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>ESQ C/ NIZO JAIME DE GUSMÃO</t>
+          <t>8 ANDAR</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>COMÉRCIO</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>75901-250</t>
+          <t>40010-020</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>5218805</t>
+          <t>2927408</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>RIO VERDE</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>80</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>36235005</t>
+          <t>2851200</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>00.000.000/3284-05</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr"/>
+          <t>33.923.798/0001-00</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>BANCO MASTER S/A</t>
+        </is>
+      </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>03047549</t>
+          <t>33924028</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
+          <t>COOPERATIVA DE CRÉDITO CLÁSSICA DOS EMPREGADOS DA VALE S/A E ENTIDADES VINCULADAS LTDA. - SICOOB COOPVALE</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -7647,7 +7771,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SICOOB PA RV BURITI SHOPPINGSICOOB PA RV BURITI SHOPPING</t>
+          <t>SICOOB PA - SÃO LUIS</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -7657,75 +7781,75 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>RUA O</t>
+          <t>AV JERONIMO DE ALBUQUERQUE</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>QUADRA 15 LOTE A LOJA LUC 243 B</t>
+          <t>SALA 24</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>RES JARDIM CAMPESTRE</t>
+          <t>CALHAU</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>75907-681</t>
+          <t>65074-220</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>5218805</t>
+          <t>2111300</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>RIO VERDE</t>
+          <t>SAO LUIS</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>21427702</t>
+          <t>22629571</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>59.588.111/0110-67</t>
+          <t>90.400.888/2218-23</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>03047549</t>
+          <t>33924028</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
+          <t>COOPERATIVA DE CRÉDITO CLÁSSICA DOS EMPREGADOS DA VALE S/A E ENTIDADES VINCULADAS LTDA. - SICOOB COOPVALE</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -7735,7 +7859,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SICOOB PA RV AV. JOÃO BELO</t>
+          <t>SICOOB PA - ITAIPUAÇU</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -7745,75 +7869,67 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>AV. JOÃO BELO</t>
+          <t>AV  CARLOS MARIGHELLA</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8384</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>QD. 07, LT. 02/03</t>
+          <t>QUADRA:14,LOTE:19A,LOJA:207</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>BAIRRO POPULAR</t>
+          <t>BARROCO</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>75903-495</t>
+          <t>24936-435</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>5218805</t>
+          <t>3302700</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>RIO VERDE</t>
+          <t>MARICA</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>36234368</t>
-        </is>
-      </c>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>30.770.184/0001-30</t>
+          <t>90.400.888/2218-23</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>03047549</t>
+          <t>33924028</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
+          <t>COOPERATIVA DE CRÉDITO CLÁSSICA DOS EMPREGADOS DA VALE S/A E ENTIDADES VINCULADAS LTDA. - SICOOB COOPVALE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -7823,7 +7939,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SICOOB PA - QUIRINOPOLIS</t>
+          <t>SICOOB PA - PARAUAPEBAS</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -7833,75 +7949,67 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL</t>
+          <t>RUA E</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>545</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>QD 57 LT 14</t>
+          <t>LOJA 140 - CENTER CIDADE NOVA</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CIDADE NOVA</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>75860-000</t>
+          <t>68515-000</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>5218508</t>
+          <t>1505536</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>QUIRINOPOLIS</t>
+          <t>PARAUAPEBAS</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>36513929</t>
-        </is>
-      </c>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>60.701.190/3036-97</t>
+          <t>90.400.888/2268-92</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>03047549</t>
+          <t>33924028</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
+          <t>COOPERATIVA DE CRÉDITO CLÁSSICA DOS EMPREGADOS DA VALE S/A E ENTIDADES VINCULADAS LTDA. - SICOOB COOPVALE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -7911,7 +8019,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SICOOB PA - PALESTINA DE GO</t>
+          <t>SICOOB PA - PARAGOMINAS</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -7921,75 +8029,63 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>PRAÇA JK</t>
+          <t>RUA COSTA E SILVA</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>QD. 06, LT. 15</t>
-        </is>
-      </c>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CELIO MIRANDA</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>75845-000</t>
+          <t>68625-040</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>5215652</t>
+          <t>1505502</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>PALESTINA DE GOIAS</t>
+          <t>PARAGOMINAS</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>993111077</t>
-        </is>
-      </c>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>90.400.888/2375-84</t>
+          <t>90.400.888/2218-23</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>03047549</t>
+          <t>33924028</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
+          <t>COOPERATIVA DE CRÉDITO CLÁSSICA DOS EMPREGADOS DA VALE S/A E ENTIDADES VINCULADAS LTDA. - SICOOB COOPVALE</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -7999,7 +8095,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SICOOB PA - MINEIROSSICOOB PA - MINEIROS</t>
+          <t>SICOOB PA BARCARENA</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -8009,75 +8105,63 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>AV. SEGUNDA AVENIDA</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>RUA DOM ROMUALDO  COELHO</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>LOTE 11/12/13, QUADRA 01</t>
+          <t>QUADRA 377, LOTES 32 E 33</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>SETOR MARTINS</t>
+          <t>VILA DOS CABANOS</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>75832-024</t>
+          <t>68447-000</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>5213103</t>
+          <t>1501303</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>MINEIROS</t>
+          <t>BARCARENA</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>36616202</t>
-        </is>
-      </c>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>59.478.198/0001-66</t>
+          <t>60.701.190/2585-35</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>03047549</t>
+          <t>33924028</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO E CAPTAÇÃO SICOOB UNICIDADES</t>
+          <t>COOPERATIVA DE CRÉDITO CLÁSSICA DOS EMPREGADOS DA VALE S/A E ENTIDADES VINCULADAS LTDA. - SICOOB COOPVALE</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -8087,7 +8171,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SICOOB PA - JATAI</t>
+          <t>SICOOB  PA - GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -8097,130 +8181,118 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>RUA RIACHUELO</t>
+          <t>RUA ARTUR BERNARDES</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>584</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>LOTE 013A, QUADRA 0069</t>
+          <t>LOJA</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>VILA SANTA MARIA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>75800-145</t>
+          <t>35010-020</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>5211909</t>
+          <t>3127701</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>JATAI</t>
+          <t>GOVERNADOR VALADARES</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>36310731</t>
-        </is>
-      </c>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>59.478.198/0001-66</t>
+          <t>17.184.037/0001-10</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>04866275</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BANCO INBURSA S.A.</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Banco Múltiplo</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO</t>
+          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Bancário - PAB</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>RUA HENRI DUNANT</t>
+          <t>AV ATLANTICA</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>780</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>TORRE A  1O ANDAR - STO AMARO</t>
-        </is>
-      </c>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>SANTO AMARO</t>
+          <t>COPACABANA</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>04709-110</t>
+          <t>22041-001</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>3550308</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>SAO PAULO</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -8230,89 +8302,85 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>35413932</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>04.866.275/0001-63</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>BANCO INBURSA DE INVESTIMENTOS S.A.</t>
-        </is>
-      </c>
+          <t>18.287.740/0001-16</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>48795256</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BANCO ANDBANK (BRASIL) S.A.</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Banco Múltiplo</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>POSTO SÃO PAULO</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Bancário - PAB</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>AV. ATAULFO DE PAIVA</t>
+          <t>AVENIDA PAULISTA</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>1776</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>SALAS 901 A 904</t>
+          <t>CONJUNTO 19 C</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>LEBLON</t>
+          <t>BELA VISTA</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>22440-033</t>
+          <t>01310-200</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>3304557</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -8322,89 +8390,85 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>35390400</t>
+          <t>55554121</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>48.795.256/0003-20</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>BANCO ANDBANK (BRASIL) S.A.</t>
-        </is>
-      </c>
+          <t>25.107.517/0001-05</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>48795256</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BANCO ANDBANK (BRASIL) S.A.</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Banco Múltiplo</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>PORTO ALEGRE</t>
+          <t>CONECTA - POSTO ABILIO SOARES</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Bancário - PAB</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>RUA TOBIAS DA SILVA</t>
+          <t>ABILIO SOARES</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>227</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>SALA 807 - 7º ANDAR</t>
+          <t>CONJUNTO 81</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>MOINHOS DE VENTO</t>
+          <t>PARAISO</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>90570-020</t>
+          <t>04001-000</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>4314902</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>PORTO ALEGRE</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -8414,165 +8478,169 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>35390400</t>
+          <t>45503600</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>48.795.256/0004-01</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>BANCO ANDBANK (BRASIL) S.A.</t>
-        </is>
-      </c>
+          <t>18.287.740/0001-16</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>44401800</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO COGEM</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>UNIDADE DE NEGóCIO</t>
+          <t>POSTO DE CAMBIO - SAO PAULO</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>AV. ATLâNTICA</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
+          <t>R 24 DE MAIO</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>LJ 29</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>VILA COPEC</t>
+          <t>REPÚBLICA</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>42816-901</t>
+          <t>01041-001</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>2905701</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>CAMACARI</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>35992006</t>
+          <t>35413932</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>51.174.001/0001-93</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>44401800</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO COGEM</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>UNIDADE DE NEGóCIO</t>
+          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>AV. DUQUE DE CAXIAS</t>
+          <t>AV NIEMEYER</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2422</t>
+          <t>121</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>JARDIM SANTA LUCIA</t>
+          <t>LEBLON</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>13223-025</t>
+          <t>22450-220</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>3556503</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>VARZEA PAULISTA</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -8582,102 +8650,102 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>48630999</t>
+          <t>35413932</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>51.174.001/0001-93</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>44401800</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO COGEM</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>UNIDADE DE NEGÓCIO</t>
+          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>AV. CONDE ZEPPELIN</t>
+          <t>AV LUCIO COSTA</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>EDEN</t>
+          <t>BARRA DA TIJUCA</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>18103-905</t>
+          <t>22630-010</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>3552205</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>SOROCABA</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>31999310</t>
+          <t>35413932</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>51.174.001/0001-93</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr">
         <is>
-          <t>27/07/2025</t>
+          <t>29/07/2025</t>
         </is>
       </c>
     </row>

--- a/strDataFrame.xlsx
+++ b/strDataFrame.xlsx
@@ -613,7 +613,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>POSTO NO SALVADOR SHOPPING   LOJA 1058</t>
+          <t>LÚMINA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1085,27 +1085,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AV. TANCREDO NEVES</t>
+          <t>AV. CENTENÁRIO - LOJA 121</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>2992</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>SALVADOR SHOPPING - LOJA 1058</t>
+          <t>SHOPPING BARRA</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CAMINHO DAS ÁRVORES</t>
+          <t>CHAME-CHAME</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>41820-021</t>
+          <t>40140-902</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1130,18 +1130,18 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>30196300</t>
+          <t>30341579</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>15.122.605/0001-22</t>
+          <t>00.394.502/0055-37</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LÚMINA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>POSTO NO SALVADOR SHOPPING   LOJA 1058</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1173,27 +1173,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AV. CENTENÁRIO - LOJA 121</t>
+          <t>AV. TANCREDO NEVES</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2992</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SHOPPING BARRA</t>
+          <t>SALVADOR SHOPPING - LOJA 1058</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CHAME-CHAME</t>
+          <t>CAMINHO DAS ÁRVORES</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>40140-902</t>
+          <t>41820-021</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1218,18 +1218,18 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>30341579</t>
+          <t>30196300</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>00.394.502/0055-37</t>
+          <t>15.122.605/0001-22</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SICOOB PA FÓRUM CONTAGEM</t>
+          <t>SICOOB PA FÓRUM - RAJA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3049,27 +3049,27 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>AV MARIA DA GLÓRIA ROCHA</t>
+          <t>AV. RAJA GABÁGLIA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>1753</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3- ANDAR</t>
+          <t>ANDAR TÉRREO</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>BITACULA</t>
+          <t>LUXEMBURGO</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>32010-375</t>
+          <t>30380-435</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3087,25 +3087,17 @@
           <t>MG</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>32754645</t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>90.400.888/2290-50</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3119,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SICOOB PA FÓRUM - RAJA</t>
+          <t>SICOOB PA FÓRUM CONTAGEM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3137,27 +3129,27 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AV. RAJA GABÁGLIA</t>
+          <t>AV MARIA DA GLÓRIA ROCHA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1753</t>
+          <t>425</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ANDAR TÉRREO</t>
+          <t>3- ANDAR</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>LUXEMBURGO</t>
+          <t>BITACULA</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>30380-435</t>
+          <t>32010-375</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3175,17 +3167,25 @@
           <t>MG</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>32754645</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>90.400.888/2290-50</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -3273,163 +3273,167 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>17312083</t>
+          <t>73077398</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>H H PICCHIONI S/A CORRETORA DE CAMBIO E VALORES MOBILIARIOS</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA EATON</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de TVM</t>
+          <t>Cooperativa de Crédito</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PICCHIONI CÂMBIO</t>
+          <t>COOPERATIVA SÃO JOSE DOS CAMPOS</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AV. DOS ANDRADAS, 3000</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>LOJA 1041 - 1. PISO</t>
-        </is>
-      </c>
+          <t>AV. DR.  SEBASTIAO HENRIQUE DA CUNHA PON</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1655</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>SANTA EFIGÊNIA</t>
+          <t>PALMEIRAS DE SAO JOS</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>30260-070</t>
+          <t>12230-002</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>3106200</t>
+          <t>3549904</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>BELO HORIZONTE</t>
+          <t>SAO JOSE DOS CAMPOS</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>32387441</t>
-        </is>
-      </c>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>17.312.083/0001-57</t>
+          <t>90.400.888/0133-92</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>08673569</t>
+          <t>17312083</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
+          <t>H H PICCHIONI S/A CORRETORA DE CAMBIO E VALORES MOBILIARIOS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sociedade Distribuidora de TVM</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ALTA FLORESTA - MT</t>
+          <t>PICCHIONI CÂMBIO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Posto de Compra de Ouro - PCO</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AVENIDA JAIME VERISSIMO DE CAMPOS</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+          <t>AV. DOS ANDRADAS, 3000</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>LOJA 1041 - 1. PISO</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>SANTA EFIGÊNIA</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>78580-000</t>
+          <t>30260-070</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>5100250</t>
+          <t>3106200</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>ALTA FLORESTA</t>
+          <t>BELO HORIZONTE</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>32387441</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>17.312.083/0001-57</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3455,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PORTO VELHO-RO (RUA JOAQUIM NABUCO)</t>
+          <t>ALTA FLORESTA - MT</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3461,51 +3465,47 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>RUA JOAQUIM NABUCO,</t>
+          <t>AVENIDA JAIME VERISSIMO DE CAMPOS</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1954</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>KM 1</t>
-        </is>
-      </c>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>76804-104</t>
+          <t>78580-000</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1100205</t>
+          <t>5100250</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>PORTO VELHO</t>
+          <t>ALTA FLORESTA</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>00.000.000/1160-68</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>REDENÇÃO</t>
+          <t>PORTO VELHO-RO (RUA JOAQUIM NABUCO)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3537,51 +3537,51 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>RODOVIA PA 287</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>RUA JOAQUIM NABUCO,</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>KM:287,LOTE:32, 32-A E 32-B</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>COLONIA FREI GIL</t>
-        </is>
-      </c>
+          <t>KM 1</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>68550-000</t>
+          <t>76804-104</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1506138</t>
+          <t>1100205</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>REDENCAO</t>
+          <t>PORTO VELHO</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>00.000.000/1160-68</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ITAITUBA - PA</t>
+          <t>REDENÇÃO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3613,33 +3613,33 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FAZENDA MINUANO BACIA DO RIO CREPURIZINH</t>
+          <t>RODOVIA PA 287</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>SALA A</t>
+          <t>KM:287,LOTE:32, 32-A E 32-B</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>ZONA RURAL</t>
+          <t>COLONIA FREI GIL</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>68187-899</t>
+          <t>68550-000</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1503606</t>
+          <t>1506138</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>ITAITUBA</t>
+          <t>REDENCAO</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3657,7 +3657,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PCO VARZEA GRANDE - MT</t>
+          <t>ITAITUBA - PA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3689,42 +3689,38 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AV. JULIO DOMINGOS DE CAMPOS</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>5774</t>
-        </is>
-      </c>
+          <t>FAZENDA MINUANO BACIA DO RIO CREPURIZINH</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>SALA 6</t>
+          <t>SALA A</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>SANTA ISABEL</t>
+          <t>ZONA RURAL</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>78150-236</t>
+          <t>68187-899</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>5108402</t>
+          <t>1503606</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>VARZEA GRANDE</t>
+          <t>ITAITUBA</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -3737,7 +3733,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3755,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TERRA NOVA DO NORTE-MT (C-13 TERRA NOVA DO NORTE)</t>
+          <t>PCO VARZEA GRANDE - MT</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3769,37 +3765,37 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TRAVESSA LUCAS TOMIAZZO,</t>
+          <t>AV. JULIO DOMINGOS DE CAMPOS</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>5774</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>SALA 25</t>
+          <t>SALA 6</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>SANTA ISABEL</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>78505-000</t>
+          <t>78150-236</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>5108055</t>
+          <t>5108402</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>TERRA NOVA DO NORTE</t>
+          <t>VARZEA GRANDE</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3811,13 +3807,13 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>60.701.190/0126-17</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3893,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3915,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>POCONÉ-MT</t>
+          <t>TERRA NOVA DO NORTE-MT (C-13 TERRA NOVA DO NORTE)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3929,15 +3925,19 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>RUA 13 DE JUNHO</t>
+          <t>TRAVESSA LUCAS TOMIAZZO,</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>SALA 25</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -3945,17 +3945,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>78175-000</t>
+          <t>78505-000</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>5106505</t>
+          <t>5108055</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>POCONE</t>
+          <t>TERRA NOVA DO NORTE</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3967,13 +3967,13 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>00.000.000/1160-68</t>
+          <t>60.701.190/0126-17</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -4049,7 +4049,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO</t>
+          <t>POCONÉ-MT</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4081,19 +4081,15 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL</t>
+          <t>RUA 13 DE JUNHO</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>QUADRA 003 LOTE 0007</t>
-        </is>
-      </c>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -4101,17 +4097,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>78530-000</t>
+          <t>78175-000</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>5106422</t>
+          <t>5106505</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO</t>
+          <t>POCONE</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -4123,13 +4119,13 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>00.000.000/1160-68</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4147,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO-MT (AV. BRASIL, 825)</t>
+          <t>PRAÇA C48 - PEIXOTO DE AZEVEDO - MT</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4161,22 +4157,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL,</t>
+          <t>AVENIDA BRASIL</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>591</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>SALA 02</t>
+          <t>QUADRA 003 LOTE 0007</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CENTRO NOVO</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4203,13 +4199,13 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>60.701.190/0291-88</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4285,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -4369,7 +4365,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4387,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO-MT (AV. BRASIL, 423)</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4401,17 +4397,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL,</t>
+          <t>AVENIDA BRASIL</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>233</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>SALA 02</t>
+          <t>QUADRA 003 LOTE 0007</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4449,7 +4445,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4467,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PRAÇA C48 - PEIXOTO DE AZEVEDO - MT</t>
+          <t>PEIXOTO DE AZEVEDO-MT (AV. BRASIL, 825)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4481,22 +4477,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL</t>
+          <t>AVENIDA BRASIL,</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>825</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>QUADRA 003 LOTE 0007</t>
+          <t>SALA 02</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>CENTRO NOVO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4523,13 +4519,13 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>60.701.190/0291-88</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4547,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PARANAÍTA - MT</t>
+          <t>PEIXOTO DE AZEVEDO-MT (AV. BRASIL, 423)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4561,11 +4557,19 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>RUA ORLANDO PETROFEZA, N- 156</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+          <t>AVENIDA BRASIL,</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>SALA 02</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -4573,17 +4577,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>78590-000</t>
+          <t>78530-000</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>5106299</t>
+          <t>5106422</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>PARANAITA</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4595,13 +4599,13 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>25.107.525/0001-51</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -4623,7 +4627,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PRAÇA C46 - NOVA GUARITA - MT</t>
+          <t>PARANAÍTA - MT</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4633,19 +4637,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>AVENIDA DOS MIGRANTES</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>490</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>SALA A</t>
-        </is>
-      </c>
+          <t>RUA ORLANDO PETROFEZA, N- 156</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -4653,17 +4649,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>78508-000</t>
+          <t>78590-000</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>5108808</t>
+          <t>5106299</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>NOVA GUARITA</t>
+          <t>PARANAITA</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4675,13 +4671,13 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>25.107.525/0001-51</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4699,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PCO NOVA CANAA-MT</t>
+          <t>PRAÇA C46 - NOVA GUARITA - MT</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4713,17 +4709,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL</t>
+          <t>AVENIDA DOS MIGRANTES</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>490</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>SETOR 1, QUADRA 61, LOTE 2</t>
+          <t>SALA A</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4733,17 +4729,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>78515-000</t>
+          <t>78508-000</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>5106216</t>
+          <t>5108808</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>NOVA CANAA DO NORTE</t>
+          <t>NOVA GUARITA</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -4761,7 +4757,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4779,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA DO LIVRAMENTO - MT</t>
+          <t>PCO NOVA CANAA-MT</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4793,17 +4789,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TRAVESSA WAGNER OLIVEIRA QUELUZ</t>
+          <t>AVENIDA BRASIL</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>117</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>QUADRA 04, SETOR 01</t>
+          <t>SETOR 1, QUADRA 61, LOTE 2</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4813,17 +4809,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>78170-000</t>
+          <t>78515-000</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>5106109</t>
+          <t>5106216</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA DO LIVRAMENTO</t>
+          <t>NOVA CANAA DO NORTE</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4841,7 +4837,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4859,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PRAÇA C45 - MATUPÁ - MT</t>
+          <t>NOSSA SENHORA DO LIVRAMENTO - MT</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4873,17 +4869,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>RUA LUIZ MENA</t>
+          <t>TRAVESSA WAGNER OLIVEIRA QUELUZ</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1108</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>SALA B, ZH2-001</t>
+          <t>QUADRA 04, SETOR 01</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4893,17 +4889,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>78525-000</t>
+          <t>78170-000</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>5105606</t>
+          <t>5106109</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>MATUPA</t>
+          <t>NOSSA SENHORA DO LIVRAMENTO</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -4921,7 +4917,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4939,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>MATUPÁ-MT</t>
+          <t>PRAÇA C45 - MATUPÁ - MT</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4953,15 +4949,19 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>AVENIDA ALCIDES MORENO CAPELINI</t>
+          <t>RUA LUIZ MENA</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1082</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t>1108</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>SALA B, ZH2-001</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -4969,17 +4969,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>78520-000</t>
+          <t>78525-000</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>5104104</t>
+          <t>5105606</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>GUARANTA DO NORTE</t>
+          <t>MATUPA</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4991,13 +4991,13 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>46.352.746/0001-65</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>GUARANTÃ DO NORTE - MT -  PCO</t>
+          <t>MATUPÁ-MT</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -5029,10 +5029,14 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>RUA DOS CAJUEIROS, 171</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>AVENIDA ALCIDES MORENO CAPELINI</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
@@ -5063,13 +5067,13 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>46.352.746/0001-65</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5095,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PCO COLIDER - MT  RESPONSÁVEL M. A. REIS DE SOUZA EIRELI</t>
+          <t>GUARANTÃ DO NORTE - MT -  PCO</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -5101,19 +5105,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>AVENIDA TANCREDO NEVES</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>SETOR SUL</t>
-        </is>
-      </c>
+          <t>RUA DOS CAJUEIROS, 171</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -5121,17 +5117,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>78500-000</t>
+          <t>78520-000</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>5103205</t>
+          <t>5104104</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>COLIDER</t>
+          <t>GUARANTA DO NORTE</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -5143,13 +5139,13 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>00.360.305/0001-04</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5167,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ARIPUANÃ-MT</t>
+          <t>PCO COLIDER - MT  RESPONSÁVEL M. A. REIS DE SOUZA EIRELI</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5181,11 +5177,19 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>RUA LIRIO DENARAY, Nº 02</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+          <t>AVENIDA TANCREDO NEVES</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>SETOR SUL</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -5193,17 +5197,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>78325-000</t>
+          <t>78500-000</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>5101407</t>
+          <t>5103205</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>ARIPUANA</t>
+          <t>COLIDER</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -5215,201 +5219,185 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>00.360.305/0001-04</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>73622748</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BT CORRETORA DE CÂMBIO LTDA.</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SHOP MAG JP</t>
+          <t>ARIPUANÃ-MT</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>AV GOVERNADOR FLAVIO RIBEIRO COUTINHO</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>LOJA 105</t>
-        </is>
-      </c>
+          <t>RUA LIRIO DENARAY, Nº 02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>MANAIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>58037-000</t>
+          <t>78325-000</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2507507</t>
+          <t>5101407</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>JOAO PESSOA</t>
+          <t>ARIPUANA</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>PB</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>30481070</t>
-        </is>
-      </c>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>73.622.748/0001-08</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>42445122</t>
+          <t>73622748</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA PONTIFÍCIA UNIVERSIDADE CATÓLICA DO RIO DE JANEIRO E EMPREGADOS EM ESTABELECIMENTOS PRIVADOS DE ENSINO DO MUNICÍPIO DO RIO DE JANEIRO LTDA.</t>
+          <t>BT CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA PO</t>
+          <t>SHOP MAG JP</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>RUA ACRE</t>
+          <t>AV GOVERNADOR FLAVIO RIBEIRO COUTINHO</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>115</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>SALA 603 E 604</t>
+          <t>LOJA 105</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>MANAIRA</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>20081-000</t>
+          <t>58037-000</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>3304557</t>
+          <t>2507507</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>JOAO PESSOA</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>83</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>25184167</t>
+          <t>30481070</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>73.622.748/0001-08</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>42445122</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA PONTIFÍCIA UNIVERSIDADE CATÓLICA DO RIO DE JANEIRO E EMPREGADOS EM ESTABELECIMENTOS PRIVADOS DE ENSINO DO MUNICÍPIO DO RIO DE JANEIRO LTDA.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -5419,7 +5407,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SICOOB PA -  CARLOS GOMES</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA PO</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5429,48 +5417,52 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>AVENIDA CARLOS GOMES</t>
+          <t>RUA ACRE</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1717</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>SALA 603 E 604</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>PARQUE SAO PAULO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>85803-000</t>
+          <t>20081-000</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>4104808</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>CASCAVEL</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>33213200</t>
+          <t>25184167</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5481,643 +5473,707 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>15482499</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>TURCÂMBIO - CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SICOOB PA - PORTO ALEGRE</t>
+          <t>POSTO GAROPABA</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Transitório - PCT</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>AVENIDA CARLOS GOMES</t>
+          <t>RUA PREFEITO JOÃO ORESTES DE ARAUJO</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1492</t>
+          <t>550</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>ANDAR 7, SALA 8</t>
+          <t>SALA 02</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>AUXILIADORA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>90470-282</t>
+          <t>88495-000</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>4314902</t>
+          <t>4205704</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>PORTO ALEGRE</t>
+          <t>GAROPABA</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>32546200</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>90.400.888/0675-65</t>
+          <t>15.482.499/0001-98</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SICOOB PA - TRÊS BARRAS DO PARANÁ</t>
+          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>AV BRASIL</t>
+          <t>AV ATLANTICA</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>COPACABANA</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>85485-003</t>
+          <t>22041-001</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>4127858</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>TRES BARRAS DO PARANA</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>35413932</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SICOOB PA - SANTA TEREZA DO OESTE</t>
+          <t>POSTO SÃO PAULO</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>RUA DAS ORQUÍDEAS</t>
+          <t>AVENIDA PAULISTA</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
+          <t>1776</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>CONJUNTO 19 C</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>BELA VISTA</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>85825-970</t>
+          <t>01310-200</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>4124020</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>SANTA TEREZA DO OESTE</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>32311769</t>
+          <t>55554121</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>04.548.589/0018-66</t>
+          <t>25.107.517/0001-05</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SICOOB PA - GUARANIAÇU</t>
+          <t>POSTO DE CAMBIO - SAO PAULO</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>RUA EUDOXIO BADOTTI</t>
+          <t>R 24 DE MAIO</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>LJ 29</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>REPÚBLICA</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>85400-000</t>
+          <t>01041-001</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>4109302</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>GUARANIACU</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>35413932</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>60.746.948/0438-65</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SICOOB PA - CORBÉLIA</t>
+          <t>CONECTA - POSTO ABILIO SOARES</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>AV. SANTA CATARINA</t>
+          <t>ABILIO SOARES</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>227</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>SALA</t>
+          <t>CONJUNTO 81</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>PARAISO</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>85420-000</t>
+          <t>04001-000</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>4106308</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>CORBELIA</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>45503600</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>75.828.418/0001-90</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SICOOB PA - CÉU AZUL</t>
+          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>RUA CURITIBA, 1534</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>SALA 01</t>
-        </is>
-      </c>
+          <t>AV NIEMEYER</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>LEBLON</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>85840-000</t>
+          <t>22450-220</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>4105300</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>CEU AZUL</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>35413932</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>02.839.639/0001-90</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SICOOB  PA - CATANDUVAS</t>
+          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>AV. PIONEIROS</t>
+          <t>AV LUCIO COSTA</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>UNIãO</t>
+          <t>BARRA DA TIJUCA</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>85470-000</t>
+          <t>22630-010</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>4105003</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>CATANDUVAS</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>35413932</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>27.080.571/0001-30</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SICOOB PA - UOPECCAN</t>
+          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>AV. TANCREDO NEVES</t>
+          <t>AV ATLANTICA</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1783</t>
+          <t>1702</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>COPACABANA</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>85805-000</t>
+          <t>22021-001</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>4104808</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>CASCAVEL</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>35413932</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>27.080.571/0001-30</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>18140913</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA CBMM LTDA.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6127,7 +6183,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SICOOB PA -  MIGRANTE</t>
+          <t>PONTO DE ATENDIMENTO</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -6137,75 +6193,59 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>AV. BRASIL</t>
+          <t>RUA DOS DIAMANTES</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>8096</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>SALA 2</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>CENTRO</t>
-        </is>
-      </c>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>85810-001</t>
+          <t>00000-000</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>4104808</t>
+          <t>3104007</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>CASCAVEL</t>
+          <t>ARAXA</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>33213300</t>
-        </is>
-      </c>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>31.452.279/0001-78</t>
+          <t>10.150.050/0001-09</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>64293582</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>COOPERATIVA DE CRÉDITO DOS EMPREGADOS DO GRUPO VALLOUREC NO BRASIL - COOVALL LTDA.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -6215,7 +6255,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SICOOB PA - EMPRESARIAL</t>
+          <t>PAC - VSBPAC - VSB</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -6225,173 +6265,185 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL</t>
+          <t>DISTRITO INDUSTRIAL</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>5606</t>
+          <t>S/N</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>SALA 02</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>CENTRO</t>
-        </is>
-      </c>
+          <t>DENTRO DA USINA DA VSB</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>85812-001</t>
+          <t>35498-000</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>4104808</t>
+          <t>3135407</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>CASCAVEL</t>
+          <t>JECEABA</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>21025534</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>59.610.394/0001-42</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SICOOB PA - REGIÃO NORTE</t>
+          <t>FILIAL BARREIRAS (BA</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>AV. PAPAGAIOS</t>
+          <t>RUA CUSTÓDIA ROCHA DE CARVALHO</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>257</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>FLORESTA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>85814-760</t>
+          <t>47800-172</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>4104808</t>
+          <t>2903201</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>CASCAVEL</t>
+          <t>BARREIRAS</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>90.400.888/2760-59</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SICOOB PA - CENTRO</t>
+          <t>FILIAL TEÓFILO OTONI 36.321.990/0021-50</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL</t>
+          <t>RUA EPAMINONDAS OTONI</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>5606</t>
+          <t>856</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>SALA 02</t>
+          <t>LOJA01</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6401,635 +6453,695 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>85812-001</t>
+          <t>39800-013</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>4104808</t>
+          <t>3168606</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>CASCAVEL</t>
+          <t>TEOFILO OTONI</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>33213200</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>08.285.374/0001-02</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SICOOB PA BARÃO</t>
+          <t>FILIAL - NANUQUE - MG</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>RUA CUIABÁ</t>
+          <t>AV. GERALDO ROMANO</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>3247</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>NEVA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>85802-233</t>
+          <t>39860-000</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>4104808</t>
+          <t>3144300</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>CASCAVEL</t>
+          <t>NANUQUE</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>40090200</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>90.400.888/1646-84</t>
+          <t>48.197.859/0001-69</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SICOOB PA -  ITÁLIA</t>
+          <t>FILIAL   VITORIA  ES-</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>AV. BRASIL</t>
+          <t>PRAÇA COSTA PEREIRA</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2186</t>
+          <t>196</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>SALA</t>
+          <t>LOJA02</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>SÃO CRISTÓVÃO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>85816-294</t>
+          <t>29010-080</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>4104808</t>
+          <t>3205309</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>CASCAVEL</t>
+          <t>VITORIA</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>32227000</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>03.630.560/0001-18</t>
+          <t>60.746.948/0629-08</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SICOOB PA - SÃO JOÃO</t>
+          <t>FILIAL COQUEIRAL DE ITAPARICA - VILA VELHA - 36.321.990/0031</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>RUA CUIABÁ</t>
+          <t>AV SANTA LEOPOLDINA</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>3247</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>LOJA 06</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>NEVA</t>
+          <t>PRAIA DE ITAPARICA</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>85802-233</t>
+          <t>29102-915</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>4104808</t>
+          <t>3205200</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>CASCAVEL</t>
+          <t>VILA VELHA</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>40205055</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>17.184.037/0001-10</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SICOOB PA - CAPITAO LEONIDAS MARQUES</t>
+          <t>FILIAL - GUARAPARI - 36.321.990/0029-08</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>AVENIDA IGUAÇU</t>
+          <t>AV EWERSON DE ABREU SODRE</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>164</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>MUQUICABA</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>85790-000</t>
+          <t>29215-010</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>4104600</t>
+          <t>3205200</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>CAPITAO LEONIDAS MARQUES</t>
+          <t>VILA VELHA</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>40090200</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>02.482.005/0001-23</t>
+          <t>61.360.574/0001-65</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SICOOB PA - BRAGANEY</t>
+          <t>FILIAL - TERRA VERMELHA (VILA VELHA  - 36.321.990/0028-27</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>AVENIDA BRASILIA</t>
+          <t>RUA AFONSO CLAUDIO</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>LOJA03</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>TERRA VERMELHA</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>85430-000</t>
+          <t>29127-210</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>4103354</t>
+          <t>3205200</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>BRAGANEY</t>
+          <t>VILA VELHA</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>40090200</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>61.360.574/0001-65</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SICOOB  PA - BOA VISTA DA APARECIDA</t>
+          <t>FILIAL GLORIA - VILA VELHA -ES</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>AVENIDA TANCREDO DE ALMEIDA NEVES</t>
+          <t>R. SANTA TEREZINHA</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>546</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>LOJA 01 EDIFICIO NORBERTO GORZA</t>
+        </is>
+      </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CRISTÓVÃO COLOMBO</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>85780-000</t>
+          <t>29106-570</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>4103057</t>
+          <t>3205200</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>BOA VISTA DA APARECIDA</t>
+          <t>VILA VELHA</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>40090200</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>45.122.603/0001-02</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SICOOB PA RIO BONITO</t>
+          <t>FILIAL LARANJEIRAS II - CNPJ 36.321.990/0023-12</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>AV 15 DE NOVEMBRO</t>
+          <t>AVENIDA PRIMEIRA AVENIDA</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>628</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>LOTE 014</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>PARQUE RESIDENCIAL LARANJEIRAS</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>85340-000</t>
+          <t>29165-155</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>4122156</t>
+          <t>3205002</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>SERRA</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>33213200</t>
+          <t>40205055</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>90.400.888/2760-59</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SICOOB PA - QUEDAS DO IGUAÇU</t>
+          <t>FILIAL SAO MATEUS   ES</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>AVENIDA PINHEIRAIS</t>
+          <t>AV CORONEL MATEUS CUNHA</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>737</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>LOJA 01</t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -7037,159 +7149,171 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>85460-000</t>
+          <t>29930-180</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>4120903</t>
+          <t>3204906</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>QUEDAS DO IGUACU</t>
+          <t>SAO MATEUS</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>35322701</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>60.701.190/0676-08</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SICOOB PA - NOVA LARANJEIRAS</t>
+          <t>FILIAL SÃO GABRIEL DA PALHA - ES</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>RUA RIO GRANDE DO SUL</t>
+          <t>AVENIDA JOÃO XXIII</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2076</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>VILA NOVA LARANJEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>85350-000</t>
+          <t>29780-000</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>4117057</t>
+          <t>3204708</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>NOVA LARANJEIRAS</t>
+          <t>SAO GABRIEL DA PALHA</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>40090214</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>16.692.121/0001-81</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SICOOB PA - LINDOESTE</t>
+          <t>FILIAL - PINHEIROS -ES 36.321.990/0008-83</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>AV. SOUZA NAVES</t>
+          <t>AV. AGENOR LUIZ HERINGER</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>422</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>C, ANDAR 2, SALA 1</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -7197,75 +7321,87 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>85826-970</t>
+          <t>29980-000</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>4113452</t>
+          <t>3204104</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>LINDOESTE</t>
+          <t>PINHEIROS</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>37650700</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>00.360.305/0001-04</t>
+          <t>04.056.206/0001-94</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SICOOB PA - LARANJEIRAS DO SUL</t>
+          <t>FILIAL NOVA VENECIA</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>RUA XV DE NOVEMBRO</t>
+          <t>AVENIDA VITÓRIA</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2363</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>LOJA 02</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -7273,83 +7409,87 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>85303-000</t>
+          <t>29830-000</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>4113304</t>
+          <t>3203908</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>LARANJEIRAS DO SUL</t>
+          <t>NOVA VENECIA</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>33213232</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>60.701.190/1481-95</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>04529074</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO SICOOB CREDICAPITAL</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SICOOB PA IBEMA</t>
+          <t>FILIAL LINHARES ES</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>RUA PARANAVAI</t>
+          <t>RUA MONESENHOR PEDRINHA</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1260</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>LOJA 02</t>
+        </is>
+      </c>
       <c r="I85" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -7357,77 +7497,85 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>85478-000</t>
+          <t>29900-161</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>4109757</t>
+          <t>3203205</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>IBEMA</t>
+          <t>LINHARES</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>40200200</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>00.360.305/0001-04</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>15482499</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TURCÂMBIO - CORRETORA DE CÂMBIO LTDA.</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>POSTO GAROPABA</t>
+          <t>FILIAL COLATINA   ES</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Transitório - PCT</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>RUA PREFEITO JOÃO ORESTES DE ARAUJO</t>
+          <t>AV. GETÚLIO VARGAS</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>SALA 02</t>
+          <t>LOJA F E G, EDF. SCALA CENTER</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7437,761 +7585,781 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>88495-000</t>
+          <t>29700-011</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>4205704</t>
+          <t>3201506</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>GAROPABA</t>
+          <t>COLATINA</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>32546200</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>15.482.499/0001-98</t>
+          <t>00.530.352/0001-59</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>33923798</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BANCO MASTER S/A</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Banco Comercial</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>BANCO MÁXIMA</t>
+          <t>FILIAL CAMPO GRANDE   CARIACICA ES</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Bancário - PAB</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>AVENIDA COSTA FERREIRA</t>
+          <t>AV. EXPEDITO GARCIA</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>4605</t>
+          <t>1465</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>SALA 01</t>
+          <t>LOJA 01</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>SÃO JOSÉ OPERÁRIO</t>
+          <t>CAMPO GRANDE</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>69085-015</t>
+          <t>29146-201</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>1302603</t>
+          <t>3201308</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>MANAUS</t>
+          <t>CARIACICA</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>45020100</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>33.923.798/0001-00</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>BANCO MÁXIMA S.A.</t>
-        </is>
-      </c>
+          <t>58.581.406/0001-95</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>33923798</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BANCO MASTER S/A</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Banco Comercial</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>BANCO MASTER S.A.</t>
+          <t>FILIAL CACHOEIRO DE ITAPEMIRIM - 36.321.990/0032-03</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Bancário - PAB</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>RUA FELIPE DOS SANTOS</t>
+          <t>PC SENADOR LUIZ TINOCO</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>SALA 602</t>
+          <t>LOJA 02</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>LOURDES</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>30180-165</t>
+          <t>29300-073</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>3106200</t>
+          <t>3201209</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>BELO HORIZONTE</t>
+          <t>CACHOEIRO DE ITAPEMIRIM</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2851200</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>33.923.798/0001-00</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>BANCO MASTER S/A</t>
-        </is>
-      </c>
+          <t>36.321.990/0001-07</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>33923798</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BANCO MASTER S/A</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Banco Comercial</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>BANCO MASTER</t>
+          <t>FILIAL BARRA DE SAO FRANCISCO   ES</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Bancário - PAB</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>AVENIDA ESTADOS UNIDOS</t>
+          <t>RUA JONES SANTOS NEVES</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>648</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>8 ANDAR</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>COMÉRCIO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>40010-020</t>
+          <t>29800-000</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2927408</t>
+          <t>3200904</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>BARRA DE SAO FRANCISCO</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2851200</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>33.923.798/0001-00</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>BANCO MASTER S/A</t>
-        </is>
-      </c>
+          <t>36.321.990/0001-07</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>33924028</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO CLÁSSICA DOS EMPREGADOS DA VALE S/A E ENTIDADES VINCULADAS LTDA. - SICOOB COOPVALE</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SICOOB PA - SÃO LUIS</t>
+          <t>FILIAL AGORACRED VITORIA DA CONQUISTA BA</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>AV JERONIMO DE ALBUQUERQUE</t>
+          <t>AV LAURO DE FREITAS</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>SALA 24</t>
-        </is>
-      </c>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>CALHAU</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>65074-220</t>
+          <t>45000-230</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2111300</t>
+          <t>2933307</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>SAO LUIS</t>
+          <t>VITORIA DA CONQUISTA</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>22629571</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>90.400.888/2218-23</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>33924028</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO CLÁSSICA DOS EMPREGADOS DA VALE S/A E ENTIDADES VINCULADAS LTDA. - SICOOB COOPVALE</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SICOOB PA - ITAIPUAÇU</t>
+          <t>FILIAL TEIXEIRA DE FREITAS BA - 36.321.990/0018-55</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>AV  CARLOS MARIGHELLA</t>
+          <t>AVENIDA PRESIDENTE GETULIO VARGAS</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>8384</t>
+          <t>3685</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>QUADRA:14,LOTE:19A,LOJA:207</t>
+          <t>LOJAS 01 E 02</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>BARROCO</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>24936-435</t>
+          <t>45992-000</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>3302700</t>
+          <t>2931350</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>MARICA</t>
+          <t>TEIXEIRA DE FREITAS</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>RJ</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>4020</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>90.400.888/2218-23</t>
+          <t>90.400.888/2318-96</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>33924028</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO CLÁSSICA DOS EMPREGADOS DA VALE S/A E ENTIDADES VINCULADAS LTDA. - SICOOB COOPVALE</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SICOOB PA - PARAUAPEBAS</t>
+          <t>FILIAL ITAMARAJU BA</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>RUA E</t>
+          <t>AVENIDA ANTÔNIO CARLOS MAGALHÃES</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>545</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>LOJA 140 - CENTER CIDADE NOVA</t>
-        </is>
-      </c>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>CIDADE NOVA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>68515-000</t>
+          <t>45836-000</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>1505536</t>
+          <t>2915601</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>PARAUAPEBAS</t>
+          <t>ITAMARAJU</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>40200200</t>
+        </is>
+      </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>90.400.888/2268-92</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>33924028</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO CLÁSSICA DOS EMPREGADOS DA VALE S/A E ENTIDADES VINCULADAS LTDA. - SICOOB COOPVALE</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SICOOB PA - PARAGOMINAS</t>
+          <t>FILIAL EUNAPOLIS</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>RUA COSTA E SILVA</t>
+          <t>AVENIDA PORTO SEGURO</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>431</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>TERREO</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>CELIO MIRANDA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>68625-040</t>
+          <t>45820-002</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>1505502</t>
+          <t>2910727</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>PARAGOMINAS</t>
+          <t>EUNAPOLIS</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>40090200</t>
+        </is>
+      </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>90.400.888/2218-23</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>33924028</t>
+          <t>25280945</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO CLÁSSICA DOS EMPREGADOS DA VALE S/A E ENTIDADES VINCULADAS LTDA. - SICOOB COOPVALE</t>
+          <t>AVS CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SICOOB PA BARCARENA</t>
+          <t>POSTO DE ATENDIMENTO PALLADIUM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>RUA DOM ROMUALDO  COELHO</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr"/>
+          <t>AVENIDA PRESIDENTE KENNEDY</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>4121</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>QUADRA 377, LOTES 32 E 33</t>
+          <t>PISO L.3 - LOJA 3083-A</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>VILA DOS CABANOS</t>
+          <t>PORTAO</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>68447-000</t>
+          <t>80610-905</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>1501303</t>
+          <t>4106902</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>BARCARENA</t>
+          <t>CURITIBA</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>32232828</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>60.701.190/2585-35</t>
+          <t>25.280.945/0001-35</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>33924028</t>
+          <t>25280945</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO CLÁSSICA DOS EMPREGADOS DA VALE S/A E ENTIDADES VINCULADAS LTDA. - SICOOB COOPVALE</t>
+          <t>AVS CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SICOOB  PA - GOVERNADOR VALADARES</t>
+          <t>POSTO DE ATENDIMENTO OMAR</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>RUA ARTUR BERNARDES</t>
+          <t>RUA COMENDADOR ARAUJO</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>268</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>LOJA</t>
+          <t>PISO CA - LOJA 36</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -8201,98 +8369,106 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>35010-020</t>
+          <t>80420-010</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>3127701</t>
+          <t>4106902</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>GOVERNADOR VALADARES</t>
+          <t>CURITIBA</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>32232828</t>
+        </is>
+      </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>17.184.037/0001-10</t>
+          <t>25.280.945/0001-35</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>18287740</t>
+          <t>50489148</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
+          <t>POSTO DE ATENDIMENTO - BRASÍLIA/DF</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>AV ATLANTICA</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>2600</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr"/>
+          <t>QUADRA SHN QUADRA 1, BLOCO A,S/N</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>EDIF. LE QUARTIER, BLOCO A, SALAS 1510 A 1513,CJ A</t>
+        </is>
+      </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>COPACABANA</t>
+          <t>ASA NORTE</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>22041-001</t>
+          <t>70701-010</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>3304557</t>
+          <t>5300108</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>BRASILIA</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -8302,80 +8478,84 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>35413932</t>
+          <t>30180960</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>18.287.740/0001-16</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr"/>
+          <t>50.489.148/0001-00</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+        </is>
+      </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>18287740</t>
+          <t>50489148</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>POSTO SÃO PAULO</t>
+          <t>POSTO DE ATENDIMENTO - SÃO JOSÉ DO RIO PRETO/SP</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>AVENIDA PAULISTA</t>
+          <t>AVENIDA ANÍSIO HADDAD</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1776</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>CONJUNTO 19 C</t>
+          <t>SALA202,BLOCO A,TORRE02 MADRID,SETOR A EUROPE PA</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>BELA VISTA</t>
+          <t>JARDIM ACLIMAÇÃO</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>01310-200</t>
+          <t>15091-380</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>3550308</t>
+          <t>3549805</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>SAO PAULO</t>
+          <t>SAO JOSE DO RIO PRETO</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -8390,80 +8570,84 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>55554121</t>
+          <t>30180960</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>25.107.517/0001-05</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr"/>
+          <t>50.489.148/0001-00</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+        </is>
+      </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>18287740</t>
+          <t>50489148</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CONECTA - POSTO ABILIO SOARES</t>
+          <t>POSTO DE ATENDIMENTO - CAMPINAS/SP</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ABILIO SOARES</t>
+          <t>RUA GUSTAVO AMBRUST</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>CONJUNTO 81</t>
+          <t>SALA 503, SETOR PA</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>PARAISO</t>
+          <t>NOVA CAMPINAS</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>04001-000</t>
+          <t>13092-106</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>3550308</t>
+          <t>3509502</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>SAO PAULO</t>
+          <t>CAMPINAS</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -8473,159 +8657,171 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>45503600</t>
+          <t>30180960</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>18.287.740/0001-16</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr"/>
+          <t>50.489.148/0001-00</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+        </is>
+      </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>18287740</t>
+          <t>50489148</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>POSTO DE CAMBIO - SAO PAULO</t>
+          <t>POSTO DE ATENDIMENTO - PORTO ALEGRE/RS</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>R 24 DE MAIO</t>
+          <t>AVENIDA DR. NILO PEÇANHA</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>LJ 29</t>
+          <t>LOJA 01, SALA PA</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>REPÚBLICA</t>
+          <t>TRÊS FIGUEIRAS</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>01041-001</t>
+          <t>91330-000</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>3550308</t>
+          <t>4314902</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>SAO PAULO</t>
+          <t>PORTO ALEGRE</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>35413932</t>
+          <t>30936776</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>18.287.740/0001-16</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr"/>
+          <t>50.489.148/0001-00</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+        </is>
+      </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>18287740</t>
+          <t>50489148</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
+          <t>POSTO DE ATENDIMENTO - RIO DE JANEIRO/RJ</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>AV NIEMEYER</t>
+          <t>RUA VISCONDE DE PIRAJÁ</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr"/>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>SALA 401</t>
+        </is>
+      </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>LEBLON</t>
+          <t>IPANEMA</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>22450-220</t>
+          <t>22410-000</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8645,86 +8841,94 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>35413932</t>
+          <t>36137800</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>18.287.740/0001-16</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr"/>
+          <t>50.489.148/0001-00</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+        </is>
+      </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>18287740</t>
+          <t>50489148</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
+          <t>POSTO DE ATENDIMENTO - CURITIBA/PR</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>AV LUCIO COSTA</t>
+          <t>RUA VISCONDE DO RIO BRANCO</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>3150</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
+          <t>1488</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>CONJUNTO 1201, 12- ANDAR</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>BARRA DA TIJUCA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>22630-010</t>
+          <t>80420-210</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>3304557</t>
+          <t>4106902</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>CURITIBA</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -8734,18 +8938,22 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>35413932</t>
+          <t>40002174</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>18.287.740/0001-16</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr"/>
+          <t>50.489.148/0001-00</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+        </is>
+      </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>29/07/2025</t>
+          <t>31/07/2025</t>
         </is>
       </c>
     </row>

--- a/strDataFrame.xlsx
+++ b/strDataFrame.xlsx
@@ -613,7 +613,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LÚMINA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>POSTO NO SALVADOR SHOPPING   LOJA 1058</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1085,27 +1085,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AV. CENTENÁRIO - LOJA 121</t>
+          <t>AV. TANCREDO NEVES</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2992</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>SHOPPING BARRA</t>
+          <t>SALVADOR SHOPPING - LOJA 1058</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CHAME-CHAME</t>
+          <t>CAMINHO DAS ÁRVORES</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>40140-902</t>
+          <t>41820-021</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1130,18 +1130,18 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>30341579</t>
+          <t>30196300</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>00.394.502/0055-37</t>
+          <t>15.122.605/0001-22</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>POSTO NO SALVADOR SHOPPING   LOJA 1058</t>
+          <t>POSTO DE CÂMBIO PERMANENTE - LOJA SHOPPING TOUR</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1173,27 +1173,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AV. TANCREDO NEVES</t>
+          <t>AV. CENTENÁRIO</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>2992</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SALVADOR SHOPPING - LOJA 1058</t>
+          <t>LOJA 121 - SHOPPING BARRA</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CAMINHO DAS ÁRVORES</t>
+          <t>CHAME CHAME</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>41820-021</t>
+          <t>40140-902</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1218,18 +1218,18 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>30196300</t>
+          <t>32643344</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>15.122.605/0001-22</t>
+          <t>15.122.605/0001-21</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>POSTO DE CÂMBIO PERMANENTE - LOJA SHOPPING TOUR</t>
+          <t>LÚMINA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AV. CENTENÁRIO</t>
+          <t>AV. CENTENÁRIO - LOJA 121</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>LOJA 121 - SHOPPING BARRA</t>
+          <t>SHOPPING BARRA</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>CHAME CHAME</t>
+          <t>CHAME-CHAME</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1306,18 +1306,18 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>32643344</t>
+          <t>30341579</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>15.122.605/0001-21</t>
+          <t>00.394.502/0055-37</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -3185,7 +3185,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -3273,167 +3273,163 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>73077398</t>
+          <t>17312083</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA EATON</t>
+          <t>H H PICCHIONI S/A CORRETORA DE CAMBIO E VALORES MOBILIARIOS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>COOPERATIVA SÃO JOSE DOS CAMPOS</t>
+          <t>PICCHIONI CÂMBIO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AV. DR.  SEBASTIAO HENRIQUE DA CUNHA PON</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>1655</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>AV. DOS ANDRADAS, 3000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>LOJA 1041 - 1. PISO</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>PALMEIRAS DE SAO JOS</t>
+          <t>SANTA EFIGÊNIA</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>12230-002</t>
+          <t>30260-070</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>3549904</t>
+          <t>3106200</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>SAO JOSE DOS CAMPOS</t>
+          <t>BELO HORIZONTE</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>32387441</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>90.400.888/0133-92</t>
+          <t>17.312.083/0001-57</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>17312083</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>H H PICCHIONI S/A CORRETORA DE CAMBIO E VALORES MOBILIARIOS</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de TVM</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PICCHIONI CÂMBIO</t>
+          <t>ALTA FLORESTA - MT</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AV. DOS ANDRADAS, 3000</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>LOJA 1041 - 1. PISO</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>SANTA EFIGÊNIA</t>
-        </is>
-      </c>
+          <t>AVENIDA JAIME VERISSIMO DE CAMPOS</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>30260-070</t>
+          <t>78580-000</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>3106200</t>
+          <t>5100250</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>BELO HORIZONTE</t>
+          <t>ALTA FLORESTA</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>32387441</t>
-        </is>
-      </c>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>17.312.083/0001-57</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3451,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ALTA FLORESTA - MT</t>
+          <t>PORTO VELHO-RO (RUA JOAQUIM NABUCO)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3465,47 +3461,51 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>AVENIDA JAIME VERISSIMO DE CAMPOS</t>
+          <t>RUA JOAQUIM NABUCO,</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>KM 1</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>78580-000</t>
+          <t>76804-104</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>5100250</t>
+          <t>1100205</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>ALTA FLORESTA</t>
+          <t>PORTO VELHO</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>00.000.000/1160-68</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PORTO VELHO-RO (RUA JOAQUIM NABUCO)</t>
+          <t>REDENÇÃO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3537,51 +3537,51 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>RUA JOAQUIM NABUCO,</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>1954</t>
-        </is>
-      </c>
+          <t>RODOVIA PA 287</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>KM 1</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>KM:287,LOTE:32, 32-A E 32-B</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>COLONIA FREI GIL</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>76804-104</t>
+          <t>68550-000</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1100205</t>
+          <t>1506138</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>PORTO VELHO</t>
+          <t>REDENCAO</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>00.000.000/1160-68</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>REDENÇÃO</t>
+          <t>ITAITUBA - PA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3613,33 +3613,33 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>RODOVIA PA 287</t>
+          <t>FAZENDA MINUANO BACIA DO RIO CREPURIZINH</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>KM:287,LOTE:32, 32-A E 32-B</t>
+          <t>SALA A</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>COLONIA FREI GIL</t>
+          <t>ZONA RURAL</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>68550-000</t>
+          <t>68187-899</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1506138</t>
+          <t>1503606</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>REDENCAO</t>
+          <t>ITAITUBA</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3657,7 +3657,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ITAITUBA - PA</t>
+          <t>PCO VARZEA GRANDE - MT</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3689,38 +3689,42 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>FAZENDA MINUANO BACIA DO RIO CREPURIZINH</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>AV. JULIO DOMINGOS DE CAMPOS</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>5774</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>SALA A</t>
+          <t>SALA 6</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>ZONA RURAL</t>
+          <t>SANTA ISABEL</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>68187-899</t>
+          <t>78150-236</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1503606</t>
+          <t>5108402</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>ITAITUBA</t>
+          <t>VARZEA GRANDE</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -3733,7 +3737,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3759,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PCO VARZEA GRANDE - MT</t>
+          <t>TERRA NOVA DO NORTE-MT (C-13 TERRA NOVA DO NORTE)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3765,37 +3769,37 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>AV. JULIO DOMINGOS DE CAMPOS</t>
+          <t>TRAVESSA LUCAS TOMIAZZO,</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5774</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>SALA 6</t>
+          <t>SALA 25</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>SANTA ISABEL</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>78150-236</t>
+          <t>78505-000</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>5108402</t>
+          <t>5108055</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>VARZEA GRANDE</t>
+          <t>TERRA NOVA DO NORTE</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3807,13 +3811,13 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>60.701.190/0126-17</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -3893,7 +3897,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3919,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>TERRA NOVA DO NORTE-MT (C-13 TERRA NOVA DO NORTE)</t>
+          <t>POCONÉ-MT</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3925,19 +3929,15 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>TRAVESSA LUCAS TOMIAZZO,</t>
+          <t>RUA 13 DE JUNHO</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>SALA 25</t>
-        </is>
-      </c>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -3945,17 +3945,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>78505-000</t>
+          <t>78175-000</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>5108055</t>
+          <t>5106505</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>TERRA NOVA DO NORTE</t>
+          <t>POCONE</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3967,13 +3967,13 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>60.701.190/0126-17</t>
+          <t>00.000.000/1160-68</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -4049,7 +4049,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>POCONÉ-MT</t>
+          <t>PEIXOTO DE AZEVEDO-MT (AV. BRASIL, 825)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4081,15 +4081,19 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>RUA 13 DE JUNHO</t>
+          <t>AVENIDA BRASIL,</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>SALA 02</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -4097,17 +4101,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>78175-000</t>
+          <t>78530-000</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>5106505</t>
+          <t>5106422</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>POCONE</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -4119,13 +4123,13 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>00.000.000/1160-68</t>
+          <t>60.701.190/0291-88</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4151,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PRAÇA C48 - PEIXOTO DE AZEVEDO - MT</t>
+          <t>PCO PEIXTO DE AZEVEDO - MT (AVENIDA BRASIL, N- 10</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4162,7 +4166,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4172,7 +4176,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>CENTRO NOVO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4205,7 +4209,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4231,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PCO PEIXTO DE AZEVEDO - MT (AVENIDA BRASIL, N- 10</t>
+          <t>ABERTURA DE UM POSTO DE COMPRA DE OURO (PCO  NA CIDADE DE PE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4242,7 +4246,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>425</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4252,7 +4256,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CENTRO ANTIGO</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -4285,7 +4289,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4311,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ABERTURA DE UM POSTO DE COMPRA DE OURO (PCO  NA CIDADE DE PE</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4322,7 +4326,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>233</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4332,7 +4336,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>CENTRO ANTIGO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -4365,7 +4369,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4391,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO</t>
+          <t>PEIXOTO DE AZEVEDO-MT (AV. BRASIL, 423)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4397,17 +4401,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL</t>
+          <t>AVENIDA BRASIL,</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>423</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>QUADRA 003 LOTE 0007</t>
+          <t>SALA 02</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4445,7 +4449,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4471,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO-MT (AV. BRASIL, 825)</t>
+          <t>PRAÇA C48 - PEIXOTO DE AZEVEDO - MT</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4477,22 +4481,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL,</t>
+          <t>AVENIDA BRASIL</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>591</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>SALA 02</t>
+          <t>QUADRA 003 LOTE 0007</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CENTRO NOVO</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4519,13 +4523,13 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>60.701.190/0291-88</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4551,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO-MT (AV. BRASIL, 423)</t>
+          <t>PARANAÍTA - MT</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4557,19 +4561,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL,</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>423</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>SALA 02</t>
-        </is>
-      </c>
+          <t>RUA ORLANDO PETROFEZA, N- 156</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -4577,17 +4573,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>78530-000</t>
+          <t>78590-000</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>5106422</t>
+          <t>5106299</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO</t>
+          <t>PARANAITA</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4599,13 +4595,13 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>25.107.525/0001-51</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4623,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PARANAÍTA - MT</t>
+          <t>PRAÇA C46 - NOVA GUARITA - MT</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4637,11 +4633,19 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>RUA ORLANDO PETROFEZA, N- 156</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+          <t>AVENIDA DOS MIGRANTES</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>SALA A</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -4649,17 +4653,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>78590-000</t>
+          <t>78508-000</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>5106299</t>
+          <t>5108808</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>PARANAITA</t>
+          <t>NOVA GUARITA</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4671,13 +4675,13 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>25.107.525/0001-51</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4703,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PRAÇA C46 - NOVA GUARITA - MT</t>
+          <t>PCO NOVA CANAA-MT</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4709,17 +4713,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>AVENIDA DOS MIGRANTES</t>
+          <t>AVENIDA BRASIL</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>117</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>SALA A</t>
+          <t>SETOR 1, QUADRA 61, LOTE 2</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4729,17 +4733,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>78508-000</t>
+          <t>78515-000</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>5108808</t>
+          <t>5106216</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>NOVA GUARITA</t>
+          <t>NOVA CANAA DO NORTE</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -4757,7 +4761,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -4779,7 +4783,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PCO NOVA CANAA-MT</t>
+          <t>NOSSA SENHORA DO LIVRAMENTO - MT</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4789,17 +4793,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL</t>
+          <t>TRAVESSA WAGNER OLIVEIRA QUELUZ</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>SETOR 1, QUADRA 61, LOTE 2</t>
+          <t>QUADRA 04, SETOR 01</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4809,17 +4813,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>78515-000</t>
+          <t>78170-000</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>5106216</t>
+          <t>5106109</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>NOVA CANAA DO NORTE</t>
+          <t>NOSSA SENHORA DO LIVRAMENTO</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4837,7 +4841,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4863,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA DO LIVRAMENTO - MT</t>
+          <t>PRAÇA C45 - MATUPÁ - MT</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4869,17 +4873,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>TRAVESSA WAGNER OLIVEIRA QUELUZ</t>
+          <t>RUA LUIZ MENA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1108</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>QUADRA 04, SETOR 01</t>
+          <t>SALA B, ZH2-001</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4889,17 +4893,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>78170-000</t>
+          <t>78525-000</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>5106109</t>
+          <t>5105606</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA DO LIVRAMENTO</t>
+          <t>MATUPA</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -4917,7 +4921,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4943,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PRAÇA C45 - MATUPÁ - MT</t>
+          <t>GUARANTÃ DO NORTE - MT -  PCO</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4949,19 +4953,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>RUA LUIZ MENA</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>1108</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>SALA B, ZH2-001</t>
-        </is>
-      </c>
+          <t>RUA DOS CAJUEIROS, 171</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -4969,17 +4965,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>78525-000</t>
+          <t>78520-000</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>5105606</t>
+          <t>5104104</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>MATUPA</t>
+          <t>GUARANTA DO NORTE</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4997,7 +4993,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5069,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5091,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>GUARANTÃ DO NORTE - MT -  PCO</t>
+          <t>PCO COLIDER - MT  RESPONSÁVEL M. A. REIS DE SOUZA EIRELI</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -5105,11 +5101,19 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>RUA DOS CAJUEIROS, 171</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+          <t>AVENIDA TANCREDO NEVES</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>SETOR SUL</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -5117,17 +5121,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>78520-000</t>
+          <t>78500-000</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>5104104</t>
+          <t>5103205</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>GUARANTA DO NORTE</t>
+          <t>COLIDER</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -5139,13 +5143,13 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>00.360.305/0001-04</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5171,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PCO COLIDER - MT  RESPONSÁVEL M. A. REIS DE SOUZA EIRELI</t>
+          <t>ARIPUANÃ-MT</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5177,19 +5181,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>AVENIDA TANCREDO NEVES</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>SETOR SUL</t>
-        </is>
-      </c>
+          <t>RUA LIRIO DENARAY, Nº 02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -5197,17 +5193,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>78500-000</t>
+          <t>78325-000</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>5103205</t>
+          <t>5101407</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>COLIDER</t>
+          <t>ARIPUANA</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -5219,49 +5215,57 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>00.360.305/0001-04</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>08673569</t>
+          <t>42445122</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA PONTIFÍCIA UNIVERSIDADE CATÓLICA DO RIO DE JANEIRO E EMPREGADOS EM ESTABELECIMENTOS PRIVADOS DE ENSINO DO MUNICÍPIO DO RIO DE JANEIRO LTDA.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Sociedade Distribuidora de TVM</t>
+          <t>Cooperativa de Crédito</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ARIPUANÃ-MT</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA PO</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Posto de Compra de Ouro - PCO</t>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>RUA LIRIO DENARAY, Nº 02</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+          <t>RUA ACRE</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>SALA 603 E 604</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -5269,47 +5273,55 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>78325-000</t>
+          <t>20081-000</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>5101407</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>ARIPUANA</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>25184167</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>73622748</t>
+          <t>15482499</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BT CORRETORA DE CÂMBIO LTDA.</t>
+          <t>TURCÂMBIO - CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5319,125 +5331,121 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SHOP MAG JP</t>
+          <t>POSTO GAROPABA</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Câmbio Transitório - PCT</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>AV GOVERNADOR FLAVIO RIBEIRO COUTINHO</t>
+          <t>RUA PREFEITO JOÃO ORESTES DE ARAUJO</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>550</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>LOJA 105</t>
+          <t>SALA 02</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>MANAIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>58037-000</t>
+          <t>88495-000</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2507507</t>
+          <t>4205704</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>JOAO PESSOA</t>
+          <t>GAROPABA</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>48</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>30481070</t>
+          <t>32546200</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>73.622.748/0001-08</t>
+          <t>15.482.499/0001-98</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>42445122</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA PONTIFÍCIA UNIVERSIDADE CATÓLICA DO RIO DE JANEIRO E EMPREGADOS EM ESTABELECIMENTOS PRIVADOS DE ENSINO DO MUNICÍPIO DO RIO DE JANEIRO LTDA.</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA PO</t>
+          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>RUA ACRE</t>
+          <t>AV ATLANTICA</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>SALA 603 E 604</t>
-        </is>
-      </c>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>COPACABANA</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>20081-000</t>
+          <t>22041-001</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5457,35 +5465,35 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>25184167</t>
+          <t>35413932</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>15482499</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TURCÂMBIO - CORRETORA DE CÂMBIO LTDA.</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -5495,73 +5503,73 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>POSTO GAROPABA</t>
+          <t>POSTO SÃO PAULO</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Transitório - PCT</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>RUA PREFEITO JOÃO ORESTES DE ARAUJO</t>
+          <t>AVENIDA PAULISTA</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>1776</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>SALA 02</t>
+          <t>CONJUNTO 19 C</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>BELA VISTA</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>88495-000</t>
+          <t>01310-200</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>4205704</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>GAROPABA</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>32546200</t>
+          <t>55554121</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>15.482.499/0001-98</t>
+          <t>25.107.517/0001-05</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -5583,7 +5591,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
+          <t>CONECTA - POSTO ABILIO SOARES</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5593,38 +5601,42 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>AV ATLANTICA</t>
+          <t>ABILIO SOARES</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2600</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>CONJUNTO 81</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>COPACABANA</t>
+          <t>PARAISO</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>22041-001</t>
+          <t>04001-000</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>3304557</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5634,7 +5646,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>35413932</t>
+          <t>45503600</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5645,7 +5657,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5679,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>POSTO SÃO PAULO</t>
+          <t>POSTO DE CAMBIO - SAO PAULO</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5677,27 +5689,27 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>AVENIDA PAULISTA</t>
+          <t>R 24 DE MAIO</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1776</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>CONJUNTO 19 C</t>
+          <t>LJ 29</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>BELA VISTA</t>
+          <t>REPÚBLICA</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>01310-200</t>
+          <t>01041-001</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5722,18 +5734,18 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>55554121</t>
+          <t>35413932</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>25.107.517/0001-05</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5767,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>POSTO DE CAMBIO - SAO PAULO</t>
+          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5765,42 +5777,38 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>R 24 DE MAIO</t>
+          <t>AV NIEMEYER</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>LJ 29</t>
-        </is>
-      </c>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>REPÚBLICA</t>
+          <t>LEBLON</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>01041-001</t>
+          <t>22450-220</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>3550308</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>SAO PAULO</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5821,7 +5829,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5851,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>CONECTA - POSTO ABILIO SOARES</t>
+          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -5853,42 +5861,38 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ABILIO SOARES</t>
+          <t>AV LUCIO COSTA</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>CONJUNTO 81</t>
-        </is>
-      </c>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>PARAISO</t>
+          <t>BARRA DA TIJUCA</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>04001-000</t>
+          <t>22630-010</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>3550308</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>SAO PAULO</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5898,7 +5902,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>45503600</t>
+          <t>35413932</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5909,7 +5913,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -5941,23 +5945,23 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>AV NIEMEYER</t>
+          <t>AV ATLANTICA</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>1702</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>LEBLON</t>
+          <t>COPACABANA</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>22450-220</t>
+          <t>22021-001</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5993,331 +5997,339 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>18287740</t>
+          <t>18140913</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA CBMM LTDA.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Cooperativa de Crédito</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
+          <t>PONTO DE ATENDIMENTO</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>AV LUCIO COSTA</t>
+          <t>RUA DOS DIAMANTES</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>BARRA DA TIJUCA</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>22630-010</t>
+          <t>00000-000</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>3304557</t>
+          <t>3104007</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>ARAXA</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>RJ</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>35413932</t>
-        </is>
-      </c>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>18.287.740/0001-16</t>
+          <t>10.150.050/0001-09</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>18287740</t>
+          <t>64293582</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>COOPERATIVA DE CRÉDITO DOS EMPREGADOS DO GRUPO VALLOUREC NO BRASIL - COOVALL LTDA.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Cooperativa de Crédito</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
+          <t>PAC - VSBPAC - VSB</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>AV ATLANTICA</t>
+          <t>DISTRITO INDUSTRIAL</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1702</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>COPACABANA</t>
-        </is>
-      </c>
+          <t>S/N</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>DENTRO DA USINA DA VSB</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>22021-001</t>
+          <t>35498-000</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>3304557</t>
+          <t>3135407</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>JECEABA</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>35413932</t>
+          <t>21025534</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>18.287.740/0001-16</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>18140913</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA CBMM LTDA.</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PONTO DE ATENDIMENTO</t>
+          <t>FILIAL CAMPO GRANDE   CARIACICA ES</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>RUA DOS DIAMANTES</t>
+          <t>AV. EXPEDITO GARCIA</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>LOJA 01</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>CAMPO GRANDE</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>00000-000</t>
+          <t>29146-201</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>3104007</t>
+          <t>3201308</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>ARAXA</t>
+          <t>CARIACICA</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>40090200</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>10.150.050/0001-09</t>
+          <t>58.581.406/0001-95</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>64293582</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO DOS EMPREGADOS DO GRUPO VALLOUREC NO BRASIL - COOVALL LTDA.</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PAC - VSBPAC - VSB</t>
+          <t>FILIAL CACHOEIRO DE ITAPEMIRIM - 36.321.990/0032-03</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>DISTRITO INDUSTRIAL</t>
+          <t>PC SENADOR LUIZ TINOCO</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>S/N</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>DENTRO DA USINA DA VSB</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
+          <t>LOJA 02</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>35498-000</t>
+          <t>29300-073</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>3135407</t>
+          <t>3201209</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>JECEABA</t>
+          <t>CACHOEIRO DE ITAPEMIRIM</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>21025534</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -6339,7 +6351,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>FILIAL BARREIRAS (BA</t>
+          <t>FILIAL TEÓFILO OTONI 36.321.990/0021-50</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -6349,15 +6361,19 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>RUA CUSTÓDIA ROCHA DE CARVALHO</t>
+          <t>RUA EPAMINONDAS OTONI</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>257</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>LOJA01</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -6365,22 +6381,22 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>47800-172</t>
+          <t>39800-013</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2903201</t>
+          <t>3168606</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>BARREIRAS</t>
+          <t>TEOFILO OTONI</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -6401,7 +6417,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6439,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>FILIAL TEÓFILO OTONI 36.321.990/0021-50</t>
+          <t>FILIAL - NANUQUE - MG</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -6433,19 +6449,15 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>RUA EPAMINONDAS OTONI</t>
+          <t>AV. GERALDO ROMANO</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>856</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>LOJA01</t>
-        </is>
-      </c>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -6453,17 +6465,17 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>39800-013</t>
+          <t>39860-000</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>3168606</t>
+          <t>3144300</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>TEOFILO OTONI</t>
+          <t>NANUQUE</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -6478,18 +6490,18 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>48.197.859/0001-69</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6523,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>FILIAL - NANUQUE - MG</t>
+          <t>FILIAL   VITORIA  ES-</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6521,15 +6533,19 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>AV. GERALDO ROMANO</t>
+          <t>PRAÇA COSTA PEREIRA</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>LOJA02</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -6537,22 +6553,22 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>39860-000</t>
+          <t>29010-080</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>3144300</t>
+          <t>3205309</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>NANUQUE</t>
+          <t>VITORIA</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6567,13 +6583,13 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>48.197.859/0001-69</t>
+          <t>60.746.948/0629-08</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -6595,7 +6611,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>FILIAL   VITORIA  ES-</t>
+          <t>FILIAL - GUARAPARI - 36.321.990/0029-08</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6605,37 +6621,33 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>PRAÇA COSTA PEREIRA</t>
+          <t>AV EWERSON DE ABREU SODRE</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>LOJA02</t>
-        </is>
-      </c>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>MUQUICABA</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>29010-080</t>
+          <t>29215-010</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>3205309</t>
+          <t>3205200</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>VITORIA</t>
+          <t>VILA VELHA</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -6655,13 +6667,13 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>60.746.948/0629-08</t>
+          <t>61.360.574/0001-65</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -6683,7 +6695,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>FILIAL COQUEIRAL DE ITAPARICA - VILA VELHA - 36.321.990/0031</t>
+          <t>FILIAL BARRA DE SAO FRANCISCO   ES</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6693,37 +6705,37 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>AV SANTA LEOPOLDINA</t>
+          <t>RUA JONES SANTOS NEVES</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>648</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>LOJA 06</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>PRAIA DE ITAPARICA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>29102-915</t>
+          <t>29800-000</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>3205200</t>
+          <t>3200904</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>VILA VELHA</t>
+          <t>BARRA DE SAO FRANCISCO</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6738,18 +6750,18 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>40205055</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>17.184.037/0001-10</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -6771,7 +6783,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>FILIAL - GUARAPARI - 36.321.990/0029-08</t>
+          <t>FILIAL AGORACRED VITORIA DA CONQUISTA BA</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -6781,38 +6793,38 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>AV EWERSON DE ABREU SODRE</t>
+          <t>AV LAURO DE FREITAS</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>254</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>MUQUICABA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>29215-010</t>
+          <t>45000-230</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>3205200</t>
+          <t>2933307</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>VILA VELHA</t>
+          <t>VITORIA DA CONQUISTA</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6827,13 +6839,13 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>61.360.574/0001-65</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6867,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>FILIAL - TERRA VERMELHA (VILA VELHA  - 36.321.990/0028-27</t>
+          <t>FILIAL TEIXEIRA DE FREITAS BA - 36.321.990/0018-55</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -6865,42 +6877,42 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>RUA AFONSO CLAUDIO</t>
+          <t>AVENIDA PRESIDENTE GETULIO VARGAS</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>3685</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>LOJA03</t>
+          <t>LOJAS 01 E 02</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>TERRA VERMELHA</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>29127-210</t>
+          <t>45992-000</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>3205200</t>
+          <t>2931350</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>VILA VELHA</t>
+          <t>TEIXEIRA DE FREITAS</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6910,18 +6922,18 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>40090200</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>61.360.574/0001-65</t>
+          <t>90.400.888/2318-96</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -6943,7 +6955,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>FILIAL GLORIA - VILA VELHA -ES</t>
+          <t>FILIAL ITAMARAJU BA</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -6953,42 +6965,38 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>R. SANTA TEREZINHA</t>
+          <t>AVENIDA ANTÔNIO CARLOS MAGALHÃES</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>SN</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>LOJA 01 EDIFICIO NORBERTO GORZA</t>
-        </is>
-      </c>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>CRISTÓVÃO COLOMBO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>29106-570</t>
+          <t>45836-000</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>3205200</t>
+          <t>2915601</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>VILA VELHA</t>
+          <t>ITAMARAJU</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6998,7 +7006,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>40090200</t>
+          <t>40200200</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -7009,7 +7017,7 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7039,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>FILIAL LARANJEIRAS II - CNPJ 36.321.990/0023-12</t>
+          <t>FILIAL EUNAPOLIS</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -7041,42 +7049,42 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>AVENIDA PRIMEIRA AVENIDA</t>
+          <t>AVENIDA PORTO SEGURO</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>588</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>LOTE 014</t>
+          <t>TERREO</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>PARQUE RESIDENCIAL LARANJEIRAS</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>29165-155</t>
+          <t>45820-002</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>3205002</t>
+          <t>2910727</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>SERRA</t>
+          <t>EUNAPOLIS</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -7086,18 +7094,18 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>40205055</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>90.400.888/2760-59</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -7119,7 +7127,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>FILIAL SAO MATEUS   ES</t>
+          <t>FILIAL BARREIRAS (BA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -7129,19 +7137,15 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>AV CORONEL MATEUS CUNHA</t>
+          <t>RUA CUSTÓDIA ROCHA DE CARVALHO</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>LOJA 01</t>
-        </is>
-      </c>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -7149,22 +7153,22 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>29930-180</t>
+          <t>47800-172</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>3204906</t>
+          <t>2903201</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>SAO MATEUS</t>
+          <t>BARREIRAS</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -7174,18 +7178,18 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>40090200</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>36.321.990/0001-07</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -7207,7 +7211,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>FILIAL SÃO GABRIEL DA PALHA - ES</t>
+          <t>FILIAL - TERRA VERMELHA (VILA VELHA  - 36.321.990/0028-27</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -7217,33 +7221,37 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>AVENIDA JOÃO XXIII</t>
+          <t>RUA AFONSO CLAUDIO</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>LOJA03</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>TERRA VERMELHA</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>29780-000</t>
+          <t>29127-210</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>3204708</t>
+          <t>3205200</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>SAO GABRIEL DA PALHA</t>
+          <t>VILA VELHA</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -7258,18 +7266,18 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>40090214</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>36.321.990/0001-07</t>
+          <t>61.360.574/0001-65</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7299,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>FILIAL - PINHEIROS -ES 36.321.990/0008-83</t>
+          <t>FILIAL COQUEIRAL DE ITAPARICA - VILA VELHA - 36.321.990/0031</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -7301,37 +7309,37 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>AV. AGENOR LUIZ HERINGER</t>
+          <t>AV SANTA LEOPOLDINA</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>840</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>C, ANDAR 2, SALA 1</t>
+          <t>LOJA 06</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>PRAIA DE ITAPARICA</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>29980-000</t>
+          <t>29102-915</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>3204104</t>
+          <t>3205200</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>PINHEIROS</t>
+          <t>VILA VELHA</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -7346,18 +7354,18 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>37650700</t>
+          <t>40205055</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>04.056.206/0001-94</t>
+          <t>17.184.037/0001-10</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -7379,7 +7387,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>FILIAL NOVA VENECIA</t>
+          <t>FILIAL GLORIA - VILA VELHA -ES</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -7389,37 +7397,37 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>AVENIDA VITÓRIA</t>
+          <t>R. SANTA TEREZINHA</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>LOJA 02</t>
+          <t>LOJA 01 EDIFICIO NORBERTO GORZA</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CRISTÓVÃO COLOMBO</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>29830-000</t>
+          <t>29106-570</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>3203908</t>
+          <t>3205200</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>NOVA VENECIA</t>
+          <t>VILA VELHA</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -7439,13 +7447,13 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -7467,7 +7475,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>FILIAL LINHARES ES</t>
+          <t>FILIAL LARANJEIRAS II - CNPJ 36.321.990/0023-12</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -7477,37 +7485,37 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>RUA MONESENHOR PEDRINHA</t>
+          <t>AVENIDA PRIMEIRA AVENIDA</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>332</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>LOJA 02</t>
+          <t>LOTE 014</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>PARQUE RESIDENCIAL LARANJEIRAS</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>29900-161</t>
+          <t>29165-155</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>3203205</t>
+          <t>3205002</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>LINHARES</t>
+          <t>SERRA</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -7522,18 +7530,18 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>40200200</t>
+          <t>40205055</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>36.321.990/0001-07</t>
+          <t>90.400.888/2760-59</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -7555,7 +7563,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>FILIAL COLATINA   ES</t>
+          <t>FILIAL SAO MATEUS   ES</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -7565,17 +7573,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>AV. GETÚLIO VARGAS</t>
+          <t>AV CORONEL MATEUS CUNHA</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>LOJA F E G, EDF. SCALA CENTER</t>
+          <t>LOJA 01</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7585,17 +7593,17 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>29700-011</t>
+          <t>29930-180</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>3201506</t>
+          <t>3204906</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>COLATINA</t>
+          <t>SAO MATEUS</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7615,13 +7623,13 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>00.530.352/0001-59</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -7643,7 +7651,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>FILIAL CAMPO GRANDE   CARIACICA ES</t>
+          <t>FILIAL SÃO GABRIEL DA PALHA - ES</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -7653,37 +7661,33 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>AV. EXPEDITO GARCIA</t>
+          <t>AVENIDA JOÃO XXIII</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1465</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>LOJA 01</t>
-        </is>
-      </c>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>CAMPO GRANDE</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>29146-201</t>
+          <t>29780-000</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>3201308</t>
+          <t>3204708</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>CARIACICA</t>
+          <t>SAO GABRIEL DA PALHA</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -7698,18 +7702,18 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>40090200</t>
+          <t>40090214</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>58.581.406/0001-95</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7735,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>FILIAL CACHOEIRO DE ITAPEMIRIM - 36.321.990/0032-03</t>
+          <t>FILIAL - PINHEIROS -ES 36.321.990/0008-83</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -7741,17 +7745,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>PC SENADOR LUIZ TINOCO</t>
+          <t>AV. AGENOR LUIZ HERINGER</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>263</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>LOJA 02</t>
+          <t>C, ANDAR 2, SALA 1</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -7761,17 +7765,17 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>29300-073</t>
+          <t>29980-000</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>3201209</t>
+          <t>3204104</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>CACHOEIRO DE ITAPEMIRIM</t>
+          <t>PINHEIROS</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -7786,18 +7790,18 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>40090200</t>
+          <t>37650700</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>36.321.990/0001-07</t>
+          <t>04.056.206/0001-94</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -7819,7 +7823,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>FILIAL BARRA DE SAO FRANCISCO   ES</t>
+          <t>FILIAL NOVA VENECIA</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -7829,37 +7833,37 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>RUA JONES SANTOS NEVES</t>
+          <t>AVENIDA VITÓRIA</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>227</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
+          <t>LOJA 02</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
           <t>CENTRO</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>CENTRO</t>
-        </is>
-      </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>29800-000</t>
+          <t>29830-000</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>3200904</t>
+          <t>3203908</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>BARRA DE SAO FRANCISCO</t>
+          <t>NOVA VENECIA</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -7879,13 +7883,13 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>36.321.990/0001-07</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -7907,7 +7911,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>FILIAL AGORACRED VITORIA DA CONQUISTA BA</t>
+          <t>FILIAL LINHARES ES</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -7917,15 +7921,19 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>AV LAURO DE FREITAS</t>
+          <t>RUA MONESENHOR PEDRINHA</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>LOJA 02</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -7933,22 +7941,22 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>45000-230</t>
+          <t>29900-161</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2933307</t>
+          <t>3203205</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>VITORIA DA CONQUISTA</t>
+          <t>LINHARES</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7958,7 +7966,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>40090200</t>
+          <t>40200200</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -7969,7 +7977,7 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7999,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>FILIAL TEIXEIRA DE FREITAS BA - 36.321.990/0018-55</t>
+          <t>FILIAL COLATINA   ES</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -8001,42 +8009,42 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>AVENIDA PRESIDENTE GETULIO VARGAS</t>
+          <t>AV. GETÚLIO VARGAS</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3685</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>LOJAS 01 E 02</t>
+          <t>LOJA F E G, EDF. SCALA CENTER</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>SAO LOURENCO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>45992-000</t>
+          <t>29700-011</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2931350</t>
+          <t>3201506</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>TEIXEIRA DE FREITAS</t>
+          <t>COLATINA</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -8046,144 +8054,148 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>4020</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>90.400.888/2318-96</t>
+          <t>00.530.352/0001-59</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>36321990</t>
+          <t>25280945</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
+          <t>AVS CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Sociedade de Crédito, Financiamento e Investimento</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>FILIAL ITAMARAJU BA</t>
+          <t>POSTO DE ATENDIMENTO PALLADIUM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Posto Avançado de Atendimento - PAA</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>AVENIDA ANTÔNIO CARLOS MAGALHÃES</t>
+          <t>AVENIDA PRESIDENTE KENNEDY</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
+          <t>4121</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>PISO L.3 - LOJA 3083-A</t>
+        </is>
+      </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>PORTAO</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>45836-000</t>
+          <t>80610-905</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2915601</t>
+          <t>4106902</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>ITAMARAJU</t>
+          <t>CURITIBA</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>41</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>40200200</t>
+          <t>32232828</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>36.321.990/0001-07</t>
+          <t>25.280.945/0001-35</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>36321990</t>
+          <t>25280945</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
+          <t>AVS CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sociedade de Crédito, Financiamento e Investimento</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>FILIAL EUNAPOLIS</t>
+          <t>POSTO DE ATENDIMENTO OMAR</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Posto Avançado de Atendimento - PAA</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>AVENIDA PORTO SEGURO</t>
+          <t>RUA COMENDADOR ARAUJO</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>268</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>TERREO</t>
+          <t>PISO CA - LOJA 36</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -8193,219 +8205,211 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>45820-002</t>
+          <t>80420-010</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2910727</t>
+          <t>4106902</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>EUNAPOLIS</t>
+          <t>CURITIBA</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>41</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>40090200</t>
+          <t>32232828</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>36.321.990/0001-07</t>
+          <t>25.280.945/0001-35</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>25280945</t>
+          <t>73077398</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>AVS CORRETORA DE CÂMBIO LTDA.</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA EATON</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Cooperativa de Crédito</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO PALLADIUM</t>
+          <t>COOPERATIVA SÃO JOSE DOS CAMPOS</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>AVENIDA PRESIDENTE KENNEDY</t>
+          <t>AV. DR.  SEBASTIAO HENRIQUE DA CUNHA PON</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>4121</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PISO L.3 - LOJA 3083-A</t>
-        </is>
-      </c>
+          <t>1655</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>PORTAO</t>
+          <t>PALMEIRAS DE SAO JOS</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>80610-905</t>
+          <t>12230-002</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>4106902</t>
+          <t>3549904</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>CURITIBA</t>
+          <t>SAO JOSE DOS CAMPOS</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>32232828</t>
-        </is>
-      </c>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>25.280.945/0001-35</t>
+          <t>90.400.888/0133-92</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>25280945</t>
+          <t>50489148</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>AVS CORRETORA DE CÂMBIO LTDA.</t>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO OMAR</t>
+          <t>POSTO DE ATENDIMENTO - GOIÂNIA/GO</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>RUA COMENDADOR ARAUJO</t>
+          <t>AVENIDA PORTUGAL</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>PISO CA - LOJA 36</t>
+          <t>SALA C-1813, QUADRA L</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>SETOR MARISTA</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>80420-010</t>
+          <t>74150-030</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>4106902</t>
+          <t>5208707</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>CURITIBA</t>
+          <t>GOIANIA</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>62</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>32232828</t>
+          <t>31215230</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>25.280.945/0001-35</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr"/>
+          <t>50.489.148/0001-00</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+        </is>
+      </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -8427,7 +8431,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO - BRASÍLIA/DF</t>
+          <t>POSTO DE ATENDIMENTO - SÃO JOSÉ DO RIO PRETO/SP</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -8437,38 +8441,42 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>QUADRA SHN QUADRA 1, BLOCO A,S/N</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr"/>
+          <t>AVENIDA ANÍSIO HADDAD</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>8001</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>EDIF. LE QUARTIER, BLOCO A, SALAS 1510 A 1513,CJ A</t>
+          <t>SALA202,BLOCO A,TORRE02 MADRID,SETOR A EUROPE PA</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>ASA NORTE</t>
+          <t>JARDIM ACLIMAÇÃO</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>70701-010</t>
+          <t>15091-380</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>5300108</t>
+          <t>3549805</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>BRASILIA</t>
+          <t>SAO JOSE DO RIO PRETO</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -8493,7 +8501,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -8515,7 +8523,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO - SÃO JOSÉ DO RIO PRETO/SP</t>
+          <t>POSTO DE ATENDIMENTO - CAMPINAS/SP</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -8525,37 +8533,37 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>AVENIDA ANÍSIO HADDAD</t>
+          <t>RUA GUSTAVO AMBRUST</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>SALA202,BLOCO A,TORRE02 MADRID,SETOR A EUROPE PA</t>
+          <t>SALA 503, SETOR PA</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>JARDIM ACLIMAÇÃO</t>
+          <t>NOVA CAMPINAS</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>15091-380</t>
+          <t>13092-106</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>3549805</t>
+          <t>3509502</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>SAO JOSE DO RIO PRETO</t>
+          <t>CAMPINAS</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -8565,7 +8573,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -8585,7 +8593,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -8607,7 +8615,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO - CAMPINAS/SP</t>
+          <t>POSTO DE ATENDIMENTO - PORTO ALEGRE/RS</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -8617,52 +8625,52 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>RUA GUSTAVO AMBRUST</t>
+          <t>AVENIDA DR. NILO PEÇANHA</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>SALA 503, SETOR PA</t>
+          <t>LOJA 01, SALA PA</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>NOVA CAMPINAS</t>
+          <t>TRÊS FIGUEIRAS</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>13092-106</t>
+          <t>91330-000</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>3509502</t>
+          <t>4314902</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>CAMPINAS</t>
+          <t>PORTO ALEGRE</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>30180960</t>
+          <t>30936776</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -8677,7 +8685,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -8699,7 +8707,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO - PORTO ALEGRE/RS</t>
+          <t>POSTO DE ATENDIMENTO - RIO DE JANEIRO/RJ</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -8709,52 +8717,52 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>AVENIDA DR. NILO PEÇANHA</t>
+          <t>RUA VISCONDE DE PIRAJÁ</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>250</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>LOJA 01, SALA PA</t>
+          <t>SALA 401</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>TRÊS FIGUEIRAS</t>
+          <t>IPANEMA</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>91330-000</t>
+          <t>22410-000</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>4314902</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>PORTO ALEGRE</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>30936776</t>
+          <t>36137800</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -8769,7 +8777,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -8791,7 +8799,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO - RIO DE JANEIRO/RJ</t>
+          <t>POSTO DE ATENDIMENTO - CURITIBA/PR</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -8801,52 +8809,52 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>RUA VISCONDE DE PIRAJÁ</t>
+          <t>AVENIDA DO BATEL</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>SALA 401</t>
+          <t>SALA 307, 3- ANDAR, CONDOMÍNIO BATEL, BLOCO WORK B</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>IPANEMA</t>
+          <t>BATEL</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>22410-000</t>
+          <t>80420-090</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>3304557</t>
+          <t>4106902</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>CURITIBA</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>36137800</t>
+          <t>40002174</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -8861,7 +8869,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>
@@ -8883,7 +8891,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO - CURITIBA/PR</t>
+          <t>POSTO DE ATENDIMENTO - BELO HORIZONTE/MG</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -8893,52 +8901,52 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>RUA VISCONDE DO RIO BRANCO</t>
+          <t>AVENIDA DO CONTORNO</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1488</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>CONJUNTO 1201, 12- ANDAR</t>
+          <t>SALA 27 - MEZANINO</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>SAVASSI</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>80420-210</t>
+          <t>30110-042</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>4106902</t>
+          <t>3106200</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>CURITIBA</t>
+          <t>BELO HORIZONTE</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>40002174</t>
+          <t>21171244</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -8953,7 +8961,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
     </row>

--- a/strDataFrame.xlsx
+++ b/strDataFrame.xlsx
@@ -613,7 +613,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ADVANCED SALVADOR</t>
+          <t>ADVANCED SÃO PAULO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -737,48 +737,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>RUA EWERTON VISCO  290 EDF BOULEVARD SID</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>RUA PADRE JOÃO MANUEL</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EMPRESARIAL SALA 2001</t>
+          <t>9º ANDAR CONJUNTO 95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>CAMINHO DAS ÁRVORES</t>
+          <t>CERQUEIRA CESAR</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>41820-022</t>
+          <t>01411-001</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2927408</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>SALVADOR</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>32421469</t>
+          <t>30651017</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -789,7 +793,7 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -811,7 +815,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ADVANCED SÃO PAULO</t>
+          <t>ADVANCED SUL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -821,63 +825,63 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>RUA PADRE JOÃO MANUEL</t>
+          <t>RUA CAMBORIU</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9º ANDAR CONJUNTO 95</t>
+          <t>3º ANDAR - CONJ: 301</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>CERQUEIRA CESAR</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>01411-001</t>
+          <t>88301-450</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3550308</t>
+          <t>4208203</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>SAO PAULO</t>
+          <t>ITAJAI</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>47</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>30651017</t>
+          <t>30460048</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>92.856.905/0001-86</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -899,7 +903,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ADVANCED SUL</t>
+          <t>ADVANCED SALVADOR</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -909,63 +913,59 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RUA CAMBORIU</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
+          <t>RUA EWERTON VISCO  290 EDF BOULEVARD SID</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3º ANDAR - CONJ: 301</t>
+          <t>EMPRESARIAL SALA 2001</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CAMINHO DAS ÁRVORES</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>88301-450</t>
+          <t>41820-022</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>4208203</t>
+          <t>2927408</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>ITAJAI</t>
+          <t>SALVADOR</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>71</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>30460048</t>
+          <t>32421469</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>92.856.905/0001-86</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>POSTO NO SALVADOR SHOPPING   LOJA 1058</t>
+          <t>LÚMINA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1085,27 +1085,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AV. TANCREDO NEVES</t>
+          <t>AV. CENTENÁRIO - LOJA 121</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>2992</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>SALVADOR SHOPPING - LOJA 1058</t>
+          <t>SHOPPING BARRA</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CAMINHO DAS ÁRVORES</t>
+          <t>CHAME-CHAME</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>41820-021</t>
+          <t>40140-902</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1130,18 +1130,18 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>30196300</t>
+          <t>30341579</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>15.122.605/0001-22</t>
+          <t>00.394.502/0055-37</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LÚMINA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>POSTO NO SALVADOR SHOPPING   LOJA 1058</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1261,27 +1261,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AV. CENTENÁRIO - LOJA 121</t>
+          <t>AV. TANCREDO NEVES</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2992</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>SHOPPING BARRA</t>
+          <t>SALVADOR SHOPPING - LOJA 1058</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>CHAME-CHAME</t>
+          <t>CAMINHO DAS ÁRVORES</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>40140-902</t>
+          <t>41820-021</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1306,18 +1306,18 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>30341579</t>
+          <t>30196300</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>00.394.502/0055-37</t>
+          <t>15.122.605/0001-22</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -1501,145 +1501,149 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>44401800</t>
+          <t>32648370</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO COGEM</t>
+          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>UNIDADE DE NEGóCIO</t>
+          <t>CURITIBA-PR</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AV. ATLâNTICA</t>
+          <t>RUA MARECHAL DEODORO, 630</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>LOJA 75E-VV-EDIF.C.C.I.</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>VILA COPEC</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>42816-901</t>
+          <t>80010-010</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2905701</t>
+          <t>4106902</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>CAMACARI</t>
+          <t>CURITIBA</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>41</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>35992006</t>
+          <t>30769842</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>51.174.001/0001-93</t>
+          <t>32.648.370/0001-26</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>44401800</t>
+          <t>32648370</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO COGEM</t>
+          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>UNIDADE DE NEGóCIO</t>
+          <t>LXR PROVIDENCE AGÊNCIA DE TURISMO LTDA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AV. DUQUE DE CAXIAS</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2422</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>RODOVIA RAPOSO TAVARES, KM 23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>LOJA 206-PISO INF.SHOPPING GRANJA VIANNA</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>JARDIM SANTA LUCIA</t>
+          <t>LAGEADINHO</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13223-025</t>
+          <t>06709-015</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3556503</t>
+          <t>3513009</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>VARZEA PAULISTA</t>
+          <t>COTIA</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1654,880 +1658,896 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>48630999</t>
+          <t>46136522</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>51.174.001/0001-93</t>
+          <t>32.648.370/0001-26</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>44401800</t>
+          <t>32648370</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO COGEM</t>
+          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>UNIDADE DE NEGÓCIO</t>
+          <t>SÃO JOSÉ-SC (CASOL CENTERLAR CAMPINAS)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AV. CONDE ZEPPELIN</t>
+          <t>AVENIDA PRESIDENTE KENNEDY,</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1935</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>SALA 17 - CASSOL CENTERLAR CAMPINAS</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>EDEN</t>
+          <t>KOBRASOL</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>18103-905</t>
+          <t>88102-401</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3552205</t>
+          <t>4216602</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>SOROCABA</t>
+          <t>SAO JOSE</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>48</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>31999310</t>
+          <t>32595989</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>51.174.001/0001-93</t>
+          <t>32.648.370/0001-26</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>44401800</t>
+          <t>32648370</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO COGEM</t>
+          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>UNIDADE DE NEGóCIO</t>
+          <t>FLORIANÓPOLIS-SC</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AV. PIRAPORINHA</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
+          <t>AV. PREFEITO OSMAR CUNHA, Nº 183</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>PORTARIA BRASCOLA</t>
+          <t>LOJA 14-BLOCO B-EDIF. CEISA CENTER</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>JORDANóPOLIS</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>09891-901</t>
+          <t>88015-100</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3548708</t>
+          <t>4205407</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>SAO BERNARDO DO CAMPO</t>
+          <t>FLORIANOPOLIS</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>48</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>30803960</t>
+          <t>32220688</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>51.174.001/0001-93</t>
+          <t>32.648.370/0001-26</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>44401800</t>
+          <t>32648370</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO COGEM</t>
+          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>UNIDADE DE NEGÓCIO</t>
+          <t>CRICIÚMA-SC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AVENIDA QUEIROS DOS SANTOS</t>
+          <t>RUA CORONEL PEDRO BENEDET</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1717</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>SALA 005</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>CASA BRANCA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>09015-901</t>
+          <t>88801-250</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3547809</t>
+          <t>4204608</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>SANTO ANDRE</t>
+          <t>CRICIUMA</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>30457228</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>18.287.740/0001-16</t>
+          <t>14.675.270/0004-50</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>44401800</t>
+          <t>32648370</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO COGEM</t>
+          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>UNIDADE DE NEGóCIO</t>
+          <t>BALNEÁRIO CAMBORIÚ-SC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AV. DR. HIPóLITO PINTO RIBEIRO</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>915</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>AV. BRASIL, Nº 1615</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>S/ 22-ED.ARLENE-ESPAÇO EMP.DELLATORRE</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>JARDIM NOVA LIMEIRA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>13486-317</t>
+          <t>88330-048</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3526902</t>
+          <t>4202008</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>LIMEIRA</t>
+          <t>BALNEARIO CAMBORIU</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>47</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>40071954</t>
+          <t>32631707</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>51.174.001/0001-93</t>
+          <t>32.648.370/0001-26</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>44401800</t>
+          <t>06373777</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO COGEM</t>
+          <t>BOA VIAGEM SOCIEDADE CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>UNIDADE DE NEGóCIO</t>
+          <t>POSTO MARAGOGI</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ESTRADA MUNICIPAL JOSé RUBIM</t>
+          <t>AV SENADOR RUI PALMEIRA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>COMPLEXO INDUSTRIAL</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>13338-010</t>
+          <t>57955-000</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3520509</t>
+          <t>2704500</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>INDAIATUBA</t>
+          <t>MARAGOGI</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>81</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>31993631</t>
+          <t>33439194</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>51.174.001/0001-93</t>
+          <t>06.373.777/0001-88</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>44401800</t>
+          <t>06373777</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO COGEM</t>
+          <t>BOA VIAGEM SOCIEDADE CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>UNIDADE DE NEGóCIO</t>
+          <t>POSTO VIA SUL</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AV. SENADOR ADOLF SCHINDLING</t>
+          <t>AV. WASHINGTON SOARES</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>LOJA 147  VIA SUL SHOPPING</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>VILA ENDRES</t>
+          <t>SAPIRANGA</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>07042-010</t>
+          <t>60833-005</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3518800</t>
+          <t>2304400</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>GUARULHOS</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>85</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>30803961</t>
+          <t>30327764</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>51.174.001/0001-93</t>
+          <t>06.373.777/0001-88</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>44401800</t>
+          <t>28762249</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO COGEM</t>
+          <t>SADOC SOCIEDADE CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>UNIDADE DE NEGóCIO</t>
+          <t>SADOC SOCIEDADE CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AV. CONTINENTAL</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2777</t>
-        </is>
-      </c>
+          <t>RUA FRANCISCO QUIRINO</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>DISTRITO INDUSTRIAL</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>84043-735</t>
+          <t>62598-000</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>4119905</t>
+          <t>2307254</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>PONTA GROSSA</t>
+          <t>JIJOCA DE JERICOACOARA</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>85</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>40200147</t>
+          <t>3297993</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>51.174.001/0001-93</t>
+          <t>28.762.249/0001-53</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>32648370</t>
+          <t>04894460</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS SERVIDORES DA JUSTIÇA DO ESTADO DE MINAS GERAIS LTDA. - SICOOB CREDJUS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Cooperativa de Crédito</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CURITIBA-PR</t>
+          <t>SICOOB PA FÓRUM - RAJA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RUA MARECHAL DEODORO, 630</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>AV. RAJA GABÁGLIA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1753</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>LOJA 75E-VV-EDIF.C.C.I.</t>
+          <t>ANDAR TÉRREO</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>LUXEMBURGO</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>80010-010</t>
+          <t>30380-435</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4106902</t>
+          <t>3106200</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>CURITIBA</t>
+          <t>BELO HORIZONTE</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>30769842</t>
-        </is>
-      </c>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>32.648.370/0001-26</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>32648370</t>
+          <t>04894460</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS SERVIDORES DA JUSTIÇA DO ESTADO DE MINAS GERAIS LTDA. - SICOOB CREDJUS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Cooperativa de Crédito</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LXR PROVIDENCE AGÊNCIA DE TURISMO LTDA</t>
+          <t>SICOOB PA FÓRUM CONTAGEM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>RODOVIA RAPOSO TAVARES, KM 23</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>AV MARIA DA GLÓRIA ROCHA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>LOJA 206-PISO INF.SHOPPING GRANJA VIANNA</t>
+          <t>3- ANDAR</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>LAGEADINHO</t>
+          <t>BITACULA</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>06709-015</t>
+          <t>32010-375</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>3513009</t>
+          <t>3106200</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>COTIA</t>
+          <t>BELO HORIZONTE</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>46136522</t>
+          <t>32754645</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>32.648.370/0001-26</t>
+          <t>90.400.888/2290-50</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>32648370</t>
+          <t>33851064</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
+          <t>DILLON S/A DISTRIBUIDORA DE TITULOS E VALORES MOBILIARIOS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SÃO JOSÉ-SC (CASOL CENTERLAR CAMPINAS)</t>
+          <t>POSTO DE COMPRA DE OURO DO MUNÍCIPIO DO RIO DE JANEIRO - RJ</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AVENIDA PRESIDENTE KENNEDY,</t>
+          <t>RUA DA ASSEMBLEIA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>SALA 17 - CASSOL CENTERLAR CAMPINAS</t>
+          <t>13- ANDAR</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>KOBRASOL</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>88102-401</t>
+          <t>20011-001</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4216602</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>SAO JOSE</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>32595989</t>
+          <t>25178021</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>32.648.370/0001-26</t>
+          <t>33.851.064/0001-55</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>32648370</t>
+          <t>17312083</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
+          <t>H H PICCHIONI S/A CORRETORA DE CAMBIO E VALORES MOBILIARIOS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FLORIANÓPOLIS-SC</t>
+          <t>PICCHIONI CÂMBIO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2537,101 +2557,101 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AV. PREFEITO OSMAR CUNHA, Nº 183</t>
+          <t>AV. DOS ANDRADAS, 3000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>LOJA 14-BLOCO B-EDIF. CEISA CENTER</t>
+          <t>LOJA 1041 - 1. PISO</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>SANTA EFIGÊNIA</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>88015-100</t>
+          <t>30260-070</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>4205407</t>
+          <t>3106200</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>FLORIANOPOLIS</t>
+          <t>BELO HORIZONTE</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>31</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>32220688</t>
+          <t>32387441</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>32.648.370/0001-26</t>
+          <t>17.312.083/0001-57</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>32648370</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CRICIÚMA-SC</t>
+          <t>TERRA NOVA DO NORTE-MT (C-13 TERRA NOVA DO NORTE)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>RUA CORONEL PEDRO BENEDET</t>
+          <t>TRAVESSA LUCAS TOMIAZZO,</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>SALA 005</t>
+          <t>SALA 25</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2641,338 +2661,302 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>88801-250</t>
+          <t>78505-000</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>4204608</t>
+          <t>5108055</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>CRICIUMA</t>
+          <t>TERRA NOVA DO NORTE</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>30457228</t>
-        </is>
-      </c>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>14.675.270/0004-50</t>
+          <t>60.701.190/0126-17</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>32648370</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FAIR CORRETORA DE CAMBIO S.A.</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>BALNEÁRIO CAMBORIÚ-SC</t>
+          <t>PORTO VELHO-RO (RUA JOAQUIM NABUCO)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AV. BRASIL, Nº 1615</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>RUA JOAQUIM NABUCO,</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>S/ 22-ED.ARLENE-ESPAÇO EMP.DELLATORRE</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>CENTRO</t>
-        </is>
-      </c>
+          <t>KM 1</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>88330-048</t>
+          <t>76804-104</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>4202008</t>
+          <t>1100205</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>BALNEARIO CAMBORIU</t>
+          <t>PORTO VELHO</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>32631707</t>
-        </is>
-      </c>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>32.648.370/0001-26</t>
+          <t>00.000.000/1160-68</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>06373777</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BOA VIAGEM SOCIEDADE CORRETORA DE CÂMBIO LTDA.</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>POSTO MARAGOGI</t>
+          <t>REDENÇÃO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AV SENADOR RUI PALMEIRA</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>765</t>
-        </is>
-      </c>
+          <t>RODOVIA PA 287</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>KM:287,LOTE:32, 32-A E 32-B</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>COLONIA FREI GIL</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>57955-000</t>
+          <t>68550-000</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2704500</t>
+          <t>1506138</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>MARAGOGI</t>
+          <t>REDENCAO</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>33439194</t>
-        </is>
-      </c>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>06.373.777/0001-88</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>06373777</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BOA VIAGEM SOCIEDADE CORRETORA DE CÂMBIO LTDA.</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>POSTO VIA SUL</t>
+          <t>ITAITUBA - PA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AV. WASHINGTON SOARES</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
+          <t>FAZENDA MINUANO BACIA DO RIO CREPURIZINH</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>LOJA 147  VIA SUL SHOPPING</t>
+          <t>SALA A</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>SAPIRANGA</t>
+          <t>ZONA RURAL</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>60833-005</t>
+          <t>68187-899</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2304400</t>
+          <t>1503606</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>ITAITUBA</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>30327764</t>
-        </is>
-      </c>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>06.373.777/0001-88</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>28762249</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SADOC SOCIEDADE CORRETORA DE CÂMBIO LTDA.</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SADOC SOCIEDADE CORRETORA DE CÂMBIO LTDA.</t>
+          <t>POCONÉ-MT</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Posto Avançado de Atendimento - PAA</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>RUA FRANCISCO QUIRINO</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>RUA 13 DE JUNHO</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
@@ -2981,223 +2965,203 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>62598-000</t>
+          <t>78175-000</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2307254</t>
+          <t>5106505</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>JIJOCA DE JERICOACOARA</t>
+          <t>POCONE</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>3297993</t>
-        </is>
-      </c>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>28.762.249/0001-53</t>
+          <t>00.000.000/1160-68</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>04894460</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS SERVIDORES DA JUSTIÇA DO ESTADO DE MINAS GERAIS LTDA. - SICOOB CREDJUS</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SICOOB PA FÓRUM - RAJA</t>
+          <t>POCONÉ - MT</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>AV. RAJA GABÁGLIA</t>
+          <t>RUA PRAÇA BEM RONDON</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1753</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ANDAR TÉRREO</t>
-        </is>
-      </c>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>LUXEMBURGO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30380-435</t>
+          <t>78175-000</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>3106200</t>
+          <t>5106505</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BELO HORIZONTE</t>
+          <t>POCONE</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>04894460</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS SERVIDORES DA JUSTIÇA DO ESTADO DE MINAS GERAIS LTDA. - SICOOB CREDJUS</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SICOOB PA FÓRUM CONTAGEM</t>
+          <t>PEIXOTO DE AZEVEDO-MT (AV. BRASIL, 423)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AV MARIA DA GLÓRIA ROCHA</t>
+          <t>AVENIDA BRASIL,</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>423</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3- ANDAR</t>
+          <t>SALA 02</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>BITACULA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>32010-375</t>
+          <t>78530-000</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>3106200</t>
+          <t>5106422</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>BELO HORIZONTE</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>32754645</t>
-        </is>
-      </c>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>90.400.888/2290-50</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>33851064</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DILLON S/A DISTRIBUIDORA DE TITULOS E VALORES MOBILIARIOS</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3207,7 +3171,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>POSTO DE COMPRA DE OURO DO MUNÍCIPIO DO RIO DE JANEIRO - RJ</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3217,17 +3181,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>RUA DA ASSEMBLEIA</t>
+          <t>AVENIDA BRASIL</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>233</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>13- ANDAR</t>
+          <t>QUADRA 003 LOTE 0007</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3237,127 +3201,115 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>20011-001</t>
+          <t>78530-000</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>3304557</t>
+          <t>5106422</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>RJ</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>25178021</t>
-        </is>
-      </c>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>33.851.064/0001-55</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>17312083</t>
+          <t>08673569</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>H H PICCHIONI S/A CORRETORA DE CAMBIO E VALORES MOBILIARIOS</t>
+          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de TVM</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PICCHIONI CÂMBIO</t>
+          <t>PCO PEIXTO DE AZEVEDO - MT (AVENIDA BRASIL, N- 10</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Compra de Ouro - PCO</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AV. DOS ANDRADAS, 3000</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>AVENIDA BRASIL</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>LOJA 1041 - 1. PISO</t>
+          <t>QUADRA 003 LOTE 0007</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>SANTA EFIGÊNIA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>30260-070</t>
+          <t>78530-000</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>3106200</t>
+          <t>5106422</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>BELO HORIZONTE</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>32387441</t>
-        </is>
-      </c>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>17.312.083/0001-57</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3331,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ALTA FLORESTA - MT</t>
+          <t>ABERTURA DE UM POSTO DE COMPRA DE OURO (PCO  NA CIDADE DE PE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3389,29 +3341,37 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AVENIDA JAIME VERISSIMO DE CAMPOS</t>
+          <t>AVENIDA BRASIL</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>QUADRA 003 LOTE 0007</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>CENTRO ANTIGO</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>78580-000</t>
+          <t>78530-000</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>5100250</t>
+          <t>5106422</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>ALTA FLORESTA</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3429,7 +3389,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3411,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PORTO VELHO-RO (RUA JOAQUIM NABUCO)</t>
+          <t>PEIXOTO DE AZEVEDO-MT (AV. BRASIL, 825)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3461,51 +3421,55 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>RUA JOAQUIM NABUCO,</t>
+          <t>AVENIDA BRASIL,</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>825</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>KM 1</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>SALA 02</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>76804-104</t>
+          <t>78530-000</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1100205</t>
+          <t>5106422</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>PORTO VELHO</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>00.000.000/1160-68</t>
+          <t>60.701.190/0291-88</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3491,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>REDENÇÃO</t>
+          <t>PRAÇA C48 - PEIXOTO DE AZEVEDO - MT</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3537,38 +3501,42 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>RODOVIA PA 287</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>AVENIDA BRASIL</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>KM:287,LOTE:32, 32-A E 32-B</t>
+          <t>QUADRA 003 LOTE 0007</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>COLONIA FREI GIL</t>
+          <t>CENTRO NOVO</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>68550-000</t>
+          <t>78530-000</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1506138</t>
+          <t>5106422</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>REDENCAO</t>
+          <t>PEIXOTO DE AZEVEDO</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -3581,7 +3549,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3571,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ITAITUBA - PA</t>
+          <t>PARANAÍTA - MT</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3613,51 +3581,47 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FAZENDA MINUANO BACIA DO RIO CREPURIZINH</t>
+          <t>RUA ORLANDO PETROFEZA, N- 156</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>SALA A</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>ZONA RURAL</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>68187-899</t>
+          <t>78590-000</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1503606</t>
+          <t>5106299</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>ITAITUBA</t>
+          <t>PARANAITA</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>25.107.525/0001-51</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3643,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PCO VARZEA GRANDE - MT</t>
+          <t>PRAÇA C46 - NOVA GUARITA - MT</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3689,37 +3653,37 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AV. JULIO DOMINGOS DE CAMPOS</t>
+          <t>AVENIDA DOS MIGRANTES</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>5774</t>
+          <t>490</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>SALA 6</t>
+          <t>SALA A</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>SANTA ISABEL</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>78150-236</t>
+          <t>78508-000</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>5108402</t>
+          <t>5108808</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>VARZEA GRANDE</t>
+          <t>NOVA GUARITA</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3737,7 +3701,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3723,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TERRA NOVA DO NORTE-MT (C-13 TERRA NOVA DO NORTE)</t>
+          <t>PCO NOVA CANAA-MT</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3769,17 +3733,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TRAVESSA LUCAS TOMIAZZO,</t>
+          <t>AVENIDA BRASIL</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>117</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>SALA 25</t>
+          <t>SETOR 1, QUADRA 61, LOTE 2</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3789,17 +3753,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>78505-000</t>
+          <t>78515-000</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>5108055</t>
+          <t>5106216</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>TERRA NOVA DO NORTE</t>
+          <t>NOVA CANAA DO NORTE</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3811,13 +3775,13 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>60.701.190/0126-17</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3803,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PRAÇA C47 - TERRA NOVA DO NORTE</t>
+          <t>NOSSA SENHORA DO LIVRAMENTO - MT</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3849,17 +3813,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>AVENIDA NORBERTO SCHWANTES</t>
+          <t>TRAVESSA WAGNER OLIVEIRA QUELUZ</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>SALA A</t>
+          <t>QUADRA 04, SETOR 01</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3869,17 +3833,17 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>78505-000</t>
+          <t>78170-000</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>5108055</t>
+          <t>5106109</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>TERRA NOVA DO NORTE</t>
+          <t>NOSSA SENHORA DO LIVRAMENTO</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3897,7 +3861,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3883,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>POCONÉ-MT</t>
+          <t>PRAÇA C45 - MATUPÁ - MT</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3929,15 +3893,19 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>RUA 13 DE JUNHO</t>
+          <t>RUA LUIZ MENA</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>1108</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>SALA B, ZH2-001</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -3945,17 +3913,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>78175-000</t>
+          <t>78525-000</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>5106505</t>
+          <t>5105606</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>POCONE</t>
+          <t>MATUPA</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3967,13 +3935,13 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>00.000.000/1160-68</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3963,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>POCONÉ - MT</t>
+          <t>MATUPÁ-MT</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4005,12 +3973,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>RUA PRAÇA BEM RONDON</t>
+          <t>AVENIDA ALCIDES MORENO CAPELINI</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -4021,17 +3989,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>78175-000</t>
+          <t>78520-000</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>5106505</t>
+          <t>5104104</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>POCONE</t>
+          <t>GUARANTA DO NORTE</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -4043,13 +4011,13 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>46.352.746/0001-65</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4039,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO-MT (AV. BRASIL, 825)</t>
+          <t>GUARANTÃ DO NORTE - MT -  PCO</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4081,19 +4049,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL,</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>825</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>SALA 02</t>
-        </is>
-      </c>
+          <t>RUA DOS CAJUEIROS, 171</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -4101,17 +4061,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>78530-000</t>
+          <t>78520-000</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>5106422</t>
+          <t>5104104</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO</t>
+          <t>GUARANTA DO NORTE</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -4123,13 +4083,13 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>60.701.190/0291-88</t>
+          <t>08.673.569/0001-20</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4111,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PCO PEIXTO DE AZEVEDO - MT (AVENIDA BRASIL, N- 10</t>
+          <t>PCO COLIDER - MT  RESPONSÁVEL M. A. REIS DE SOUZA EIRELI</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4161,17 +4121,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL</t>
+          <t>AVENIDA TANCREDO NEVES</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>520</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>QUADRA 003 LOTE 0007</t>
+          <t>SETOR SUL</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4181,17 +4141,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>78530-000</t>
+          <t>78500-000</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>5106422</t>
+          <t>5103205</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO</t>
+          <t>COLIDER</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4203,13 +4163,13 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>00.360.305/0001-04</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4191,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ABERTURA DE UM POSTO DE COMPRA DE OURO (PCO  NA CIDADE DE PE</t>
+          <t>ARIPUANÃ-MT</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4241,37 +4201,29 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>QUADRA 003 LOTE 0007</t>
-        </is>
-      </c>
+          <t>RUA LIRIO DENARAY, Nº 02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>CENTRO ANTIGO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>78530-000</t>
+          <t>78325-000</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>5106422</t>
+          <t>5101407</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO</t>
+          <t>ARIPUANA</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4289,7 +4241,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4263,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO</t>
+          <t>ALTA FLORESTA - MT</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4321,37 +4273,29 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL</t>
+          <t>AVENIDA JAIME VERISSIMO DE CAMPOS</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>QUADRA 003 LOTE 0007</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>CENTRO</t>
-        </is>
-      </c>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>78530-000</t>
+          <t>78580-000</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>5106422</t>
+          <t>5100250</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO</t>
+          <t>ALTA FLORESTA</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4369,7 +4313,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4335,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO-MT (AV. BRASIL, 423)</t>
+          <t>PCO VARZEA GRANDE - MT</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4401,37 +4345,37 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL,</t>
+          <t>AV. JULIO DOMINGOS DE CAMPOS</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>5774</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>SALA 02</t>
+          <t>SALA 6</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>SANTA ISABEL</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>78530-000</t>
+          <t>78150-236</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>5106422</t>
+          <t>5108402</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO</t>
+          <t>VARZEA GRANDE</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -4449,7 +4393,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4415,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PRAÇA C48 - PEIXOTO DE AZEVEDO - MT</t>
+          <t>PRAÇA C47 - TERRA NOVA DO NORTE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4481,37 +4425,37 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL</t>
+          <t>AVENIDA NORBERTO SCHWANTES</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>836</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>QUADRA 003 LOTE 0007</t>
+          <t>SALA A</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>CENTRO NOVO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>78530-000</t>
+          <t>78505-000</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5106422</t>
+          <t>5108055</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>PEIXOTO DE AZEVEDO</t>
+          <t>TERRA NOVA DO NORTE</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -4529,43 +4473,51 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>08673569</t>
+          <t>42445122</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA PONTIFÍCIA UNIVERSIDADE CATÓLICA DO RIO DE JANEIRO E EMPREGADOS EM ESTABELECIMENTOS PRIVADOS DE ENSINO DO MUNICÍPIO DO RIO DE JANEIRO LTDA.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sociedade Distribuidora de TVM</t>
+          <t>Cooperativa de Crédito</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PARANAÍTA - MT</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA PO</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Posto de Compra de Ouro - PCO</t>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>RUA ORLANDO PETROFEZA, N- 156</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+          <t>RUA ACRE</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>SALA 603 E 604</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -4573,77 +4525,85 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>78590-000</t>
+          <t>20081-000</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>5106299</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>PARANAITA</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>25184167</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>25.107.525/0001-51</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>08673569</t>
+          <t>15482499</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
+          <t>TURCÂMBIO - CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sociedade Distribuidora de TVM</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PRAÇA C46 - NOVA GUARITA - MT</t>
+          <t>POSTO GAROPABA</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Posto de Compra de Ouro - PCO</t>
+          <t>Posto de Câmbio Transitório - PCT</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>AVENIDA DOS MIGRANTES</t>
+          <t>RUA PREFEITO JOÃO ORESTES DE ARAUJO</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>550</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>SALA A</t>
+          <t>SALA 02</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4653,77 +4613,85 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>78508-000</t>
+          <t>88495-000</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>5108808</t>
+          <t>4205704</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>NOVA GUARITA</t>
+          <t>GAROPABA</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>32546200</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>15.482.499/0001-98</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>08673569</t>
+          <t>15482499</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
+          <t>TURCÂMBIO - CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sociedade Distribuidora de TVM</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PCO NOVA CANAA-MT</t>
+          <t>POSTO JOINVILLE</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Posto de Compra de Ouro - PCO</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>AVENIDA BRASIL</t>
+          <t>RUA MARIO LOBO</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>61</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>SETOR 1, QUADRA 61, LOTE 2</t>
+          <t>EDIFICIO TERRAÇO CENTER</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4733,507 +4701,567 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>78515-000</t>
+          <t>89201-330</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>5106216</t>
+          <t>4209102</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>NOVA CANAA DO NORTE</t>
+          <t>JOINVILLE</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>32546200</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>15.482.499/0001-98</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>08673569</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Sociedade Distribuidora de TVM</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA DO LIVRAMENTO - MT</t>
+          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Posto de Compra de Ouro - PCO</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TRAVESSA WAGNER OLIVEIRA QUELUZ</t>
+          <t>AV ATLANTICA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>QUADRA 04, SETOR 01</t>
-        </is>
-      </c>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>COPACABANA</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>78170-000</t>
+          <t>22041-001</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>5106109</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>NOSSA SENHORA DO LIVRAMENTO</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>35413932</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>08673569</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sociedade Distribuidora de TVM</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PRAÇA C45 - MATUPÁ - MT</t>
+          <t>CONECTA - POSTO ABILIO SOARES</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Posto de Compra de Ouro - PCO</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>RUA LUIZ MENA</t>
+          <t>ABILIO SOARES</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1108</t>
+          <t>227</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>SALA B, ZH2-001</t>
+          <t>CONJUNTO 81</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>PARAISO</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>78525-000</t>
+          <t>04001-000</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>5105606</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>MATUPA</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>45503600</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>08673569</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sociedade Distribuidora de TVM</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>GUARANTÃ DO NORTE - MT -  PCO</t>
+          <t>POSTO SÃO PAULO</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Posto de Compra de Ouro - PCO</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>RUA DOS CAJUEIROS, 171</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+          <t>AVENIDA PAULISTA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>CONJUNTO 19 C</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>BELA VISTA</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>78520-000</t>
+          <t>01310-200</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>5104104</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>GUARANTA DO NORTE</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>55554121</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>25.107.517/0001-05</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>08673569</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sociedade Distribuidora de TVM</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>MATUPÁ-MT</t>
+          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Posto de Compra de Ouro - PCO</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>AVENIDA ALCIDES MORENO CAPELINI</t>
+          <t>AV NIEMEYER</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1082</t>
+          <t>121</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>LEBLON</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>78520-000</t>
+          <t>22450-220</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>5104104</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>GUARANTA DO NORTE</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>35413932</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>46.352.746/0001-65</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>08673569</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sociedade Distribuidora de TVM</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PCO COLIDER - MT  RESPONSÁVEL M. A. REIS DE SOUZA EIRELI</t>
+          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Posto de Compra de Ouro - PCO</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>AVENIDA TANCREDO NEVES</t>
+          <t>AV LUCIO COSTA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>SETOR SUL</t>
-        </is>
-      </c>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>BARRA DA TIJUCA</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>78500-000</t>
+          <t>22630-010</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>5103205</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>COLIDER</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>35413932</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>00.360.305/0001-04</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>08673569</t>
+          <t>18287740</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>F.D'GOLD - DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS LTDA.</t>
+          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sociedade Distribuidora de TVM</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ARIPUANÃ-MT</t>
+          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Posto de Compra de Ouro - PCO</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>RUA LIRIO DENARAY, Nº 02</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>AV ATLANTICA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1702</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>COPACABANA</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>78325-000</t>
+          <t>22021-001</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>5101407</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>ARIPUANA</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>35413932</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>08.673.569/0001-20</t>
+          <t>18.287.740/0001-16</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>42445122</t>
+          <t>18140913</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA PONTIFÍCIA UNIVERSIDADE CATÓLICA DO RIO DE JANEIRO E EMPREGADOS EM ESTABELECIMENTOS PRIVADOS DE ENSINO DO MUNICÍPIO DO RIO DE JANEIRO LTDA.</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA CBMM LTDA.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5243,7 +5271,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA PO</t>
+          <t>PONTO DE ATENDIMENTO</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5253,907 +5281,911 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>RUA ACRE</t>
+          <t>RUA DOS DIAMANTES</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>SALA 603 E 604</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>CENTRO</t>
-        </is>
-      </c>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>20081-000</t>
+          <t>00000-000</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>3304557</t>
+          <t>3104007</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>ARAXA</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>RJ</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>25184167</t>
-        </is>
-      </c>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>10.150.050/0001-09</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>15482499</t>
+          <t>64293582</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TURCÂMBIO - CORRETORA DE CÂMBIO LTDA.</t>
+          <t>COOPERATIVA DE CRÉDITO DOS EMPREGADOS DO GRUPO VALLOUREC NO BRASIL - COOVALL LTDA.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Cooperativa de Crédito</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>POSTO GAROPABA</t>
+          <t>PAC - VSBPAC - VSB</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Transitório - PCT</t>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>RUA PREFEITO JOÃO ORESTES DE ARAUJO</t>
+          <t>DISTRITO INDUSTRIAL</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>S/N</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>SALA 02</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>CENTRO</t>
-        </is>
-      </c>
+          <t>DENTRO DA USINA DA VSB</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>88495-000</t>
+          <t>35498-000</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>4205704</t>
+          <t>3135407</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>GAROPABA</t>
+          <t>JECEABA</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>31</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>32546200</t>
+          <t>21025534</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>15.482.499/0001-98</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>18287740</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
+          <t>FILIAL BARREIRAS (BA</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>AV ATLANTICA</t>
+          <t>RUA CUSTÓDIA ROCHA DE CARVALHO</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>257</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>COPACABANA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>22041-001</t>
+          <t>47800-172</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>3304557</t>
+          <t>2903201</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>BARREIRAS</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>35413932</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>18.287.740/0001-16</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>18287740</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>POSTO SÃO PAULO</t>
+          <t>FILIAL TEÓFILO OTONI 36.321.990/0021-50</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>AVENIDA PAULISTA</t>
+          <t>RUA EPAMINONDAS OTONI</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1776</t>
+          <t>856</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>CONJUNTO 19 C</t>
+          <t>LOJA01</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>BELA VISTA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>01310-200</t>
+          <t>39800-013</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>3550308</t>
+          <t>3168606</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>SAO PAULO</t>
+          <t>TEOFILO OTONI</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>55554121</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>25.107.517/0001-05</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>18287740</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CONECTA - POSTO ABILIO SOARES</t>
+          <t>FILIAL - NANUQUE - MG</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ABILIO SOARES</t>
+          <t>AV. GERALDO ROMANO</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>CONJUNTO 81</t>
-        </is>
-      </c>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>PARAISO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>04001-000</t>
+          <t>39860-000</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>3550308</t>
+          <t>3144300</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>SAO PAULO</t>
+          <t>NANUQUE</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>45503600</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>18.287.740/0001-16</t>
+          <t>48.197.859/0001-69</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>18287740</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>POSTO DE CAMBIO - SAO PAULO</t>
+          <t>FILIAL   VITORIA  ES-</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>R 24 DE MAIO</t>
+          <t>PRAÇA COSTA PEREIRA</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>196</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>LJ 29</t>
+          <t>LOJA02</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>REPÚBLICA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>01041-001</t>
+          <t>29010-080</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>3550308</t>
+          <t>3205309</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>SAO PAULO</t>
+          <t>VITORIA</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>35413932</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>18.287.740/0001-16</t>
+          <t>60.746.948/0629-08</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>18287740</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
+          <t>FILIAL COQUEIRAL DE ITAPARICA - VILA VELHA - 36.321.990/0031</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>AV NIEMEYER</t>
+          <t>AV SANTA LEOPOLDINA</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>LOJA 06</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>LEBLON</t>
+          <t>PRAIA DE ITAPARICA</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>22450-220</t>
+          <t>29102-915</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>3304557</t>
+          <t>3205200</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>VILA VELHA</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>35413932</t>
+          <t>40205055</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>18.287.740/0001-16</t>
+          <t>17.184.037/0001-10</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>18287740</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
+          <t>FILIAL GLORIA - VILA VELHA -ES</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>AV LUCIO COSTA</t>
+          <t>R. SANTA TEREZINHA</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>3150</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>LOJA 01 EDIFICIO NORBERTO GORZA</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>BARRA DA TIJUCA</t>
+          <t>CRISTÓVÃO COLOMBO</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>22630-010</t>
+          <t>29106-570</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>3304557</t>
+          <t>3205200</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>VILA VELHA</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>35413932</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>18.287.740/0001-16</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>18287740</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CONECTA CORRETORA DE CÂMBIO LTDA.</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>POSTO DE CAMBIO - RIO DE JANEIRO</t>
+          <t>FILIAL - GUARAPARI - 36.321.990/0029-08</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>AV ATLANTICA</t>
+          <t>AV EWERSON DE ABREU SODRE</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1702</t>
+          <t>164</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>COPACABANA</t>
+          <t>MUQUICABA</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>22021-001</t>
+          <t>29215-010</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>3304557</t>
+          <t>3205200</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>VILA VELHA</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>35413932</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>18.287.740/0001-16</t>
+          <t>61.360.574/0001-65</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>18140913</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA CBMM LTDA.</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PONTO DE ATENDIMENTO</t>
+          <t>FILIAL - TERRA VERMELHA (VILA VELHA  - 36.321.990/0028-27</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>RUA DOS DIAMANTES</t>
+          <t>RUA AFONSO CLAUDIO</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>LOJA03</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>TERRA VERMELHA</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>00000-000</t>
+          <t>29127-210</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>3104007</t>
+          <t>3205200</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>ARAXA</t>
+          <t>VILA VELHA</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>40090200</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>10.150.050/0001-09</t>
+          <t>61.360.574/0001-65</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>64293582</t>
+          <t>36321990</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE CRÉDITO DOS EMPREGADOS DO GRUPO VALLOUREC NO BRASIL - COOVALL LTDA.</t>
+          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade de Crédito, Financiamento e Investimento</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>PAC - VSBPAC - VSB</t>
+          <t>FILIAL LARANJEIRAS II - CNPJ 36.321.990/0023-12</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto Avançado de Atendimento - PAA</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>DISTRITO INDUSTRIAL</t>
+          <t>AVENIDA PRIMEIRA AVENIDA</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>S/N</t>
+          <t>332</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>DENTRO DA USINA DA VSB</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>LOTE 014</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>PARQUE RESIDENCIAL LARANJEIRAS</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>35498-000</t>
+          <t>29165-155</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>3135407</t>
+          <t>3205002</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>JECEABA</t>
+          <t>SERRA</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>21025534</t>
+          <t>40205055</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>90.400.888/2760-59</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6207,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>FILIAL CAMPO GRANDE   CARIACICA ES</t>
+          <t>FILIAL SAO MATEUS   ES</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -6185,12 +6217,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>AV. EXPEDITO GARCIA</t>
+          <t>AV CORONEL MATEUS CUNHA</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -6200,22 +6232,22 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>CAMPO GRANDE</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>29146-201</t>
+          <t>29930-180</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>3201308</t>
+          <t>3204906</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>CARIACICA</t>
+          <t>SAO MATEUS</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -6235,13 +6267,13 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>58.581.406/0001-95</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -6263,7 +6295,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>FILIAL CACHOEIRO DE ITAPEMIRIM - 36.321.990/0032-03</t>
+          <t>FILIAL SÃO GABRIEL DA PALHA - ES</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -6273,19 +6305,15 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>PC SENADOR LUIZ TINOCO</t>
+          <t>AVENIDA JOÃO XXIII</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>LOJA 02</t>
-        </is>
-      </c>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -6293,17 +6321,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>29300-073</t>
+          <t>29780-000</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>3201209</t>
+          <t>3204708</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>CACHOEIRO DE ITAPEMIRIM</t>
+          <t>SAO GABRIEL DA PALHA</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -6318,7 +6346,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>40090200</t>
+          <t>40090214</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -6329,7 +6357,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6379,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>FILIAL TEÓFILO OTONI 36.321.990/0021-50</t>
+          <t>FILIAL - PINHEIROS -ES 36.321.990/0008-83</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -6361,17 +6389,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>RUA EPAMINONDAS OTONI</t>
+          <t>AV. AGENOR LUIZ HERINGER</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>263</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>LOJA01</t>
+          <t>C, ANDAR 2, SALA 1</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6381,22 +6409,22 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>39800-013</t>
+          <t>29980-000</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>3168606</t>
+          <t>3204104</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>TEOFILO OTONI</t>
+          <t>PINHEIROS</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -6406,18 +6434,18 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>37650700</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>04.056.206/0001-94</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -6439,7 +6467,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>FILIAL - NANUQUE - MG</t>
+          <t>FILIAL NOVA VENECIA</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -6449,15 +6477,19 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>AV. GERALDO ROMANO</t>
+          <t>AVENIDA VITÓRIA</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>LOJA 02</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -6465,22 +6497,22 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>39860-000</t>
+          <t>29830-000</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>3144300</t>
+          <t>3203908</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>NANUQUE</t>
+          <t>NOVA VENECIA</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6495,13 +6527,13 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>48.197.859/0001-69</t>
+          <t>60.701.190/0001-04</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -6523,7 +6555,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>FILIAL   VITORIA  ES-</t>
+          <t>FILIAL LINHARES ES</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6533,17 +6565,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>PRAÇA COSTA PEREIRA</t>
+          <t>RUA MONESENHOR PEDRINHA</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>LOJA02</t>
+          <t>LOJA 02</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6553,17 +6585,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>29010-080</t>
+          <t>29900-161</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>3205309</t>
+          <t>3203205</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>VITORIA</t>
+          <t>LINHARES</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6578,18 +6610,18 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>40090200</t>
+          <t>40200200</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>60.746.948/0629-08</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6643,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>FILIAL - GUARAPARI - 36.321.990/0029-08</t>
+          <t>FILIAL COLATINA   ES</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6621,33 +6653,37 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>AV EWERSON DE ABREU SODRE</t>
+          <t>AV. GETÚLIO VARGAS</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>LOJA F E G, EDF. SCALA CENTER</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>MUQUICABA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>29215-010</t>
+          <t>29700-011</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>3205200</t>
+          <t>3201506</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>VILA VELHA</t>
+          <t>COLATINA</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -6667,13 +6703,13 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>61.360.574/0001-65</t>
+          <t>00.530.352/0001-59</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -6695,7 +6731,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>FILIAL BARRA DE SAO FRANCISCO   ES</t>
+          <t>FILIAL CAMPO GRANDE   CARIACICA ES</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6705,37 +6741,37 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>RUA JONES SANTOS NEVES</t>
+          <t>AV. EXPEDITO GARCIA</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>1465</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>LOJA 01</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>CAMPO GRANDE</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>29800-000</t>
+          <t>29146-201</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>3200904</t>
+          <t>3201308</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>BARRA DE SAO FRANCISCO</t>
+          <t>CARIACICA</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6755,13 +6791,13 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>36.321.990/0001-07</t>
+          <t>58.581.406/0001-95</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -6783,7 +6819,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>FILIAL AGORACRED VITORIA DA CONQUISTA BA</t>
+          <t>FILIAL CACHOEIRO DE ITAPEMIRIM - 36.321.990/0032-03</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -6793,15 +6829,19 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>AV LAURO DE FREITAS</t>
+          <t>PC SENADOR LUIZ TINOCO</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>LOJA 02</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr">
         <is>
           <t>CENTRO</t>
@@ -6809,22 +6849,22 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>45000-230</t>
+          <t>29300-073</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2933307</t>
+          <t>3201209</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>VITORIA DA CONQUISTA</t>
+          <t>CACHOEIRO DE ITAPEMIRIM</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6845,7 +6885,7 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6907,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>FILIAL TEIXEIRA DE FREITAS BA - 36.321.990/0018-55</t>
+          <t>FILIAL BARRA DE SAO FRANCISCO   ES</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -6877,42 +6917,42 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>AVENIDA PRESIDENTE GETULIO VARGAS</t>
+          <t>RUA JONES SANTOS NEVES</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3685</t>
+          <t>648</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>LOJAS 01 E 02</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>SAO LOURENCO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>45992-000</t>
+          <t>29800-000</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2931350</t>
+          <t>3200904</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>TEIXEIRA DE FREITAS</t>
+          <t>BARRA DE SAO FRANCISCO</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6922,18 +6962,18 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>4020</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>90.400.888/2318-96</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -6955,7 +6995,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>FILIAL ITAMARAJU BA</t>
+          <t>FILIAL AGORACRED VITORIA DA CONQUISTA BA</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -6965,12 +7005,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>AVENIDA ANTÔNIO CARLOS MAGALHÃES</t>
+          <t>AV LAURO DE FREITAS</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>254</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -6981,17 +7021,17 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>45836-000</t>
+          <t>45000-230</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2915601</t>
+          <t>2933307</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>ITAMARAJU</t>
+          <t>VITORIA DA CONQUISTA</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -7006,7 +7046,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>40200200</t>
+          <t>40090200</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -7017,7 +7057,7 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -7039,7 +7079,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>FILIAL EUNAPOLIS</t>
+          <t>FILIAL TEIXEIRA DE FREITAS BA - 36.321.990/0018-55</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -7049,37 +7089,37 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>AVENIDA PORTO SEGURO</t>
+          <t>AVENIDA PRESIDENTE GETULIO VARGAS</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>3685</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>TERREO</t>
+          <t>LOJAS 01 E 02</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>SAO LOURENCO</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>45820-002</t>
+          <t>45992-000</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2910727</t>
+          <t>2931350</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>EUNAPOLIS</t>
+          <t>TEIXEIRA DE FREITAS</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -7094,18 +7134,18 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>40090200</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>36.321.990/0001-07</t>
+          <t>90.400.888/2318-96</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -7127,7 +7167,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>FILIAL BARREIRAS (BA</t>
+          <t>FILIAL ITAMARAJU BA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -7137,12 +7177,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>RUA CUSTÓDIA ROCHA DE CARVALHO</t>
+          <t>AVENIDA ANTÔNIO CARLOS MAGALHÃES</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>180</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -7153,17 +7193,17 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>47800-172</t>
+          <t>45836-000</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2903201</t>
+          <t>2915601</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>BARREIRAS</t>
+          <t>ITAMARAJU</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -7178,18 +7218,18 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>40200200</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
@@ -7211,7 +7251,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>FILIAL - TERRA VERMELHA (VILA VELHA  - 36.321.990/0028-27</t>
+          <t>FILIAL EUNAPOLIS</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -7221,42 +7261,42 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>RUA AFONSO CLAUDIO</t>
+          <t>AVENIDA PORTO SEGURO</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>588</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>LOJA03</t>
+          <t>TERREO</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>TERRA VERMELHA</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>29127-210</t>
+          <t>45820-002</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>3205200</t>
+          <t>2910727</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>VILA VELHA</t>
+          <t>EUNAPOLIS</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -7271,911 +7311,931 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>61.360.574/0001-65</t>
+          <t>36.321.990/0001-07</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>36321990</t>
+          <t>25280945</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
+          <t>AVS CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Sociedade de Crédito, Financiamento e Investimento</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>FILIAL COQUEIRAL DE ITAPARICA - VILA VELHA - 36.321.990/0031</t>
+          <t>POSTO DE ATENDIMENTO PALLADIUM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Posto Avançado de Atendimento - PAA</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>AV SANTA LEOPOLDINA</t>
+          <t>AVENIDA PRESIDENTE KENNEDY</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>4121</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>LOJA 06</t>
+          <t>PISO L.3 - LOJA 3083-A</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>PRAIA DE ITAPARICA</t>
+          <t>PORTAO</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>29102-915</t>
+          <t>80610-905</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>3205200</t>
+          <t>4106902</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>VILA VELHA</t>
+          <t>CURITIBA</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>41</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>40205055</t>
+          <t>32232828</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>17.184.037/0001-10</t>
+          <t>25.280.945/0001-35</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>36321990</t>
+          <t>25280945</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
+          <t>AVS CORRETORA DE CÂMBIO LTDA.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sociedade de Crédito, Financiamento e Investimento</t>
+          <t>Sociedade Corretora de Câmbio</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>FILIAL GLORIA - VILA VELHA -ES</t>
+          <t>POSTO DE ATENDIMENTO OMAR</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Posto Avançado de Atendimento - PAA</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>R. SANTA TEREZINHA</t>
+          <t>RUA COMENDADOR ARAUJO</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>268</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>LOJA 01 EDIFICIO NORBERTO GORZA</t>
+          <t>PISO CA - LOJA 36</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>CRISTÓVÃO COLOMBO</t>
+          <t>CENTRO</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>29106-570</t>
+          <t>80420-010</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>3205200</t>
+          <t>4106902</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>VILA VELHA</t>
+          <t>CURITIBA</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>41</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>40090200</t>
+          <t>32232828</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>36.321.990/0001-07</t>
+          <t>25.280.945/0001-35</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>36321990</t>
+          <t>73077398</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
+          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA EATON</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sociedade de Crédito, Financiamento e Investimento</t>
+          <t>Cooperativa de Crédito</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>FILIAL LARANJEIRAS II - CNPJ 36.321.990/0023-12</t>
+          <t>COOPERATIVA SÃO JOSE DOS CAMPOS</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Posto Avançado de Atendimento - PAA</t>
+          <t>Posto de Atendimento Cooperativo - PAC</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>AVENIDA PRIMEIRA AVENIDA</t>
+          <t>AV. DR.  SEBASTIAO HENRIQUE DA CUNHA PON</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>LOTE 014</t>
-        </is>
-      </c>
+          <t>1655</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>PARQUE RESIDENCIAL LARANJEIRAS</t>
+          <t>PALMEIRAS DE SAO JOS</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>29165-155</t>
+          <t>12230-002</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>3205002</t>
+          <t>3549904</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>SERRA</t>
+          <t>SAO JOSE DOS CAMPOS</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>40205055</t>
-        </is>
-      </c>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>90.400.888/2760-59</t>
+          <t>90.400.888/0133-92</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>36321990</t>
+          <t>50489148</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Sociedade de Crédito, Financiamento e Investimento</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>FILIAL SAO MATEUS   ES</t>
+          <t>POSTO DE ATENDIMENTO - GOIÂNIA/GO</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Posto Avançado de Atendimento - PAA</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>AV CORONEL MATEUS CUNHA</t>
+          <t>AVENIDA PORTUGAL</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>LOJA 01</t>
+          <t>SALA C-1813, QUADRA L</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>SETOR MARISTA</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>29930-180</t>
+          <t>74150-030</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>3204906</t>
+          <t>5208707</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>SAO MATEUS</t>
+          <t>GOIANIA</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>62</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>40090200</t>
+          <t>31215230</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>36.321.990/0001-07</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr"/>
+          <t>50.489.148/0001-00</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+        </is>
+      </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>36321990</t>
+          <t>50489148</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Sociedade de Crédito, Financiamento e Investimento</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>FILIAL SÃO GABRIEL DA PALHA - ES</t>
+          <t>POSTO DE ATENDIMENTO - SÃO JOSÉ DO RIO PRETO/SP</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Posto Avançado de Atendimento - PAA</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>AVENIDA JOÃO XXIII</t>
+          <t>AVENIDA ANÍSIO HADDAD</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
+          <t>8001</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>SALA202,BLOCO A,TORRE02 MADRID,SETOR A EUROPE PA</t>
+        </is>
+      </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>JARDIM ACLIMAÇÃO</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>29780-000</t>
+          <t>15091-380</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>3204708</t>
+          <t>3549805</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>SAO GABRIEL DA PALHA</t>
+          <t>SAO JOSE DO RIO PRETO</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>40090214</t>
+          <t>30180960</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>36.321.990/0001-07</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr"/>
+          <t>50.489.148/0001-00</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+        </is>
+      </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>36321990</t>
+          <t>50489148</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sociedade de Crédito, Financiamento e Investimento</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>FILIAL - PINHEIROS -ES 36.321.990/0008-83</t>
+          <t>POSTO DE ATENDIMENTO - CAMPINAS/SP</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Posto Avançado de Atendimento - PAA</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>AV. AGENOR LUIZ HERINGER</t>
+          <t>RUA GUSTAVO AMBRUST</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>C, ANDAR 2, SALA 1</t>
+          <t>SALA 503, SETOR PA</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>NOVA CAMPINAS</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>29980-000</t>
+          <t>13092-106</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>3204104</t>
+          <t>3509502</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>PINHEIROS</t>
+          <t>CAMPINAS</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>37650700</t>
+          <t>30180960</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>04.056.206/0001-94</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr"/>
+          <t>50.489.148/0001-00</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+        </is>
+      </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>36321990</t>
+          <t>50489148</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sociedade de Crédito, Financiamento e Investimento</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>FILIAL NOVA VENECIA</t>
+          <t>POSTO DE ATENDIMENTO - PORTO ALEGRE/RS</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Posto Avançado de Atendimento - PAA</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>AVENIDA VITÓRIA</t>
+          <t>AVENIDA DR. NILO PEÇANHA</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>LOJA 02</t>
+          <t>LOJA 01, SALA PA</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>TRÊS FIGUEIRAS</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>29830-000</t>
+          <t>91330-000</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>3203908</t>
+          <t>4314902</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>NOVA VENECIA</t>
+          <t>PORTO ALEGRE</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>51</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>40090200</t>
+          <t>30936776</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>60.701.190/0001-04</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr"/>
+          <t>50.489.148/0001-00</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+        </is>
+      </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>36321990</t>
+          <t>50489148</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Sociedade de Crédito, Financiamento e Investimento</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>FILIAL LINHARES ES</t>
+          <t>POSTO DE ATENDIMENTO - RIO DE JANEIRO/RJ</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Posto Avançado de Atendimento - PAA</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>RUA MONESENHOR PEDRINHA</t>
+          <t>RUA VISCONDE DE PIRAJÁ</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>250</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>LOJA 02</t>
+          <t>SALA 401</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>IPANEMA</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>29900-161</t>
+          <t>22410-000</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>3203205</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>LINHARES</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>40200200</t>
+          <t>36137800</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>36.321.990/0001-07</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr"/>
+          <t>50.489.148/0001-00</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+        </is>
+      </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>36321990</t>
+          <t>50489148</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>AGORACRED S/A SOCIEDADE DE CRÉDITO, FINANCIAMENTO E INVESTIMENTO</t>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Sociedade de Crédito, Financiamento e Investimento</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>FILIAL COLATINA   ES</t>
+          <t>POSTO DE ATENDIMENTO - CURITIBA/PR</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Posto Avançado de Atendimento - PAA</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>AV. GETÚLIO VARGAS</t>
+          <t>AVENIDA DO BATEL</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>LOJA F E G, EDF. SCALA CENTER</t>
+          <t>SALA 307, 3- ANDAR, CONDOMÍNIO BATEL, BLOCO WORK B</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>BATEL</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>29700-011</t>
+          <t>80420-090</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>3201506</t>
+          <t>4106902</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>COLATINA</t>
+          <t>CURITIBA</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>40090200</t>
+          <t>40002174</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>00.530.352/0001-59</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr"/>
+          <t>50.489.148/0001-00</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+        </is>
+      </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>25280945</t>
+          <t>50489148</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>AVS CORRETORA DE CÂMBIO LTDA.</t>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Corretora de TVM</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO PALLADIUM</t>
+          <t>POSTO DE ATENDIMENTO - BELO HORIZONTE/MG</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Posto de Câmbio Permanente - PCP</t>
+          <t>Posto de Atendimento Bancário - PAB</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>AVENIDA PRESIDENTE KENNEDY</t>
+          <t>AVENIDA DO CONTORNO</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>4121</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>PISO L.3 - LOJA 3083-A</t>
+          <t>SALA 27 - MEZANINO</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>PORTAO</t>
+          <t>SAVASSI</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>80610-905</t>
+          <t>30110-042</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>4106902</t>
+          <t>3106200</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>CURITIBA</t>
+          <t>BELO HORIZONTE</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>31</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>32232828</t>
+          <t>21171244</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>25.280.945/0001-35</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr"/>
+          <t>50.489.148/0001-00</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+        </is>
+      </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>25280945</t>
+          <t>17354911</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>AVS CORRETORA DE CÂMBIO LTDA.</t>
+          <t>RENDIMENTO DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S/A</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de Câmbio</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO OMAR</t>
+          <t>RIO DE JANEIRO-RJ (RECREIO SHOPPING</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -8185,121 +8245,125 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>RUA COMENDADOR ARAUJO</t>
+          <t>AV. DAS AMÉRICAS,</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>19019</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>PISO CA - LOJA 36</t>
+          <t>LOJA 206 -RECREIO SHOPPING</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>RECR.DOS BANDEIRANTES</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>80420-010</t>
+          <t>22790-703</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>4106902</t>
+          <t>3304557</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>CURITIBA</t>
+          <t>RIO DE JANEIRO</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>32232828</t>
+          <t>31788900</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>25.280.945/0001-35</t>
+          <t>14.675.270/0004-50</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>73077398</t>
+          <t>17354911</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE ECONOMIA E CRÉDITO MÚTUO DOS EMPREGADOS DA EATON</t>
+          <t>RENDIMENTO DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S/A</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cooperativa de Crédito</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>COOPERATIVA SÃO JOSE DOS CAMPOS</t>
+          <t>SÃO PAULO-SP (SHOPPING JARDIM SUL</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Cooperativo - PAC</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>AV. DR.  SEBASTIAO HENRIQUE DA CUNHA PON</t>
+          <t>AV. GIOVANNI GRONCHI,</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1655</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
+          <t>5819</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>LOJA 118 A PISO TERREO - SHOP.JARDIM SUL</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>PALMEIRAS DE SAO JOS</t>
+          <t>VILA ANDRADE</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>12230-002</t>
+          <t>05724-003</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>3549904</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>SAO JOSE DOS CAMPOS</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -8307,171 +8371,175 @@
           <t>SP</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>37431859</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>90.400.888/0133-92</t>
+          <t>52.123.916/0001-32</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>50489148</t>
+          <t>17354911</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+          <t>RENDIMENTO DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S/A</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de TVM</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO - GOIÂNIA/GO</t>
+          <t>SANTOS-SP (SHOPPING PARQUE BALNEÁRIO)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Bancário - PAB</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>AVENIDA PORTUGAL</t>
+          <t>AV. DONA ANA COSTA,</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>549</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>SALA C-1813, QUADRA L</t>
+          <t>LOJA 59A-SHOPPING PARQUE BALNEÁRIO</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>SETOR MARISTA</t>
+          <t>GONZAGA</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>74150-030</t>
+          <t>11060-003</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>5208707</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>GOIANIA</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>13</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>31215230</t>
+          <t>22021104</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>50.489.148/0001-00</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
-        </is>
-      </c>
+          <t>17.354.911/0001-10</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>50489148</t>
+          <t>17354911</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+          <t>RENDIMENTO DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S/A</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de TVM</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO - SÃO JOSÉ DO RIO PRETO/SP</t>
+          <t>SÃO PAULO-SP (TIETE PLAZA SHOPPING)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Bancário - PAB</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>AVENIDA ANÍSIO HADDAD</t>
+          <t>AVENIDA RAIMUNDO PEREIRA DE MAGALHÃES,</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>1465</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>SALA202,BLOCO A,TORRE02 MADRID,SETOR A EUROPE PA</t>
+          <t>SUC 1013 - 2º PAV.-TIETE PLAZA SHOPPING</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>JARDIM ACLIMAÇÃO</t>
+          <t>JARDIM ÍRIS</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>15091-380</t>
+          <t>05145-000</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>3549805</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>SAO JOSE DO RIO PRETO</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -8486,84 +8554,76 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>30180960</t>
+          <t>32019162</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>50.489.148/0001-00</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
-        </is>
-      </c>
+          <t>17.354.911/0001-10</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>50489148</t>
+          <t>17354911</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+          <t>RENDIMENTO DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S/A</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de TVM</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO - CAMPINAS/SP</t>
+          <t>SÃO PAULO-SP (PLAZA SUL</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Bancário - PAB</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>RUA GUSTAVO AMBRUST</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
+          <t>PÇA. LEONOR KAUPA, N- 100</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>SALA 503, SETOR PA</t>
+          <t>QUADRA 81 E 82 LJ 114 A PISO0</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>NOVA CAMPINAS</t>
+          <t>BOSQUE DA SAÚDE</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>13092-106</t>
+          <t>04151-100</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>3509502</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>CAMPINAS</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -8573,278 +8633,262 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>30180960</t>
+          <t>50730355</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>50.489.148/0001-00</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
-        </is>
-      </c>
+          <t>17.354.911/0005-43</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>50489148</t>
+          <t>17354911</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+          <t>RENDIMENTO DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S/A</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de TVM</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO - PORTO ALEGRE/RS</t>
+          <t>SÃO PAULO-SP (SHOPPING CIDADE DE SÃO PAULO)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Bancário - PAB</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>AVENIDA DR. NILO PEÇANHA</t>
+          <t>AVENIDA PAULISTA,</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>LOJA 01, SALA PA</t>
+          <t>SUC Nº 3113 - PISO 03 - SH. CIDADE DE SP</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>TRÊS FIGUEIRAS</t>
+          <t>BELA VISTA</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>91330-000</t>
+          <t>01310-100</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>4314902</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>PORTO ALEGRE</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>30936776</t>
+          <t>35951491</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>50.489.148/0001-00</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
-        </is>
-      </c>
+          <t>17.354.911/0001-10</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>50489148</t>
+          <t>17354911</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+          <t>RENDIMENTO DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S/A</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de TVM</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO - RIO DE JANEIRO/RJ</t>
+          <t>SÃO PAULO-SP (AV. ANTÁRTICA)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Bancário - PAB</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>RUA VISCONDE DE PIRAJÁ</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
+          <t>AVENIDA ANTÁRTICA, 380 - ARCO 3118</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>SALA 401</t>
+          <t>2º PISO - BLOCO A - SHOPPING WEST PLAZA</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>IPANEMA</t>
+          <t>ÁGUA BRANCA</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>22410-000</t>
+          <t>05003-020</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>3304557</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>36137800</t>
+          <t>38710210</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>50.489.148/0001-00</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
-        </is>
-      </c>
+          <t>10.847.721/0001-95</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>50489148</t>
+          <t>17354911</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+          <t>RENDIMENTO DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S/A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de TVM</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO - CURITIBA/PR</t>
+          <t>SÃO PAULO-SP (RUA TREZE DE MAIO</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Bancário - PAB</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>AVENIDA DO BATEL</t>
+          <t>RUA TREZE DE MAIO</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>SALA 307, 3- ANDAR, CONDOMÍNIO BATEL, BLOCO WORK B</t>
+          <t>PISO PARAISO, LOJA 424</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>BATEL</t>
+          <t>BELA VISTA</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>80420-090</t>
+          <t>01327-001</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>4106902</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>CURITIBA</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -8854,114 +8898,102 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>40002174</t>
+          <t>32666724</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>50.489.148/0001-00</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
-        </is>
-      </c>
+          <t>10.847.721/0001-95</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>50489148</t>
+          <t>17354911</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
+          <t>RENDIMENTO DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S/A</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sociedade Corretora de TVM</t>
+          <t>Sociedade Distribuidora de TVM</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>POSTO DE ATENDIMENTO - BELO HORIZONTE/MG</t>
+          <t>SÃO PAULO-SP (SHOPPING LIGHT REPÚBLICA</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Posto de Atendimento Bancário - PAB</t>
+          <t>Posto de Câmbio Permanente - PCP</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>AVENIDA DO CONTORNO</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>5800</t>
-        </is>
-      </c>
+          <t>RUA CORONEL XAVIER DE TOLEDO, 23</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>SALA 27 - MEZANINO</t>
+          <t>LOJA 105 E 106-2 PAV.SHOP.LIGHT REPÚBLICA</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>SAVASSI</t>
+          <t>REPÚBLICA</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>30110-042</t>
+          <t>01048-100</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>3106200</t>
+          <t>3550308</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>BELO HORIZONTE</t>
+          <t>SAO PAULO</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>21171244</t>
+          <t>32280915</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>50.489.148/0001-00</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>MONTE BRAVO CORRETORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.</t>
-        </is>
-      </c>
+          <t>60.701.190/0001-04</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>17/08/2025</t>
         </is>
       </c>
     </row>
